--- a/재고관리_WBS_분석_with_db.xlsx
+++ b/재고관리_WBS_분석_with_db.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="587">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1931,10 +1931,6 @@
   </si>
   <si>
     <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getBonbuMOVEInfo(DOCNO), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.updateMoveCFM(DOCNO, centerVo.getMCI_CODE(), DBM_DATE, DBM_QTY, DBM_HOWMOVE, DBM_CMNT, "BonbuMove_CFM", userService.getUserID(request))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getBonbuMOVEInfo(DOCNO), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER)inOutService.updateMove(DOCNO, userService.getUserID(request), DBM_HOWMOVE, DBM_CMNT, "BonbuMove_Save", MoveInfo.getDBO_MODEL(), DBM_DATE, i_DBM_QTY, centerVo.getMCI_CODE(), MoveInfo.getDBM_CFM())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4495,6 +4491,1451 @@
       left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
    WHERE MUT_UserID = #{USERID}
  &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;delete id="deleteBonbuIn" parameterType="String"&gt;
+     delete from DT_BONBU_IN
+      where DBI_TOPDOCNO = #{value}
+        AND DBI_BisSts = 'N'
+ &lt;/delete&gt;
+&lt;select id="getLogcInInfo" resultType="com.vo.LogcInVo" parameterType="String"&gt;
+  SELECT DIL_DOCNO, DIL_LOGC, MCI_LOGCNAME,
+      DIL_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, 
+      CONVERT(CHAR(10), DIL_JEJO, 23) as DIL_JEJO, 
+      CONVERT(CHAR(10), DIL_INDate, 23) as DIL_INDate, 
+      DIL_INPRICE, DIL_QTY, DIL_INPRICE * DIL_QTY as INTOTAL,
+      DIL_OUTSts, ISNULL(A.OUTTOTAL,'0') as OUTTOTAL,
+      CONVERT(CHAR(10), DIL_OUTDATE, 23) as DIL_OUTDATE,
+      B.SUS_CNT as SUS_CNT
+    FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, DT_IN_LOGC
+         left outer join (select DBI_TOPDOCNO, SUM(DBI_QTY) as OUTTOTAL from DT_BONBU_IN group by DBI_TOPDOCNO ) A on DIL_DOCNO = A.DBI_TOPDOCNO
+      left outer join (SELECT DBI_TOPDOCNO, SUM(CASE WHEN DBI_BisSts = 'Y' then 1 else 0 end) AS SUS_CNT FROM DT_BONBU_IN group by DBI_TOPDOCNO ) B on DIL_DOCNO = B.DBI_TOPDOCNO
+   WHERE DIL_DOCNO = #{value}
+     AND DIL_LOGC = MCI_LOGC AND MCI_BONBU = ' ' AND MCI_CENTER = ' '
+     AND DIL_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE  
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getLogcInList" resultType="com.vo.LogcInVo" parameterType="hashmap"&gt;
+  SELECT rownum, DIL_DOCNO, DIL_LOGC, MCI_LOGCNAME, DIL_MODEL, MMC_LGROUP, MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, DIL_JEJO, DIL_INDate, DIL_INPRICE,
+      DIL_QTY, INTOTAL, bizSTS, DIL_OUTSts, totalCnt 
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DIL_INDate desc, DIL_LOGC ) AS rownum, 
+       DIL_DOCNO, DIL_LOGC, MCI_LOGCNAME,
+          DIL_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+          MMC_MGROUP, MMC_SGROUP, 
+          CONVERT(CHAR(10), DIL_JEJO, 23) as DIL_JEJO, 
+          CONVERT(CHAR(10), DIL_INDate, 23) as DIL_INDate, 
+          DIL_INPRICE, DIL_QTY, DIL_INPRICE * DIL_QTY as INTOTAL,
+          case when DBI_TOPDOCNO IS NULL then '0'
+            when not B_CNT = SUS_CNT then '1' 
+            when B_CNT = SUS_CNT then '2' 
+            else '0' end as bizSTS,
+       DIL_OUTSts, COUNT(*) OVER() AS totalCnt
+        FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, DT_IN_LOGC
+             left outer join (SELECT DBI_TOPDOCNO, COUNT(DBI_DOCNO) as B_CNT, SUM(CASE WHEN DBI_BisSts = 'Y' then 1 else 0 end) AS SUS_CNT FROM DT_BONBU_IN group by DBI_TOPDOCNO) B on DIL_DOCNO = B.DBI_TOPDOCNO
+       WHERE DIL_LOGC = MCI_LOGC AND MCI_BONBU = ' ' AND MCI_CENTER = ' '
+         AND DIL_MODEL = MMC_CODE
+         AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DIL_INDate between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND DIL_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DIL_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+      &lt;if test="BISSTS != null and !BISSTS.equals('')  "&gt;
+      &lt;if test="BISSTS == 0 "&gt;
+         AND DBI_TOPDOCNO IS NULL
+      &lt;/if&gt;
+      &lt;if test="BISSTS == 1 "&gt;
+         AND not B_CNT = SUS_CNT
+      &lt;/if&gt;
+      &lt;if test="BISSTS == 2 "&gt;
+         AND B_CNT = SUS_CNT
+      &lt;/if&gt;
+      &lt;/if&gt;
+  )A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getBonbuInInfo" resultType="com.vo.BonbuVo" parameterType="hashmap"&gt;
+  SELECT MCI_CODE, MCI_BonbuNAME, MCI_CenterName, ISNULL(MMJ_JEGO,'0') as MMJ_JEGO, ISNULL(DMJ_JEGO,'0') as DMJ_JEGO, DBI_DOCNO, ISNULL(DBI_QTY,'0') as DBI_QTY, DBI_BisSts
+    FROM MF_CENTER_INFO
+         left outer join DT_BONBU_IN on MCI_CODE = DBI_CENTER and DBI_TOPDOCNO = #{DOCNO}
+         left outer join MF_MODEL_JEGO on MCI_CODE = MMJ_CENTER and MMJ_MODEL = #{MODEL}
+         left outer join DT_MODEL_JEGO on MCI_CODE = DMJ_CENTER and DMJ_MODEL = #{MODEL}
+   WHERE MCI_LOGC = #{LOGC} 
+     AND NOT MCI_Bonbu = ' ' 
+     AND NOT MCI_Center = ' '
+     AND (DBI_CENTER is not null or DBI_CENTER is null and MCI_BizSts = 'Y') 
+ &lt;/select&gt;
+&lt;select id="getLogcInInfo" resultType="com.vo.LogcInVo" parameterType="String"&gt;
+  SELECT DIL_DOCNO, DIL_LOGC, MCI_LOGCNAME,
+      DIL_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, 
+      CONVERT(CHAR(10), DIL_JEJO, 23) as DIL_JEJO, 
+      CONVERT(CHAR(10), DIL_INDate, 23) as DIL_INDate, 
+      DIL_INPRICE, DIL_QTY, DIL_INPRICE * DIL_QTY as INTOTAL,
+      DIL_OUTSts, ISNULL(A.OUTTOTAL,'0') as OUTTOTAL,
+      CONVERT(CHAR(10), DIL_OUTDATE, 23) as DIL_OUTDATE,
+      B.SUS_CNT as SUS_CNT
+    FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, DT_IN_LOGC
+         left outer join (select DBI_TOPDOCNO, SUM(DBI_QTY) as OUTTOTAL from DT_BONBU_IN group by DBI_TOPDOCNO ) A on DIL_DOCNO = A.DBI_TOPDOCNO
+      left outer join (SELECT DBI_TOPDOCNO, SUM(CASE WHEN DBI_BisSts = 'Y' then 1 else 0 end) AS SUS_CNT FROM DT_BONBU_IN group by DBI_TOPDOCNO ) B on DIL_DOCNO = B.DBI_TOPDOCNO
+   WHERE DIL_DOCNO = #{value}
+     AND DIL_LOGC = MCI_LOGC AND MCI_BONBU = ' ' AND MCI_CENTER = ' '
+     AND DIL_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE  
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getBonbuInInfo" resultType="com.vo.BonbuVo" parameterType="hashmap"&gt;
+  SELECT MCI_CODE, MCI_BonbuNAME, MCI_CenterName, ISNULL(MMJ_JEGO,'0') as MMJ_JEGO, ISNULL(DMJ_JEGO,'0') as DMJ_JEGO, DBI_DOCNO, ISNULL(DBI_QTY,'0') as DBI_QTY, DBI_BisSts
+    FROM MF_CENTER_INFO
+         left outer join DT_BONBU_IN on MCI_CODE = DBI_CENTER and DBI_TOPDOCNO = #{DOCNO}
+         left outer join MF_MODEL_JEGO on MCI_CODE = MMJ_CENTER and MMJ_MODEL = #{MODEL}
+         left outer join DT_MODEL_JEGO on MCI_CODE = DMJ_CENTER and DMJ_MODEL = #{MODEL}
+   WHERE MCI_LOGC = #{LOGC} 
+     AND NOT MCI_Bonbu = ' ' 
+     AND NOT MCI_Center = ' '
+     AND (DBI_CENTER is not null or DBI_CENTER is null and MCI_BizSts = 'Y') 
+ &lt;/select&gt;
+&lt;update id="updateModelJego" parameterType="hashmap"&gt;
+  MERGE INTO MF_MODEL_JEGO A
+  USING (SELECT #{MODEL} AS MODEL, #{CENTER} AS CENTER ) B ON(A.MMJ_MODEL = B.MODEL AND A.MMJ_CENTER = B.CENTER)
+  WHEN MATCHED THEN
+  UPDATE SET MMJ_JEGO = #{JEGO},
+             CMN_UPD_DATE = getdate(),
+             CMN_UPD_PROG = #{PROG},
+                CMN_UPD_ID = #{USERID}
+  WHEN NOT MATCHED THEN
+  INSERT (MMJ_MODEL, MMJ_CENTER, MMJ_JEGO, CMN_DEL_STS, CMN_MAK_DATE, CMN_MAK_PROG, CMN_MAK_ID, CMN_UPD_DATE, CMN_UPD_PROG, CMN_UPD_ID) 
+  values (#{MODEL}, #{CENTER}, #{JEGO}, 'N', getdate(), #{PROG}, #{USERID}, getdate(), #{PROG}, #{USERID});
+ &lt;/update&gt;
+&lt;select id="getLogcInInfo" resultType="com.vo.LogcInVo" parameterType="String"&gt;
+  SELECT DIL_DOCNO, DIL_LOGC, MCI_LOGCNAME,
+      DIL_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, 
+      CONVERT(CHAR(10), DIL_JEJO, 23) as DIL_JEJO, 
+      CONVERT(CHAR(10), DIL_INDate, 23) as DIL_INDate, 
+      DIL_INPRICE, DIL_QTY, DIL_INPRICE * DIL_QTY as INTOTAL,
+      DIL_OUTSts, ISNULL(A.OUTTOTAL,'0') as OUTTOTAL,
+      CONVERT(CHAR(10), DIL_OUTDATE, 23) as DIL_OUTDATE,
+      B.SUS_CNT as SUS_CNT
+    FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, DT_IN_LOGC
+         left outer join (select DBI_TOPDOCNO, SUM(DBI_QTY) as OUTTOTAL from DT_BONBU_IN group by DBI_TOPDOCNO ) A on DIL_DOCNO = A.DBI_TOPDOCNO
+      left outer join (SELECT DBI_TOPDOCNO, SUM(CASE WHEN DBI_BisSts = 'Y' then 1 else 0 end) AS SUS_CNT FROM DT_BONBU_IN group by DBI_TOPDOCNO ) B on DIL_DOCNO = B.DBI_TOPDOCNO
+   WHERE DIL_DOCNO = #{value}
+     AND DIL_LOGC = MCI_LOGC AND MCI_BONBU = ' ' AND MCI_CENTER = ' '
+     AND DIL_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE  
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getOrderList" resultType="com.vo.OrderVo" parameterType="hashmap"&gt;
+  SELECT rownum, DBO_DOCNO, DBO_CENTER, MCI_BonbuNAME, MCI_CenterName,
+      DBO_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      DBO_DATE, DBO_USER, DBO_USERNAME, DBO_QTY, DBM_Sts, DBM_QTY, 
+      DBO_BisSts, DBO_CFMDATE, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DBO_DATE desc, DBO_CENTER ) AS rownum, 
+       DBO_DOCNO, DBO_CENTER, MCI_BonbuNAME, MCI_CenterName,
+          DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+          MMC_MGROUP, MMC_SGROUP, 
+          CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+          DBO_USER, MUT_UserName as DBO_USERNAME, DBO_QTY,
+          DBM_Sts, ISNULL(DBM_QTY,'0') as DBM_QTY, DBO_BisSts, 
+          CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+          COUNT(*) OVER() AS totalCnt
+        FROM MF_USER_TBL, MF_COMM_CODE, MF_MODEL_CODE, MF_CENTER_INFO, DT_BONBU_MOVE, DT_BONBU_ORDER
+       WHERE DBO_DOCNO = DBM_DOCNO 
+         AND DBO_CENTER = MCI_CODE
+         AND DBO_MODEL = MMC_CODE
+         AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+         AND DBO_USER = MUT_UserID
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DBO_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DBO_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DBO_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != null and BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != null and CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="CCODE != null and CCODE != ''"&gt;
+         AND MCI_CODE = #{CCODE}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DBO_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+  )A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' AND MCI_LOGC = #{LOGC}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getOrderList" resultType="com.vo.OrderVo" parameterType="hashmap"&gt;
+  SELECT rownum, DBO_DOCNO, DBO_CENTER, MCI_BonbuNAME, MCI_CenterName,
+      DBO_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      DBO_DATE, DBO_USER, DBO_USERNAME, DBO_QTY, DBM_Sts, DBM_QTY, 
+      DBO_BisSts, DBO_CFMDATE, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DBO_DATE desc, DBO_CENTER ) AS rownum, 
+       DBO_DOCNO, DBO_CENTER, MCI_BonbuNAME, MCI_CenterName,
+          DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+          MMC_MGROUP, MMC_SGROUP, 
+          CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+          DBO_USER, MUT_UserName as DBO_USERNAME, DBO_QTY,
+          DBM_Sts, ISNULL(DBM_QTY,'0') as DBM_QTY, DBO_BisSts, 
+          CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+          COUNT(*) OVER() AS totalCnt
+        FROM MF_USER_TBL, MF_COMM_CODE, MF_MODEL_CODE, MF_CENTER_INFO, DT_BONBU_MOVE, DT_BONBU_ORDER
+       WHERE DBO_DOCNO = DBM_DOCNO 
+         AND DBO_CENTER = MCI_CODE
+         AND DBO_MODEL = MMC_CODE
+         AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+         AND DBO_USER = MUT_UserID
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DBO_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DBO_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DBO_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != null and BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != null and CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="CCODE != null and CCODE != ''"&gt;
+         AND MCI_CODE = #{CCODE}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DBO_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+  )A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;insert id="insertOrder" parameterType="com.vo.OrderVo"&gt;
+     insert into DT_BONBU_ORDER(DBO_DOCNO, DBO_SEQ, DBO_CENTER, DBO_USER, DBO_DATE, DBO_QTY,DBO_BisSts,DBO_CFMDATE,DBO_MODEL,DBO_CMNT,
+           CMN_DEL_STS, CMN_MAK_DATE, CMN_MAK_PROG, CMN_MAK_ID, CMN_UPD_DATE, CMN_UPD_PROG, CMN_UPD_ID)
+      values(#{DBO_DOCNO},#{DBO_SEQ},#{DBO_CENTER},#{DBO_USER},#{DBO_DATE},#{DBO_QTY},#{DBO_BisSts},#{DBO_CFMDATE},#{DBO_MODEL},#{DBO_CMNT},
+        'N',getdate(),#{CMN_MAK_PROG},#{CMN_MAK_ID},getdate(),#{CMN_UPD_PROG},#{CMN_UPD_ID})
+ &lt;/insert&gt;
+&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getOrderInfo" resultType="com.vo.OrderVo" parameterType="String"&gt;
+  SELECT DBO_DOCNO, DBO_CENTER, MCI_BonbuNAME, MCI_CenterName,
+      DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, 
+      CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+      DBO_USER, MUT_UserName as DBO_USERNAME, DBO_QTY,
+      DBM_Sts, ISNULL(DBM_QTY,'0') as DBM_QTY, DBO_BisSts, 
+      CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+      DBO_CMNT, DBM_CFM
+    FROM MF_USER_TBL, MF_COMM_CODE, MF_MODEL_CODE, MF_CENTER_INFO, DT_BONBU_MOVE, DT_BONBU_ORDER
+   WHERE DBO_DOCNO = #{value}
+     AND DBO_DOCNO = DBM_DOCNO
+     AND DBO_CENTER = MCI_CODE
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBO_USER = MUT_UserID
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;update id="updateOrder" parameterType="com.vo.OrderVo"&gt;
+   update DT_BONBU_ORDER 
+        set DBO_DATE = #{DBO_DATE},
+            DBO_QTY = #{DBO_QTY},
+            DBO_CMNT = #{DBO_CMNT},
+            CMN_UPD_DATE = getdate(),
+            CMN_UPD_PROG = #{CMN_UPD_PROG},
+            CMN_UPD_ID = #{CMN_UPD_ID}
+      where DBO_DOCNO = #{DBO_DOCNO}
+        and DBO_BisSts = 'N'
+        and not EXISTS(
+          &lt;if test="LEVEL == '001' or LEVEL == '002'"&gt;
+          SELECT DBM_DOCNO from DT_BONBU_MOVE where DBO_DOCNO = DBM_DOCNO and DBM_Sts = 'Y'
+          &lt;/if&gt;
+          &lt;if test="LEVEL == '003' or LEVEL == '004'"&gt;
+          SELECT DBM_DOCNO from DT_BONBU_MOVE where DBO_DOCNO = DBM_DOCNO and (DBM_Sts = 'Y' or DBM_CFM = 'Y' )
+          &lt;/if&gt;
+         )
+ &lt;/update&gt;
+&lt;select id="getOrderInfo" resultType="com.vo.OrderVo" parameterType="String"&gt;
+  SELECT DBO_DOCNO, DBO_CENTER, MCI_BonbuNAME, MCI_CenterName,
+      DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, 
+      CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+      DBO_USER, MUT_UserName as DBO_USERNAME, DBO_QTY,
+      DBM_Sts, ISNULL(DBM_QTY,'0') as DBM_QTY, DBO_BisSts, 
+      CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+      DBO_CMNT, DBM_CFM
+    FROM MF_USER_TBL, MF_COMM_CODE, MF_MODEL_CODE, MF_CENTER_INFO, DT_BONBU_MOVE, DT_BONBU_ORDER
+   WHERE DBO_DOCNO = #{value}
+     AND DBO_DOCNO = DBM_DOCNO
+     AND DBO_CENTER = MCI_CODE
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBO_USER = MUT_UserID
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;delete id="deleteOrder" parameterType="hashmap"&gt;
+  delete from DT_BONBU_ORDER
+      where DBO_DOCNO = #{DOCNO}
+         and DBO_BisSts = 'N'
+         and not EXISTS(
+          &lt;if test="LEVEL == '001' or CENTER == '002'"&gt;
+          SELECT DBM_DOCNO from DT_BONBU_MOVE where DBO_DOCNO = DBM_DOCNO and DBM_Sts = 'Y'
+          &lt;/if&gt;
+          &lt;if test="LEVEL == '003' or CENTER == '004'"&gt;
+          SELECT DBM_DOCNO from DT_BONBU_MOVE where DBO_DOCNO = DBM_DOCNO and (DBM_Sts = 'Y' or DBM_CFM = 'Y' )
+          &lt;/if&gt;
+         )
+ &lt;/delete&gt;
+&lt;select id="getOrderInfo" resultType="com.vo.OrderVo" parameterType="String"&gt;
+  SELECT DBO_DOCNO, DBO_CENTER, MCI_BonbuNAME, MCI_CenterName,
+      DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, 
+      CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+      DBO_USER, MUT_UserName as DBO_USERNAME, DBO_QTY,
+      DBM_Sts, ISNULL(DBM_QTY,'0') as DBM_QTY, DBO_BisSts, 
+      CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+      DBO_CMNT, DBM_CFM
+    FROM MF_USER_TBL, MF_COMM_CODE, MF_MODEL_CODE, MF_CENTER_INFO, DT_BONBU_MOVE, DT_BONBU_ORDER
+   WHERE DBO_DOCNO = #{value}
+     AND DBO_DOCNO = DBM_DOCNO
+     AND DBO_CENTER = MCI_CODE
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBO_USER = MUT_UserID
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getBonbuInCheck" resultType="com.vo.BonbuVo" parameterType="String"&gt;
+  SELECT DBI_DOCNO, DIL_MODEL, CONVERT(CHAR(10), DIL_OUTDATE, 23) as DIL_OUTDATE, MCI_BonbuNAME, MCI_CenterName, 
+         DIL_QTY, CONVERT(CHAR(10), DBI_CFMDATE, 23) as DBI_CFMDATE, DBI_BisSts
+    FROM DT_IN_LOGC, DT_BONBU_IN
+        left outer join MF_CENTER_INFO on DBI_CENTER = MCI_CODE
+   WHERE DIL_DOCNO = #{DOCNO}
+     AND DIL_DOCNO = DBI_TOPDOCNO
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getBonbuMOVEList" resultType="com.vo.MoveVo" parameterType="hashmap"&gt;
+  SELECT rownum, DBO_DOCNO, DBO_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      OUTBONBUNAME, OUTCENTERNAME, INBONBUNAME, INCENTERNAME, 
+      DBO_DATE, DBM_DATE, DBO_CFMDATE, DBM_Sts, DBO_BisSts, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DBM_Sts, DBO_BisSts, DBO_DATE DESC, DBM_DATE DESC, DBO_CFMDATE DESC) AS rownum, 
+       DBO_DOCNO, DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+       A.MCI_BonbuNAME AS OUTBONBUNAME, A.MCI_CenterName AS OUTCENTERNAME,
+       B.MCI_BonbuNAME AS INBONBUNAME, B.MCI_CenterName AS INCENTERNAME,
+       CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+          CONVERT(CHAR(10), DBM_DATE, 23) as DBM_DATE, 
+          CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+          DBM_Sts, DBO_BisSts,
+          COUNT(*) OVER() AS totalCnt
+     FROM DT_BONBU_MOVE
+            left outer join MF_CENTER_INFO A on DBM_CENTER = A.MCI_CODE,
+            DT_BONBU_ORDER, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE
+    WHERE DBM_DOCNO = DBO_DOCNO
+      AND DBO_CENTER = B.MCI_CODE
+      AND DBO_MODEL = MMC_CODE
+      AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     &lt;if test="OutStartDay != '' or OutEndDay != ''"&gt;
+     AND 
+          (
+              DBM_DATE is null or
+        &lt;if test="OutStartDay == '' and OutEndDay != ''"&gt;
+           DBM_DATE &lt;![CDATA[&lt;=]]&gt; #{OutEndDay}
+        &lt;/if&gt;
+        &lt;if test="OutStartDay != '' and OutEndDay == ''"&gt;
+           DBM_DATE &lt;![CDATA[&gt;=]]&gt; #{OutStartDay}
+        &lt;/if&gt;
+        &lt;if test="OutStartDay != '' and OutEndDay != ''"&gt;
+           DBM_DATE between #{OutStartDay} AND #{OutEndDay}
+        &lt;/if&gt;
+          )
+     &lt;/if&gt;
+     &lt;if test="InStartDay != '' or InEndDay != ''"&gt;
+     AND 
+          (
+              DBO_CFMDATE is null or
+        &lt;if test="InStartDay == '' and InEndDay != ''"&gt;
+           DBO_CFMDATE &lt;![CDATA[&lt;=]]&gt; #{InEndDay}
+        &lt;/if&gt;
+        &lt;if test="InStartDay != '' and InEndDay == ''"&gt;
+           DBO_CFMDATE &lt;![CDATA[&gt;=]]&gt; #{InStartDay}
+        &lt;/if&gt;
+        &lt;if test="InStartDay != '' and InEndDay != ''"&gt;
+           DBO_CFMDATE between #{InStartDay} AND #{InEndDay}
+        &lt;/if&gt;
+          )
+     &lt;/if&gt;
+     &lt;if test="INLOGC != '' or INBONBU != '' or INCENTER != ''"&gt;
+       AND 
+          (
+              B.MCI_LOGC = #{INLOGC}
+        &lt;if test="INBONBU != ''"&gt;
+           AND B.MCI_BONBU = #{INBONBU}
+        &lt;/if&gt;
+           &lt;if test="INCENTER != ''"&gt;
+           AND B.MCI_CENTER = #{INCENTER}
+        &lt;/if&gt;
+          )
+       &lt;/if&gt;
+       &lt;if test="LOGC != '' or BONBU != '' or CENTER != ''"&gt;
+       AND 
+          (
+              DBM_CENTER is null or A.MCI_LOGC = #{LOGC}
+        &lt;if test="BONBU != ''"&gt;
+           AND A.MCI_BONBU = #{BONBU}
+        &lt;/if&gt;
+           &lt;if test="CENTER != ''"&gt;
+           AND A.MCI_CENTER = #{CENTER}
+        &lt;/if&gt; 
+          ) 
+       &lt;/if&gt;
+       &lt;if test="MNAME != ''"&gt;
+          AND DBO_MODEL like '%${MNAME}%'
+       &lt;/if&gt;
+  ) A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBonbuMOVEList" resultType="com.vo.MoveVo" parameterType="hashmap"&gt;
+  SELECT rownum, DBO_DOCNO, DBO_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      OUTBONBUNAME, OUTCENTERNAME, INBONBUNAME, INCENTERNAME, 
+      DBO_DATE, DBM_DATE, DBO_CFMDATE, DBM_Sts, DBO_BisSts, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DBM_Sts, DBO_BisSts, DBO_DATE DESC, DBM_DATE DESC, DBO_CFMDATE DESC) AS rownum, 
+       DBO_DOCNO, DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+       A.MCI_BonbuNAME AS OUTBONBUNAME, A.MCI_CenterName AS OUTCENTERNAME,
+       B.MCI_BonbuNAME AS INBONBUNAME, B.MCI_CenterName AS INCENTERNAME,
+       CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+          CONVERT(CHAR(10), DBM_DATE, 23) as DBM_DATE, 
+          CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+          DBM_Sts, DBO_BisSts,
+          COUNT(*) OVER() AS totalCnt
+     FROM DT_BONBU_MOVE
+            left outer join MF_CENTER_INFO A on DBM_CENTER = A.MCI_CODE,
+            DT_BONBU_ORDER, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE
+    WHERE DBM_DOCNO = DBO_DOCNO
+      AND DBO_CENTER = B.MCI_CODE
+      AND DBO_MODEL = MMC_CODE
+      AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     &lt;if test="OutStartDay != '' or OutEndDay != ''"&gt;
+     AND 
+          (
+              DBM_DATE is null or
+        &lt;if test="OutStartDay == '' and OutEndDay != ''"&gt;
+           DBM_DATE &lt;![CDATA[&lt;=]]&gt; #{OutEndDay}
+        &lt;/if&gt;
+        &lt;if test="OutStartDay != '' and OutEndDay == ''"&gt;
+           DBM_DATE &lt;![CDATA[&gt;=]]&gt; #{OutStartDay}
+        &lt;/if&gt;
+        &lt;if test="OutStartDay != '' and OutEndDay != ''"&gt;
+           DBM_DATE between #{OutStartDay} AND #{OutEndDay}
+        &lt;/if&gt;
+          )
+     &lt;/if&gt;
+     &lt;if test="InStartDay != '' or InEndDay != ''"&gt;
+     AND 
+          (
+              DBO_CFMDATE is null or
+        &lt;if test="InStartDay == '' and InEndDay != ''"&gt;
+           DBO_CFMDATE &lt;![CDATA[&lt;=]]&gt; #{InEndDay}
+        &lt;/if&gt;
+        &lt;if test="InStartDay != '' and InEndDay == ''"&gt;
+           DBO_CFMDATE &lt;![CDATA[&gt;=]]&gt; #{InStartDay}
+        &lt;/if&gt;
+        &lt;if test="InStartDay != '' and InEndDay != ''"&gt;
+           DBO_CFMDATE between #{InStartDay} AND #{InEndDay}
+        &lt;/if&gt;
+          )
+     &lt;/if&gt;
+     &lt;if test="INLOGC != '' or INBONBU != '' or INCENTER != ''"&gt;
+       AND 
+          (
+              B.MCI_LOGC = #{INLOGC}
+        &lt;if test="INBONBU != ''"&gt;
+           AND B.MCI_BONBU = #{INBONBU}
+        &lt;/if&gt;
+           &lt;if test="INCENTER != ''"&gt;
+           AND B.MCI_CENTER = #{INCENTER}
+        &lt;/if&gt;
+          )
+       &lt;/if&gt;
+       &lt;if test="LOGC != '' or BONBU != '' or CENTER != ''"&gt;
+       AND 
+          (
+              DBM_CENTER is null or A.MCI_LOGC = #{LOGC}
+        &lt;if test="BONBU != ''"&gt;
+           AND A.MCI_BONBU = #{BONBU}
+        &lt;/if&gt;
+           &lt;if test="CENTER != ''"&gt;
+           AND A.MCI_CENTER = #{CENTER}
+        &lt;/if&gt; 
+          ) 
+       &lt;/if&gt;
+       &lt;if test="MNAME != ''"&gt;
+          AND DBO_MODEL like '%${MNAME}%'
+       &lt;/if&gt;
+  ) A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getJegoModel" resultType="com.vo.MoveVo" parameterType="hashmap"&gt;
+ &lt;choose&gt;
+    &lt;when test="NOWDATE != ''"&gt;
+ SELECT DMJ_MODEL, DMJ_CENTER, DMJ_JEGO, ISNULL(A.INQTY, 0) - ISNULL(B.OUTQTY, 0) as OUTJEGO 
+   FROM DT_MODEL_JEGO
+        left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS INQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '1' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) A on A.DIB_MODEL = DMJ_MODEL and A.DIB_CENTER = DMJ_CENTER
+        left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS OUTQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '2' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) B on B.DIB_MODEL = DMJ_MODEL and B.DIB_CENTER = DMJ_CENTER
+     WHERE DMJ_MODEL = #{MODEL} 
+    and DMJ_CENTER = #{CENTER}
+ &lt;/when&gt;
+ &lt;otherwise&gt;
+ SELECT DMJ_JEGO, DMJ_JEGO as OUTJEGO
+   FROM DT_MODEL_JEGO
+     WHERE DMJ_MODEL = #{MODEL} 
+    and DMJ_CENTER = #{CENTER}
+ &lt;/otherwise&gt;
+ &lt;/choose&gt;
+ &lt;/select&gt;
+&lt;select id="getBonbuMOVEInfo" resultType="com.vo.MoveVo" parameterType="String"&gt;
+  SELECT DBO_DOCNO, DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+       A.MCI_LOGC AS OUTLOGC, A.MCI_LOGCNAME AS OUTLOGCNAME, 
+      A.MCI_Bonbu AS OUTBONBU, A.MCI_BonbuNAME AS OUTBONBUNAME, 
+      A.MCI_Center AS OUTCENTER, A.MCI_CenterName AS OUTCENTERNAME,
+      B.MCI_LOGC AS INLOGC, B.MCI_LOGCNAME AS INLOGCNAME, 
+      B.MCI_BonbuNAME AS INBONBUNAME, B.MCI_CenterName AS INCENTERNAME,
+      CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+      CONVERT(CHAR(10), DBM_DATE, 23) as DBM_DATE, 
+      CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+      DBM_Sts, DBO_BisSts, MUT_UserName, DBO_CMNT, 
+      ISNULL(DBM_QTY,'0') as DBM_QTY, 
+      ISNULL(DBO_QTY,'0') as DBO_QTY, 
+      ISNULL(DMJ_JEGO,'0') as DMJ_JEGO,
+      DBM_HOWMOVE, DBM_CMNT, DBM_CFM, DBM_CENTER, DBO_CENTER
+    FROM DT_BONBU_MOVE
+         left outer join MF_CENTER_INFO A on DBM_CENTER = A.MCI_CODE,
+         MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL, DT_BONBU_ORDER
+      left outer join DT_MODEL_JEGO on DBO_MODEL = DMJ_MODEL and DBO_CENTER = DMJ_CENTER
+   WHERE DBM_DOCNO = DBO_DOCNO
+     AND DBO_CENTER = B.MCI_CODE
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBO_USER = MUT_UserID
+     AND DBO_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getBonbuMOVEInfo(DOCNO), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.updateMove(DOCNO, userService.getUserID(request), DBM_HOWMOVE, DBM_CMNT, "BonbuMove_Save", MoveInfo.getDBO_MODEL(), DBM_DATE, i_DBM_QTY, centerVo.getMCI_CODE(), MoveInfo.getDBM_CFM())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;update id="updateMove" parameterType="com.vo.MoveVo"&gt;
+   update DT_BONBU_MOVE 
+      set DBM_CENTER = #{DBM_CENTER},
+          DBM_DATE = #{DBM_DATE},
+          DBM_QTY = #{DBM_QTY},
+            DBM_UESR = #{DBM_UESR},
+            DBM_HOWMOVE = #{DBM_HOWMOVE},
+            DBM_CMNT = #{DBM_CMNT},
+            DBM_Sts = 'Y',
+            &lt;if test='DBM_CFM == "N"'&gt;
+            DBM_CFM = 'Y',
+            DBM_CFMUSER = #{CMN_UPD_ID},
+            DBM_CFMDATE = getdate(),
+            &lt;/if&gt;
+            CMN_UPD_DATE = getdate(),
+            CMN_UPD_PROG = #{CMN_UPD_PROG},
+            CMN_UPD_ID = #{CMN_UPD_ID}
+       FROM DT_BONBU_ORDER
+      where DBM_DOCNO = #{DBM_DOCNO}
+        AND DBO_DOCNO = DBM_DOCNO
+        AND DBM_Sts = 'N'
+ &lt;/update&gt;
+&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;
+&lt;select id="getBonbuMOVEInfo" resultType="com.vo.MoveVo" parameterType="String"&gt;
+  SELECT DBO_DOCNO, DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+       A.MCI_LOGC AS OUTLOGC, A.MCI_LOGCNAME AS OUTLOGCNAME, 
+      A.MCI_Bonbu AS OUTBONBU, A.MCI_BonbuNAME AS OUTBONBUNAME, 
+      A.MCI_Center AS OUTCENTER, A.MCI_CenterName AS OUTCENTERNAME,
+      B.MCI_LOGC AS INLOGC, B.MCI_LOGCNAME AS INLOGCNAME, 
+      B.MCI_BonbuNAME AS INBONBUNAME, B.MCI_CenterName AS INCENTERNAME,
+      CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+      CONVERT(CHAR(10), DBM_DATE, 23) as DBM_DATE, 
+      CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+      DBM_Sts, DBO_BisSts, MUT_UserName, DBO_CMNT, 
+      ISNULL(DBM_QTY,'0') as DBM_QTY, 
+      ISNULL(DBO_QTY,'0') as DBO_QTY, 
+      ISNULL(DMJ_JEGO,'0') as DMJ_JEGO,
+      DBM_HOWMOVE, DBM_CMNT, DBM_CFM, DBM_CENTER, DBO_CENTER
+    FROM DT_BONBU_MOVE
+         left outer join MF_CENTER_INFO A on DBM_CENTER = A.MCI_CODE,
+         MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL, DT_BONBU_ORDER
+      left outer join DT_MODEL_JEGO on DBO_MODEL = DMJ_MODEL and DBO_CENTER = DMJ_CENTER
+   WHERE DBM_DOCNO = DBO_DOCNO
+     AND DBO_CENTER = B.MCI_CODE
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBO_USER = MUT_UserID
+     AND DBO_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;update id="updateMoveCFM" parameterType="hashmap"&gt;
+   update DT_BONBU_MOVE 
+        set DBM_CENTER = #{CENTER},
+            DBM_DATE = #{OUTDATE},
+            DBM_QTY = #{OUTQTY},
+            DBM_HOWMOVE = #{HOWMOVE},
+            DBM_CMNT = #{CMNT},
+            DBM_CFM = 'Y',
+            DBM_CFMUSER = #{USERID},
+            DBM_CFMDATE = getdate(),
+            CMN_UPD_DATE = getdate(),
+            CMN_UPD_PROG = #{PROG},
+            CMN_UPD_ID = #{USERID}
+       FROM DT_BONBU_ORDER
+      where DBM_DOCNO = #{DOCNO}
+        AND DBO_DOCNO = DBM_DOCNO
+        AND DBM_Sts = 'N'
+ &lt;/update&gt;
+&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;
+&lt;select id="getBonbuMOVEInfo" resultType="com.vo.MoveVo" parameterType="String"&gt;
+  SELECT DBO_DOCNO, DBO_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+       A.MCI_LOGC AS OUTLOGC, A.MCI_LOGCNAME AS OUTLOGCNAME, 
+      A.MCI_Bonbu AS OUTBONBU, A.MCI_BonbuNAME AS OUTBONBUNAME, 
+      A.MCI_Center AS OUTCENTER, A.MCI_CenterName AS OUTCENTERNAME,
+      B.MCI_LOGC AS INLOGC, B.MCI_LOGCNAME AS INLOGCNAME, 
+      B.MCI_BonbuNAME AS INBONBUNAME, B.MCI_CenterName AS INCENTERNAME,
+      CONVERT(CHAR(10), DBO_DATE, 23) as DBO_DATE, 
+      CONVERT(CHAR(10), DBM_DATE, 23) as DBM_DATE, 
+      CONVERT(CHAR(10), DBO_CFMDATE, 23) as DBO_CFMDATE,
+      DBM_Sts, DBO_BisSts, MUT_UserName, DBO_CMNT, 
+      ISNULL(DBM_QTY,'0') as DBM_QTY, 
+      ISNULL(DBO_QTY,'0') as DBO_QTY, 
+      ISNULL(DMJ_JEGO,'0') as DMJ_JEGO,
+      DBM_HOWMOVE, DBM_CMNT, DBM_CFM, DBM_CENTER, DBO_CENTER
+    FROM DT_BONBU_MOVE
+         left outer join MF_CENTER_INFO A on DBM_CENTER = A.MCI_CODE,
+         MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL, DT_BONBU_ORDER
+      left outer join DT_MODEL_JEGO on DBO_MODEL = DMJ_MODEL and DBO_CENTER = DMJ_CENTER
+   WHERE DBM_DOCNO = DBO_DOCNO
+     AND DBO_CENTER = B.MCI_CODE
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBO_USER = MUT_UserID
+     AND DBO_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getJegoModel" resultType="com.vo.MoveVo" parameterType="hashmap"&gt;
+ &lt;choose&gt;
+    &lt;when test="NOWDATE != ''"&gt;
+ SELECT DMJ_MODEL, DMJ_CENTER, DMJ_JEGO, ISNULL(A.INQTY, 0) - ISNULL(B.OUTQTY, 0) as OUTJEGO 
+   FROM DT_MODEL_JEGO
+        left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS INQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '1' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) A on A.DIB_MODEL = DMJ_MODEL and A.DIB_CENTER = DMJ_CENTER
+        left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS OUTQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '2' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) B on B.DIB_MODEL = DMJ_MODEL and B.DIB_CENTER = DMJ_CENTER
+     WHERE DMJ_MODEL = #{MODEL} 
+    and DMJ_CENTER = #{CENTER}
+ &lt;/when&gt;
+ &lt;otherwise&gt;
+ SELECT DMJ_JEGO, DMJ_JEGO as OUTJEGO
+   FROM DT_MODEL_JEGO
+     WHERE DMJ_MODEL = #{MODEL} 
+    and DMJ_CENTER = #{CENTER}
+ &lt;/otherwise&gt;
+ &lt;/choose&gt;
+ &lt;/select&gt;
+&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getInCFMList" resultType="com.vo.CfmVo" parameterType="hashmap"&gt;
+     select rownum, INTYPE, DOCNO, INLOGC, INBONBU, INCENTER, INBONBU_NAME, INCENTER_NAME, OUT_BONBU,
+            MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+            INDATE, INQTY, OUTDATE, OUTQTY, DIC_DATE, CFMsts, totalCnt
+       FROM (
+        select ROW_NUMBER() OVER(ORDER BY CFMsts, OUTDATE DESC, DOCNO) AS rownum, 
+          DOCNO, INTYPE, INLOGC, INBONBU, INCENTER, 
+          INBONBU_NAME, INCENTER_NAME, OUT_BONBU,
+             MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+             INDATE, INQTY, OUTDATE, OUTQTY, DIC_DATE, CFMsts,
+             COUNT(*) OVER() AS totalCnt
+        FROM (
+    select DBI_DOCNO as DOCNO, '0' AS INTYPE,
+           B.MCI_LOGC as INLOGC, B.MCI_Bonbu as INBONBU, B.MCI_Center as INCENTER, 
+           B.MCI_BonbuNAME as INBONBU_NAME, B.MCI_CenterName as INCENTER_NAME, 
+           A.MCI_LOGCNAME as OUT_BONBU,
+        DIL_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+        '-' as INDATE, '0' as INQTY,
+        CONVERT(CHAR(10), DIL_OUTDATE, 23) as OUTDATE, ISNULL(DBI_QTY,'0') as OUTQTY, 
+        CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, 
+        case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+      FROM DT_IN_LOGC, MF_CENTER_INFO A, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, 
+           DT_BONBU_IN
+          left outer join DT_IN_CFM on DBI_DOCNO = DIC_DOCNO
+     WHERE DIL_DOCNO = DBI_TOPDOCNO
+       AND DIL_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+       AND DIL_MODEL = MMC_CODE
+       AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+       AND DBI_CENTER = B.MCI_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+             AND DIL_OUTDATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay == ''"&gt;
+             AND DIL_OUTDATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay != ''"&gt;
+             AND DIL_OUTDATE between #{StartDay} AND #{EndDay}
+            &lt;/if&gt;
+     UNION ALL
+    select DBO_DOCNO AS DOCNO, '1' AS INTYPE,
+           A.MCI_LOGC as INLOGC, A.MCI_Bonbu as INBONBU, A.MCI_Center as INCENTER, 
+           A.MCI_BonbuNAME as INBONBU_NAME, A.MCI_CenterName as INCENTER_NAME, 
+           B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as OUT_BONBU,
+        DBO_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+        CONVERT(CHAR(10), DBO_DATE, 23) as INDATE, ISNULL(DBO_QTY,'0') as INQTY,
+        CONVERT(CHAR(10), DBM_DATE, 23) as OUTDATE, ISNULL(DBM_QTY,'0') as OUTQTY,
+        CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, 
+        case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+      FROM DT_BONBU_MOVE, MF_CENTER_INFO A, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, DT_BONBU_ORDER
+           left outer join DT_IN_CFM on DBO_DOCNO = DIC_DOCNO
+     WHERE DBM_DOCNO = DBO_DOCNO
+       AND DBM_Sts = 'Y'
+       AND DBO_CENTER = A.MCI_CODE
+       AND DBO_MODEL = MMC_CODE
+       AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+       AND DBM_CENTER = B.MCI_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+             AND DBM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay == ''"&gt;
+             AND DBM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay != ''"&gt;
+             AND DBM_DATE between #{StartDay} AND #{EndDay}
+            &lt;/if&gt;
+    ) SUB
+       WHERE 1=1
+         &lt;if test="LOGC != ''"&gt;
+         AND INLOGC = #{LOGC}
+         &lt;/if&gt;
+         &lt;if test="BONBU != ''"&gt;
+         AND INBONBU = #{BONBU}
+         &lt;/if&gt;
+         &lt;if test="CENTER != ''"&gt;
+         AND INCENTER = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="MNAME != ''"&gt;
+         AND MODEL like '%${MNAME}%'
+         &lt;/if&gt;
+         &lt;if test="INSTS != null and !INSTS.equals('')  "&gt;
+         AND INTYPE = #{INSTS}
+         &lt;/if&gt;
+         &lt;if test="CFMSTS != ''"&gt;
+         AND CFMsts = #{CFMSTS}
+         &lt;/if&gt;
+       ) MAS
+       WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getInCFMList" resultType="com.vo.CfmVo" parameterType="hashmap"&gt;
+     select rownum, INTYPE, DOCNO, INLOGC, INBONBU, INCENTER, INBONBU_NAME, INCENTER_NAME, OUT_BONBU,
+            MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+            INDATE, INQTY, OUTDATE, OUTQTY, DIC_DATE, CFMsts, totalCnt
+       FROM (
+        select ROW_NUMBER() OVER(ORDER BY CFMsts, OUTDATE DESC, DOCNO) AS rownum, 
+          DOCNO, INTYPE, INLOGC, INBONBU, INCENTER, 
+          INBONBU_NAME, INCENTER_NAME, OUT_BONBU,
+             MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+             INDATE, INQTY, OUTDATE, OUTQTY, DIC_DATE, CFMsts,
+             COUNT(*) OVER() AS totalCnt
+        FROM (
+    select DBI_DOCNO as DOCNO, '0' AS INTYPE,
+           B.MCI_LOGC as INLOGC, B.MCI_Bonbu as INBONBU, B.MCI_Center as INCENTER, 
+           B.MCI_BonbuNAME as INBONBU_NAME, B.MCI_CenterName as INCENTER_NAME, 
+           A.MCI_LOGCNAME as OUT_BONBU,
+        DIL_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+        '-' as INDATE, '0' as INQTY,
+        CONVERT(CHAR(10), DIL_OUTDATE, 23) as OUTDATE, ISNULL(DBI_QTY,'0') as OUTQTY, 
+        CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, 
+        case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+      FROM DT_IN_LOGC, MF_CENTER_INFO A, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, 
+           DT_BONBU_IN
+          left outer join DT_IN_CFM on DBI_DOCNO = DIC_DOCNO
+     WHERE DIL_DOCNO = DBI_TOPDOCNO
+       AND DIL_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+       AND DIL_MODEL = MMC_CODE
+       AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+       AND DBI_CENTER = B.MCI_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+             AND DIL_OUTDATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay == ''"&gt;
+             AND DIL_OUTDATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay != ''"&gt;
+             AND DIL_OUTDATE between #{StartDay} AND #{EndDay}
+            &lt;/if&gt;
+     UNION ALL
+    select DBO_DOCNO AS DOCNO, '1' AS INTYPE,
+           A.MCI_LOGC as INLOGC, A.MCI_Bonbu as INBONBU, A.MCI_Center as INCENTER, 
+           A.MCI_BonbuNAME as INBONBU_NAME, A.MCI_CenterName as INCENTER_NAME, 
+           B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as OUT_BONBU,
+        DBO_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+        CONVERT(CHAR(10), DBO_DATE, 23) as INDATE, ISNULL(DBO_QTY,'0') as INQTY,
+        CONVERT(CHAR(10), DBM_DATE, 23) as OUTDATE, ISNULL(DBM_QTY,'0') as OUTQTY,
+        CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, 
+        case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+      FROM DT_BONBU_MOVE, MF_CENTER_INFO A, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, DT_BONBU_ORDER
+           left outer join DT_IN_CFM on DBO_DOCNO = DIC_DOCNO
+     WHERE DBM_DOCNO = DBO_DOCNO
+       AND DBM_Sts = 'Y'
+       AND DBO_CENTER = A.MCI_CODE
+       AND DBO_MODEL = MMC_CODE
+       AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+       AND DBM_CENTER = B.MCI_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+             AND DBM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay == ''"&gt;
+             AND DBM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+            &lt;/if&gt;
+            &lt;if test="StartDay != '' and EndDay != ''"&gt;
+             AND DBM_DATE between #{StartDay} AND #{EndDay}
+            &lt;/if&gt;
+    ) SUB
+       WHERE 1=1
+         &lt;if test="LOGC != ''"&gt;
+         AND INLOGC = #{LOGC}
+         &lt;/if&gt;
+         &lt;if test="BONBU != ''"&gt;
+         AND INBONBU = #{BONBU}
+         &lt;/if&gt;
+         &lt;if test="CENTER != ''"&gt;
+         AND INCENTER = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="MNAME != ''"&gt;
+         AND MODEL like '%${MNAME}%'
+         &lt;/if&gt;
+         &lt;if test="INSTS != null and !INSTS.equals('')  "&gt;
+         AND INTYPE = #{INSTS}
+         &lt;/if&gt;
+         &lt;if test="CFMSTS != ''"&gt;
+         AND CFMsts = #{CFMSTS}
+         &lt;/if&gt;
+       ) MAS
+       WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getNoticeFileList" resultType="com.vo.NoticeVo" parameterType="String"&gt;
+  SELECT MDF_DOCNO, MDF_SEQ, MDF_FILE, MDF_FILE_Org, MDF_FILE_SIZE
+    FROM MF_DATA_FILE
+   WHERE MDF_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getInCFMBonbuInfo" resultType="com.vo.CfmVo" parameterType="String"&gt;
+     select DBO_DOCNO as DOCNO, B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as OUT_BONBU,
+            A.MCI_LOGC as INLOGC, A.MCI_Bonbu as INBONBU, A.MCI_Center as INCENTER, 
+      A.MCI_BonbuNAME as INBONBU_NAME, A.MCI_CenterName as INCENTER_NAME, 
+      DBO_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      CONVERT(CHAR(10), DBO_DATE, 23) as INDATE, ISNULL(DBO_QTY,'0') as INQTY, DBO_CMNT,
+      CONVERT(CHAR(10), DBM_DATE, 23) as OUTDATE, ISNULL(DBM_QTY,'0') as OUTQTY, D.MUT_UserName as DBO_USERNAME,
+      CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, C.MUT_UserName as DIC_USERNAME, DIC_CMNT,
+      case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+    FROM DT_BONBU_MOVE, MF_CENTER_INFO B, MF_CENTER_INFO A, MF_USER_TBL D, MF_MODEL_CODE, MF_COMM_CODE, DT_BONBU_ORDER
+      left outer join DT_IN_CFM on DBO_DOCNO = DIC_DOCNO
+      left outer join MF_USER_TBL C on DIC_USER = C.MUT_UserID
+   WHERE DBM_DOCNO = DBO_DOCNO
+     AND DBO_CENTER = A.MCI_CODE
+     AND DBO_USER = D.MUT_UserID
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBM_CENTER = B.MCI_CODE
+     AND DBO_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getInCFMLogcInfo" resultType="com.vo.CfmVo" parameterType="String"&gt;
+     select DBI_DOCNO as DOCNO, A.MCI_LOGCNAME as OUT_BONBU,
+            B.MCI_LOGC as INLOGC, B.MCI_Bonbu as INBONBU, B.MCI_Center as INCENTER, 
+      B.MCI_BonbuNAME as INBONBU_NAME, B.MCI_CenterName as INCENTER_NAME, 
+      DIL_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      CONVERT(CHAR(10), DIL_OUTDATE, 23) as OUTDATE, ISNULL(DBI_QTY,'0') as OUTQTY, 
+      CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, 
+      MUT_UserName as DIC_USERNAME, DIC_CMNT,
+      case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+    FROM DT_IN_LOGC, MF_CENTER_INFO A, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, DT_BONBU_IN
+      left outer join DT_IN_CFM on DBI_DOCNO = DIC_DOCNO
+      left outer join MF_USER_TBL on DIC_USER = MUT_UserID
+   WHERE DIL_DOCNO = DBI_TOPDOCNO
+     AND DIL_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+     AND DIL_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBI_CENTER = B.MCI_CODE
+     AND DBI_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;update id="updateCfm" parameterType="com.vo.CfmVo"&gt;
+  UPDATE DT_IN_CFM
+     SET DIC_CMNT = #{DIC_CMNT},
+         CMN_UPD_DATE = getdate(),
+         CMN_UPD_PROG = #{CMN_UPD_PROG},
+            CMN_UPD_ID = #{CMN_UPD_ID}
+      WHERE DIC_DOCNO = #{DIC_DOCNO}
+ &lt;/update&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getOtherList" resultType="com.vo.OtherVo" parameterType="hashmap"&gt;
+  SELECT rownum, DOO_DOCNO, DOO_MODEL, DOO_CENTER, 
+      MCI_BonbuNAME, MCI_CenterName,
+      MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      DOO_DATE, DOO_QTY, DOO_OUTCMNT, DOO_CMNT, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DOO_DATE desc, DOO_CENTER ) AS rownum, 
+       DOO_DOCNO, DOO_MODEL, DOO_CENTER,
+       MCI_BonbuNAME, MCI_CenterName,
+          MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+          CONVERT(CHAR(10), DOO_DATE, 23) as DOO_DATE, 
+          ISNULL(DOO_QTY,'0') as DOO_QTY, DOO_OUTCMNT, DOO_CMNT,
+          COUNT(*) OVER() AS totalCnt
+        FROM DT_Other_OUT, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE
+       WHERE DOO_CENTER = MCI_CODE
+         AND DOO_MODEL = MMC_CODE
+         AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DOO_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DOO_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DOO_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != null and BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != null and CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DOO_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+  )A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getOtherList" resultType="com.vo.OtherVo" parameterType="hashmap"&gt;
+  SELECT rownum, DOO_DOCNO, DOO_MODEL, DOO_CENTER, 
+      MCI_BonbuNAME, MCI_CenterName,
+      MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      DOO_DATE, DOO_QTY, DOO_OUTCMNT, DOO_CMNT, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DOO_DATE desc, DOO_CENTER ) AS rownum, 
+       DOO_DOCNO, DOO_MODEL, DOO_CENTER,
+       MCI_BonbuNAME, MCI_CenterName,
+          MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+          CONVERT(CHAR(10), DOO_DATE, 23) as DOO_DATE, 
+          ISNULL(DOO_QTY,'0') as DOO_QTY, DOO_OUTCMNT, DOO_CMNT,
+          COUNT(*) OVER() AS totalCnt
+        FROM DT_Other_OUT, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE
+       WHERE DOO_CENTER = MCI_CODE
+         AND DOO_MODEL = MMC_CODE
+         AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DOO_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DOO_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DOO_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != null and BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != null and CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DOO_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+  )A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;insert id="insertOther" parameterType="com.vo.OtherVo"&gt;
+     insert into DT_Other_OUT(DOO_DOCNO, DOO_SEQ, DOO_MODEL, DOO_CENTER, DOO_DATE, DOO_QTY, DOO_OUTCMNT, DOO_CMNT, CMN_DEL_STS, CMN_MAK_DATE, CMN_MAK_PROG, CMN_MAK_ID, CMN_UPD_DATE, CMN_UPD_PROG, CMN_UPD_ID)
+      values(#{DOO_DOCNO}, #{DOO_SEQ}, #{DOO_MODEL}, #{DOO_CENTER}, #{DOO_DATE}, #{DOO_QTY}, #{DOO_OUTCMNT}, #{DOO_CMNT}, 'N', getdate(),#{CMN_MAK_PROG},#{CMN_MAK_ID},getdate(),#{CMN_UPD_PROG},#{CMN_UPD_ID})
+ &lt;/insert&gt;
+&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4756,6 +6197,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4782,9 +6226,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5069,8 +6510,8 @@
   <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5104,7 +6545,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -5127,10 +6568,10 @@
       <c r="F2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5148,9 +6589,9 @@
         <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H3" s="17"/>
+        <v>492</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
@@ -5163,9 +6604,9 @@
         <v>240</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H4" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
@@ -5178,9 +6619,9 @@
         <v>240</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="H5" s="17"/>
+        <v>494</v>
+      </c>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
@@ -5193,7 +6634,7 @@
         <v>245</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
@@ -5206,13 +6647,13 @@
         <v>248</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5230,9 +6671,9 @@
         <v>222</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>495</v>
+      </c>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
@@ -5245,9 +6686,9 @@
         <v>252</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="H10" s="17"/>
+        <v>496</v>
+      </c>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -5260,9 +6701,9 @@
         <v>227</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="H11" s="17"/>
+        <v>497</v>
+      </c>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
@@ -5275,9 +6716,9 @@
         <v>228</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="H12" s="17"/>
+        <v>498</v>
+      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
@@ -5293,9 +6734,9 @@
         <v>223</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="H13" s="17"/>
+        <v>499</v>
+      </c>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
@@ -5308,9 +6749,9 @@
         <v>260</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="H14" s="17"/>
+        <v>500</v>
+      </c>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
@@ -5323,9 +6764,9 @@
         <v>227</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H15" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
@@ -5341,9 +6782,9 @@
         <v>224</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="H16" s="17"/>
+        <v>501</v>
+      </c>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
@@ -5356,9 +6797,9 @@
         <v>265</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H17" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
@@ -5371,9 +6812,9 @@
         <v>228</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H18" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
@@ -5389,9 +6830,9 @@
         <v>226</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="H19" s="17"/>
+        <v>502</v>
+      </c>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
@@ -5404,9 +6845,9 @@
         <v>269</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="H20" s="17"/>
+        <v>503</v>
+      </c>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
@@ -5419,9 +6860,9 @@
         <v>272</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H21" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
@@ -5434,9 +6875,9 @@
         <v>222</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="H22" s="17"/>
+        <v>504</v>
+      </c>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
@@ -5449,9 +6890,9 @@
         <v>276</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="H23" s="17"/>
+        <v>505</v>
+      </c>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
@@ -5464,9 +6905,9 @@
         <v>279</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="H24" s="17"/>
+        <v>506</v>
+      </c>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
@@ -5479,9 +6920,9 @@
         <v>282</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="H25" s="17"/>
+        <v>507</v>
+      </c>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
@@ -5497,9 +6938,9 @@
         <v>227</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="H26" s="17"/>
+        <v>508</v>
+      </c>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
@@ -5515,9 +6956,9 @@
         <v>228</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="H27" s="17"/>
+        <v>509</v>
+      </c>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -5527,15 +6968,15 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>222</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="H28" s="17"/>
+        <v>511</v>
+      </c>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="13" t="s">
@@ -5548,9 +6989,9 @@
         <v>293</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="H29" s="17"/>
+        <v>512</v>
+      </c>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
@@ -5563,9 +7004,9 @@
         <v>222</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="H30" s="17"/>
+        <v>513</v>
+      </c>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
@@ -5578,9 +7019,9 @@
         <v>229</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="H31" s="17"/>
+        <v>514</v>
+      </c>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
@@ -5593,9 +7034,9 @@
         <v>230</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="H32" s="17"/>
+        <v>515</v>
+      </c>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
@@ -5608,9 +7049,9 @@
         <v>231</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="H33" s="17"/>
+        <v>516</v>
+      </c>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
@@ -5623,9 +7064,9 @@
         <v>232</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="H34" s="17"/>
+        <v>517</v>
+      </c>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="2:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
@@ -5638,9 +7079,9 @@
         <v>289</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="H35" s="17"/>
+        <v>518</v>
+      </c>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
@@ -5653,9 +7094,9 @@
         <v>298</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="H36" s="17"/>
+        <v>514</v>
+      </c>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
@@ -5668,9 +7109,9 @@
         <v>302</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="H37" s="17"/>
+        <v>519</v>
+      </c>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
@@ -5686,9 +7127,9 @@
         <v>222</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="H38" s="17"/>
+        <v>521</v>
+      </c>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
@@ -5701,9 +7142,9 @@
         <v>305</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="H39" s="17"/>
+        <v>522</v>
+      </c>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
@@ -5716,9 +7157,9 @@
         <v>307</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H40" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
@@ -5731,9 +7172,9 @@
         <v>308</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H41" s="17"/>
+        <v>520</v>
+      </c>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
@@ -5746,9 +7187,9 @@
         <v>310</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H42" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="2:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
@@ -5761,9 +7202,9 @@
         <v>305</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="H43" s="17"/>
+        <v>523</v>
+      </c>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="2:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
@@ -5776,9 +7217,9 @@
         <v>312</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="H44" s="17"/>
+        <v>524</v>
+      </c>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
@@ -5791,9 +7232,9 @@
         <v>314</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="H45" s="17"/>
+        <v>525</v>
+      </c>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
@@ -5806,9 +7247,9 @@
         <v>310</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="H46" s="17"/>
+        <v>526</v>
+      </c>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="2:8" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
@@ -5824,9 +7265,9 @@
         <v>222</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="H47" s="17"/>
+        <v>527</v>
+      </c>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="2:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
@@ -5839,9 +7280,9 @@
         <v>284</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="H48" s="17"/>
+        <v>528</v>
+      </c>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="2:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
@@ -5854,9 +7295,9 @@
         <v>319</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="H49" s="17"/>
+        <v>529</v>
+      </c>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="2:8" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
@@ -5869,24 +7310,24 @@
         <v>279</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H50" s="17"/>
+        <v>493</v>
+      </c>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="2:8" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>285</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="H51" s="17"/>
+        <v>531</v>
+      </c>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="2:8" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
@@ -5899,9 +7340,9 @@
         <v>286</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="H52" s="17"/>
+        <v>532</v>
+      </c>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="2:8" ht="234" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
@@ -5914,9 +7355,9 @@
         <v>282</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="H53" s="17"/>
+        <v>533</v>
+      </c>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="2:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
@@ -5929,9 +7370,9 @@
         <v>321</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="H54" s="17"/>
+        <v>534</v>
+      </c>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="2:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
@@ -5944,9 +7385,9 @@
         <v>325</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="H55" s="17"/>
+        <v>535</v>
+      </c>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="2:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
@@ -5959,9 +7400,9 @@
         <v>323</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="H56" s="17"/>
+        <v>536</v>
+      </c>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="2:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -5974,9 +7415,9 @@
         <v>279</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="H57" s="17"/>
+        <v>537</v>
+      </c>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="2:8" ht="203.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -5989,9 +7430,9 @@
         <v>282</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="H58" s="17"/>
+        <v>538</v>
+      </c>
+      <c r="H58" s="18"/>
     </row>
     <row r="59" spans="2:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
@@ -6007,9 +7448,9 @@
         <v>222</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="H59" s="17"/>
+        <v>539</v>
+      </c>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
@@ -6022,9 +7463,9 @@
         <v>331</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="H60" s="17"/>
+        <v>540</v>
+      </c>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="2:8" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
@@ -6037,9 +7478,9 @@
         <v>333</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="H61" s="17"/>
+        <v>541</v>
+      </c>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
@@ -6052,9 +7493,9 @@
         <v>335</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="H62" s="17"/>
+        <v>542</v>
+      </c>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="2:8" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
@@ -6067,9 +7508,9 @@
         <v>337</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="H63" s="17"/>
+        <v>543</v>
+      </c>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
@@ -6082,9 +7523,9 @@
         <v>231</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="H64" s="17"/>
+        <v>516</v>
+      </c>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
@@ -6097,9 +7538,9 @@
         <v>232</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="H65" s="17"/>
+        <v>517</v>
+      </c>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
@@ -6112,9 +7553,9 @@
         <v>231</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="H66" s="17"/>
+        <v>516</v>
+      </c>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
@@ -6127,9 +7568,9 @@
         <v>339</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="H67" s="17"/>
+        <v>544</v>
+      </c>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
@@ -6142,15 +7583,15 @@
         <v>337</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="H68" s="18"/>
+        <v>545</v>
+      </c>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="22" t="s">
+      <c r="H69" s="23" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6168,9 +7609,9 @@
         <v>222</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="H70" s="22"/>
+        <v>546</v>
+      </c>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
@@ -6183,9 +7624,9 @@
         <v>344</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="H71" s="22"/>
+        <v>546</v>
+      </c>
+      <c r="H71" s="23"/>
     </row>
     <row r="72" spans="1:8" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
@@ -6198,9 +7639,9 @@
         <v>222</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="H72" s="22"/>
+        <v>547</v>
+      </c>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
@@ -6213,9 +7654,9 @@
         <v>351</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H73" s="22"/>
+        <v>493</v>
+      </c>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
@@ -6228,9 +7669,9 @@
         <v>349</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="H74" s="22"/>
+        <v>548</v>
+      </c>
+      <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
@@ -6243,9 +7684,9 @@
         <v>356</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H75" s="22"/>
+        <v>549</v>
+      </c>
+      <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
@@ -6258,27 +7699,27 @@
         <v>337</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="H76" s="22"/>
+        <v>550</v>
+      </c>
+      <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="20" t="s">
         <v>359</v>
       </c>
       <c r="G77" s="14"/>
-      <c r="H77" s="22"/>
+      <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="19"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="22"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
@@ -6291,9 +7732,9 @@
         <v>308</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H79" s="22"/>
+        <v>520</v>
+      </c>
+      <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
@@ -6306,9 +7747,9 @@
         <v>349</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="H80" s="22"/>
+        <v>548</v>
+      </c>
+      <c r="H80" s="23"/>
     </row>
     <row r="81" spans="2:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
@@ -6324,9 +7765,9 @@
         <v>222</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="H81" s="22"/>
+        <v>551</v>
+      </c>
+      <c r="H81" s="23"/>
     </row>
     <row r="82" spans="2:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
@@ -6339,9 +7780,9 @@
         <v>362</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="H82" s="22"/>
+        <v>552</v>
+      </c>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" spans="2:8" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
@@ -6354,9 +7795,9 @@
         <v>222</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="H83" s="22"/>
+        <v>553</v>
+      </c>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="2:8" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
@@ -6369,9 +7810,9 @@
         <v>369</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="H84" s="22"/>
+        <v>554</v>
+      </c>
+      <c r="H84" s="23"/>
     </row>
     <row r="85" spans="2:8" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
@@ -6384,9 +7825,9 @@
         <v>349</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="H85" s="22"/>
+        <v>555</v>
+      </c>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" spans="2:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
@@ -6399,9 +7840,9 @@
         <v>349</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="H86" s="22"/>
+        <v>556</v>
+      </c>
+      <c r="H86" s="23"/>
     </row>
     <row r="87" spans="2:8" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
@@ -6414,11 +7855,11 @@
         <v>369</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="H87" s="22"/>
-    </row>
-    <row r="88" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="2:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>377</v>
       </c>
@@ -6428,10 +7869,12 @@
       <c r="F88" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="22"/>
-    </row>
-    <row r="89" spans="2:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="G88" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H88" s="23"/>
+    </row>
+    <row r="89" spans="2:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>91</v>
       </c>
@@ -6441,10 +7884,12 @@
       <c r="F89" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="22"/>
-    </row>
-    <row r="90" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G89" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H89" s="23"/>
+    </row>
+    <row r="90" spans="2:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>92</v>
       </c>
@@ -6454,10 +7899,12 @@
       <c r="F90" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="22"/>
-    </row>
-    <row r="91" spans="2:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="G90" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" spans="2:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>93</v>
       </c>
@@ -6467,10 +7914,12 @@
       <c r="F91" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="22"/>
-    </row>
-    <row r="92" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G91" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>19</v>
       </c>
@@ -6483,8 +7932,10 @@
       <c r="F92" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="22"/>
+      <c r="G92" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H92" s="23"/>
     </row>
     <row r="93" spans="2:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
@@ -6496,10 +7947,12 @@
       <c r="F93" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="22"/>
-    </row>
-    <row r="94" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G93" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" spans="2:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>95</v>
       </c>
@@ -6509,8 +7962,10 @@
       <c r="F94" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="22"/>
+      <c r="G94" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="2:8" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
@@ -6522,26 +7977,28 @@
       <c r="F95" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="22"/>
+      <c r="G95" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H95" s="23"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>61</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="20" t="s">
         <v>359</v>
       </c>
       <c r="G96" s="14"/>
-      <c r="H96" s="22"/>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>62</v>
       </c>
-      <c r="F97" s="19"/>
+      <c r="F97" s="20"/>
       <c r="G97" s="14"/>
-      <c r="H97" s="22"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="2:8" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
@@ -6554,27 +8011,27 @@
         <v>308</v>
       </c>
       <c r="G98" s="6"/>
-      <c r="H98" s="22"/>
+      <c r="H98" s="23"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>50</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F99" s="20" t="s">
         <v>359</v>
       </c>
       <c r="G99" s="14"/>
-      <c r="H99" s="22"/>
+      <c r="H99" s="23"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>49</v>
       </c>
-      <c r="F100" s="19"/>
+      <c r="F100" s="20"/>
       <c r="G100" s="14"/>
-      <c r="H100" s="22"/>
-    </row>
-    <row r="101" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="2:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>98</v>
       </c>
@@ -6584,10 +8041,12 @@
       <c r="F101" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="22"/>
-    </row>
-    <row r="102" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="G101" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="2:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>388</v>
       </c>
@@ -6597,10 +8056,12 @@
       <c r="F102" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="22"/>
-    </row>
-    <row r="103" spans="2:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="G102" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="2:8" ht="232.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>389</v>
       </c>
@@ -6610,10 +8071,12 @@
       <c r="F103" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="22"/>
-    </row>
-    <row r="104" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="G103" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="2:8" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>392</v>
       </c>
@@ -6623,10 +8086,12 @@
       <c r="F104" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="22"/>
-    </row>
-    <row r="105" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G104" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="2:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>394</v>
       </c>
@@ -6636,8 +8101,10 @@
       <c r="F105" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="22"/>
+      <c r="G105" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H105" s="23"/>
     </row>
     <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
@@ -6652,8 +8119,10 @@
       <c r="F106" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="22"/>
+      <c r="G106" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H106" s="23"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
@@ -6665,8 +8134,10 @@
       <c r="F107" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="22"/>
+      <c r="G107" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="H107" s="23"/>
     </row>
     <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
@@ -6678,21 +8149,25 @@
       <c r="F108" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="22"/>
+      <c r="G108" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>407</v>
+        <v>574</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="22"/>
+      <c r="G109" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H109" s="23"/>
     </row>
     <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
@@ -6704,8 +8179,10 @@
       <c r="F110" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="22"/>
+      <c r="G110" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="H110" s="23"/>
     </row>
     <row r="111" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
@@ -6717,21 +8194,25 @@
       <c r="F111" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G111" s="6"/>
-      <c r="H111" s="22"/>
+      <c r="G111" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="H111" s="23"/>
     </row>
     <row r="112" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>101</v>
       </c>
       <c r="E112" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="G112" s="6"/>
-      <c r="H112" s="22"/>
+        <v>407</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H112" s="23"/>
     </row>
     <row r="113" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
@@ -6743,10 +8224,12 @@
       <c r="F113" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="G113" s="6"/>
-      <c r="H113" s="22"/>
-    </row>
-    <row r="114" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G113" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H113" s="23"/>
+    </row>
+    <row r="114" spans="2:8" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>21</v>
       </c>
@@ -6754,54 +8237,62 @@
         <v>106</v>
       </c>
       <c r="E114" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="22"/>
+      <c r="G114" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H114" s="23"/>
     </row>
     <row r="115" spans="2:8" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
+        <v>419</v>
+      </c>
+      <c r="E115" t="s">
+        <v>421</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E115" t="s">
-        <v>422</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="22"/>
+      <c r="G115" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="H115" s="23"/>
     </row>
     <row r="116" spans="2:8" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>107</v>
       </c>
       <c r="E116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G116" s="6"/>
-      <c r="H116" s="22"/>
+        <v>422</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H116" s="23"/>
     </row>
     <row r="117" spans="2:8" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>108</v>
       </c>
       <c r="E117" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="G117" s="6"/>
-      <c r="H117" s="22"/>
-    </row>
-    <row r="118" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="2:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>22</v>
       </c>
@@ -6809,28 +8300,32 @@
         <v>109</v>
       </c>
       <c r="E118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="22"/>
-    </row>
-    <row r="119" spans="2:8" ht="231" x14ac:dyDescent="0.3">
+      <c r="G118" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="2:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
+        <v>427</v>
+      </c>
+      <c r="E119" t="s">
         <v>428</v>
-      </c>
-      <c r="E119" t="s">
-        <v>429</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="22"/>
-    </row>
-    <row r="120" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G119" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="2:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>110</v>
       </c>
@@ -6840,65 +8335,69 @@
       <c r="F120" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="22"/>
+      <c r="G120" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H120" s="23"/>
     </row>
     <row r="121" spans="2:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>111</v>
       </c>
       <c r="E121" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="22"/>
+        <v>416</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="H121" s="23"/>
     </row>
     <row r="122" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
+        <v>429</v>
+      </c>
+      <c r="E122" t="s">
+        <v>431</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="E122" t="s">
-        <v>432</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="G122" s="6"/>
-      <c r="H122" s="22"/>
+      <c r="H122" s="23"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>61</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="20" t="s">
         <v>359</v>
       </c>
       <c r="G123" s="14"/>
-      <c r="H123" s="22"/>
+      <c r="H123" s="23"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>62</v>
       </c>
-      <c r="F124" s="19"/>
+      <c r="F124" s="20"/>
       <c r="G124" s="14"/>
-      <c r="H124" s="22"/>
+      <c r="H124" s="23"/>
     </row>
     <row r="125" spans="2:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>308</v>
       </c>
       <c r="G125" s="6"/>
-      <c r="H125" s="22"/>
+      <c r="H125" s="23"/>
     </row>
     <row r="126" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
@@ -6911,70 +8410,70 @@
         <v>231</v>
       </c>
       <c r="G126" s="6"/>
-      <c r="H126" s="22"/>
+      <c r="H126" s="23"/>
     </row>
     <row r="127" spans="2:8" ht="181.5" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>105</v>
       </c>
       <c r="E127" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>403</v>
       </c>
       <c r="G127" s="6"/>
-      <c r="H127" s="22"/>
+      <c r="H127" s="23"/>
     </row>
     <row r="128" spans="2:8" ht="198" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>101</v>
       </c>
       <c r="E128" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G128" s="6"/>
-      <c r="H128" s="22"/>
+      <c r="H128" s="23"/>
     </row>
     <row r="129" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E129" t="s">
         <v>300</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G129" s="6"/>
-      <c r="H129" s="22"/>
+      <c r="H129" s="23"/>
     </row>
     <row r="130" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E130" t="s">
         <v>301</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G130" s="6"/>
-      <c r="H130" s="22"/>
+      <c r="H130" s="23"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="22"/>
+      <c r="H131" s="23"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
-      <c r="H132" s="22"/>
+      <c r="H132" s="23"/>
     </row>
     <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
@@ -6990,20 +8489,20 @@
         <v>222</v>
       </c>
       <c r="G133" s="6"/>
-      <c r="H133" s="22"/>
+      <c r="H133" s="23"/>
     </row>
     <row r="134" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>113</v>
       </c>
       <c r="E134" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G134" s="6"/>
-      <c r="H134" s="22"/>
+      <c r="H134" s="23"/>
     </row>
     <row r="135" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
@@ -7013,26 +8512,26 @@
         <v>114</v>
       </c>
       <c r="E135" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G135" s="6"/>
-      <c r="H135" s="22"/>
+      <c r="H135" s="23"/>
     </row>
     <row r="136" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>115</v>
       </c>
       <c r="E136" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G136" s="6"/>
-      <c r="H136" s="22"/>
+      <c r="H136" s="23"/>
     </row>
     <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
@@ -7042,52 +8541,52 @@
         <v>116</v>
       </c>
       <c r="E137" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>222</v>
       </c>
       <c r="G137" s="6"/>
-      <c r="H137" s="22"/>
+      <c r="H137" s="23"/>
     </row>
     <row r="138" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>117</v>
       </c>
       <c r="E138" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G138" s="6"/>
-      <c r="H138" s="22"/>
+      <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
+        <v>441</v>
+      </c>
+      <c r="E139" t="s">
+        <v>443</v>
+      </c>
+      <c r="F139" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="E139" t="s">
-        <v>444</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="G139" s="6"/>
-      <c r="H139" s="22"/>
+      <c r="H139" s="23"/>
     </row>
     <row r="140" spans="1:8" ht="264" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>129</v>
       </c>
       <c r="E140" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G140" s="6"/>
-      <c r="H140" s="22"/>
+      <c r="H140" s="23"/>
     </row>
     <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
@@ -7097,39 +8596,39 @@
         <v>118</v>
       </c>
       <c r="E141" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>222</v>
       </c>
       <c r="G141" s="6"/>
-      <c r="H141" s="22"/>
+      <c r="H141" s="23"/>
     </row>
     <row r="142" spans="1:8" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>119</v>
       </c>
       <c r="E142" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G142" s="6"/>
-      <c r="H142" s="22"/>
+      <c r="H142" s="23"/>
     </row>
     <row r="143" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>120</v>
       </c>
       <c r="E143" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G143" s="6"/>
-      <c r="H143" s="22"/>
+      <c r="H143" s="23"/>
     </row>
     <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
@@ -7139,39 +8638,39 @@
         <v>121</v>
       </c>
       <c r="E144" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>222</v>
       </c>
       <c r="G144" s="6"/>
-      <c r="H144" s="22"/>
+      <c r="H144" s="23"/>
     </row>
     <row r="145" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>122</v>
       </c>
       <c r="E145" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G145" s="6"/>
-      <c r="H145" s="22"/>
+      <c r="H145" s="23"/>
     </row>
     <row r="146" spans="1:8" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>123</v>
       </c>
       <c r="E146" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G146" s="6"/>
-      <c r="H146" s="22"/>
+      <c r="H146" s="23"/>
     </row>
     <row r="147" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
@@ -7181,26 +8680,26 @@
         <v>124</v>
       </c>
       <c r="E147" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>222</v>
       </c>
       <c r="G147" s="6"/>
-      <c r="H147" s="22"/>
+      <c r="H147" s="23"/>
     </row>
     <row r="148" spans="1:8" ht="198" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>125</v>
       </c>
       <c r="E148" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G148" s="6"/>
-      <c r="H148" s="22"/>
+      <c r="H148" s="23"/>
     </row>
     <row r="149" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
@@ -7210,45 +8709,45 @@
         <v>126</v>
       </c>
       <c r="E149" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G149" s="6"/>
-      <c r="H149" s="22"/>
+      <c r="H149" s="23"/>
     </row>
     <row r="150" spans="1:8" ht="231" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>127</v>
       </c>
       <c r="E150" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G150" s="6"/>
-      <c r="H150" s="22"/>
+      <c r="H150" s="23"/>
     </row>
     <row r="151" spans="1:8" ht="231" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>128</v>
       </c>
       <c r="E151" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G151" s="6"/>
-      <c r="H151" s="22"/>
+      <c r="H151" s="23"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
-      <c r="H152" s="20" t="s">
+      <c r="H152" s="21" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7260,78 +8759,78 @@
         <v>130</v>
       </c>
       <c r="E153" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>222</v>
       </c>
       <c r="G153" s="6"/>
-      <c r="H153" s="21"/>
+      <c r="H153" s="22"/>
     </row>
     <row r="154" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>132</v>
       </c>
       <c r="E154" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G154" s="6"/>
-      <c r="H154" s="21"/>
+      <c r="H154" s="22"/>
     </row>
     <row r="155" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
+        <v>471</v>
+      </c>
+      <c r="E155" t="s">
+        <v>473</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E155" t="s">
-        <v>474</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>473</v>
-      </c>
       <c r="G155" s="6"/>
-      <c r="H155" s="21"/>
+      <c r="H155" s="22"/>
     </row>
     <row r="156" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
+        <v>474</v>
+      </c>
+      <c r="E156" t="s">
         <v>475</v>
-      </c>
-      <c r="E156" t="s">
-        <v>476</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>349</v>
       </c>
       <c r="G156" s="6"/>
-      <c r="H156" s="21"/>
+      <c r="H156" s="22"/>
     </row>
     <row r="157" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
+        <v>476</v>
+      </c>
+      <c r="E157" t="s">
+        <v>478</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="E157" t="s">
-        <v>479</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>478</v>
-      </c>
       <c r="G157" s="6"/>
-      <c r="H157" s="21"/>
+      <c r="H157" s="22"/>
     </row>
     <row r="158" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
+        <v>479</v>
+      </c>
+      <c r="E158" t="s">
         <v>480</v>
-      </c>
-      <c r="E158" t="s">
-        <v>481</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G158" s="6"/>
-      <c r="H158" s="21"/>
+      <c r="H158" s="22"/>
     </row>
     <row r="159" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
@@ -7341,117 +8840,117 @@
         <v>131</v>
       </c>
       <c r="E159" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>222</v>
       </c>
       <c r="G159" s="6"/>
-      <c r="H159" s="21"/>
+      <c r="H159" s="22"/>
     </row>
     <row r="160" spans="1:8" ht="231" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>133</v>
       </c>
       <c r="E160" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G160" s="6"/>
-      <c r="H160" s="21"/>
+      <c r="H160" s="22"/>
     </row>
     <row r="161" spans="4:8" ht="132" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
+        <v>481</v>
+      </c>
+      <c r="E161" t="s">
         <v>482</v>
       </c>
-      <c r="E161" t="s">
-        <v>483</v>
-      </c>
       <c r="F161" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G161" s="6"/>
-      <c r="H161" s="21"/>
+      <c r="H161" s="22"/>
     </row>
     <row r="162" spans="4:8" ht="66" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>134</v>
       </c>
       <c r="E162" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>349</v>
       </c>
       <c r="G162" s="6"/>
-      <c r="H162" s="21"/>
+      <c r="H162" s="22"/>
     </row>
     <row r="163" spans="4:8" ht="99" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>135</v>
       </c>
       <c r="E163" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G163" s="6"/>
-      <c r="H163" s="21"/>
+      <c r="H163" s="22"/>
     </row>
     <row r="164" spans="4:8" ht="33" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>136</v>
       </c>
       <c r="E164" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G164" s="6"/>
-      <c r="H164" s="21"/>
+      <c r="H164" s="22"/>
     </row>
     <row r="165" spans="4:8" ht="66" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E165" t="s">
         <v>301</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G165" s="6"/>
-      <c r="H165" s="21"/>
+      <c r="H165" s="22"/>
     </row>
     <row r="166" spans="4:8" ht="99" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E166" t="s">
         <v>300</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G166" s="6"/>
-      <c r="H166" s="21"/>
+      <c r="H166" s="22"/>
     </row>
     <row r="167" spans="4:8" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
+        <v>468</v>
+      </c>
+      <c r="E167" t="s">
+        <v>470</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="E167" t="s">
-        <v>471</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="G167" s="6"/>
-      <c r="H167" s="21"/>
+      <c r="H167" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7475,7 +8974,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
@@ -7505,7 +9004,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C2" t="s">
@@ -7519,7 +9018,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>143</v>
       </c>
@@ -7531,7 +9030,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -7543,7 +9042,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>145</v>
       </c>
@@ -7555,7 +9054,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>176</v>
       </c>
@@ -7567,7 +9066,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>146</v>
       </c>
@@ -7579,7 +9078,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>147</v>
       </c>
@@ -7591,7 +9090,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" t="s">
         <v>148</v>
       </c>
@@ -7603,7 +9102,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" t="s">
         <v>149</v>
       </c>
@@ -7615,7 +9114,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
         <v>150</v>
       </c>
@@ -7627,7 +9126,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" t="s">
         <v>151</v>
       </c>
@@ -7639,7 +9138,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" t="s">
         <v>152</v>
       </c>
@@ -7651,7 +9150,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" t="s">
         <v>153</v>
       </c>
@@ -7663,7 +9162,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" t="s">
         <v>154</v>
       </c>
@@ -7675,7 +9174,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="379.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" t="s">
         <v>155</v>
       </c>
@@ -7687,7 +9186,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" t="s">
         <v>156</v>
       </c>
@@ -7699,7 +9198,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" t="s">
         <v>157</v>
       </c>
@@ -7711,13 +9210,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" t="s">
         <v>158</v>
       </c>
@@ -7729,7 +9228,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" t="s">
         <v>159</v>
       </c>
@@ -7738,7 +9237,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>160</v>
       </c>
@@ -7750,7 +9249,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" t="s">
         <v>161</v>
       </c>
@@ -7762,7 +9261,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" t="s">
         <v>162</v>
       </c>
@@ -7774,7 +9273,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>163</v>
       </c>
@@ -7786,7 +9285,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="165" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>164</v>
       </c>
@@ -7798,7 +9297,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>165</v>
       </c>
@@ -7810,7 +9309,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>166</v>
       </c>
@@ -7822,13 +9321,13 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30" t="s">
         <v>168</v>
       </c>
@@ -7840,7 +9339,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31" t="s">
         <v>169</v>
       </c>
@@ -7852,7 +9351,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32" t="s">
         <v>170</v>
       </c>

--- a/재고관리_WBS_분석_with_db.xlsx
+++ b/재고관리_WBS_분석_with_db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PC 버전" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="651">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,9 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>download.do  </t>
-  </si>
-  <si>
     <t>HTTP_BONBU.do  </t>
   </si>
   <si>
@@ -669,16 +666,10 @@
     <t>HTTP_RETURN_SEARCH.do  </t>
   </si>
   <si>
-    <t>HTTP_RETURN_UPDATE.do  </t>
-  </si>
-  <si>
     <t>HTTP_SGROUP_LIST.do  </t>
   </si>
   <si>
     <t>HTTP_UPDATE.do  </t>
-  </si>
-  <si>
-    <t>HTTP_VERSION.do</t>
   </si>
   <si>
     <t>@RequestParam(value = "id", defaultValue = "") String id,
@@ -2132,9 +2123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), codeService.getSCodeList("200","201"), inOutService.getInOutListReport(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, IOTYPE, EVENT, PAGE, 9), CommonService(), inOutService.getGTYPELIST()</t>
-  </si>
-  <si>
     <t>Ajax_Event_search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2178,10 +2166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC, centerService.getCENTERList(LOGC, BONBU), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.getBonbuStatusReport(YEAR, MONTH, LOGC, centerVo.getMCI_CODE(), LCODE, MCODE, SCODE, MNAME, MCODENAME, SCODENAME, PTYPE, PAGE, PSIZE), CommonService(), centerService.getLOGCInfo(), codeService.getSCodeList("200","201"), modelService.MgroupList(LOGC, LCODE, modelService.SgroupList(LOGC, LCODE, MCODE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getEventReturn(StartDay, EndDay, LOGC, BONBU, CENTER, "", "", 1, 10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2281,10 +2265,6 @@
   </si>
   <si>
     <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getInOutListReport_Excel(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, IOTYPE, EVENT), inOutService.createInOutReportExcel(INOUTLIST, request, savedName), fileService.filePath(request, "TEMP")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getCENTERList(LOGC, BONBU), centerService.getBONBUList(LOGC), centerService.getBONBUList(LOGC), CommonService(), formatService.getDealFormatList(StartDay, EndDay, "", "", "", LOGC, BONBU, CENTER, "", "", CTYPE, 1, 10), codeService.getSCodeList("200","201")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5936,6 +5916,3190 @@
   SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
  &lt;/select&gt;
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getNoticeFileList" resultType="com.vo.NoticeVo" parameterType="String"&gt;
+  SELECT MDF_DOCNO, MDF_SEQ, MDF_FILE, MDF_FILE_Org, MDF_FILE_SIZE
+    FROM MF_DATA_FILE
+   WHERE MDF_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getOtherInfo" resultType="com.vo.OtherVo" parameterType="String"&gt;
+  SELECT DOO_DOCNO, DOO_MODEL, DOO_CENTER,
+      MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName,
+      MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+      CONVERT(CHAR(10), DOO_DATE, 23) as DOO_DATE, 
+         ISNULL(DOO_QTY,'0') as DOO_QTY, DOO_OUTCMNT, DOO_CMNT,
+         ISNULL(DMJ_JEGO,'0') as DMJ_JEGO
+    FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, DT_Other_OUT
+      left outer join DT_MODEL_JEGO on DOO_MODEL = DMJ_MODEL and DOO_CENTER = DMJ_CENTER
+   WHERE DOO_DOCNO = #{value}
+     AND DOO_CENTER = MCI_CODE
+     AND DOO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getModelList" resultType="com.vo.ModelVo" parameterType="hashmap"&gt;
+  SELECT rownum, MMC_CODE, MMC_LOGC, MMC_LOGCNAME, MMC_LGROUP, MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, MMC_KINDS, MMC_UNIT, MMC_ERPMODEL,
+      MMC_StartDay, MMC_EndDay, MMC_BizSts, MMC_CMNT, totalCnt 
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY MMC_LOGC, MMC_CODE ) AS rownum, 
+          MMC_CODE, MMC_LOGC, A.MCI_LOGCNAME as MMC_LOGCNAME, MMC_LGROUP, B.MCC_S_NAME as MMC_LGROUPNAME,
+          MMC_MGROUP, MMC_SGROUP, MMC_KINDS, MMC_UNIT, MMC_ERPMODEL,
+          CONVERT(CHAR(10), MMC_StartDay, 23) as MMC_StartDay, CONVERT(CHAR(10), MMC_EndDay, 23) as MMC_EndDay, MMC_BizSts,
+       MMC_CMNT, COUNT(*) OVER() AS totalCnt
+        FROM MF_MODEL_CODE 
+          left outer join MF_CENTER_INFO A on MMC_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+          left outer join MF_COMM_CODE B on B.MCC_L_CODE = '200' AND B.MCC_M_CODE = '201' AND MMC_LGROUP = B.MCC_S_CODE
+       WHERE 1=1
+      &lt;if test="BISSTS != null and BISSTS != ''"&gt;
+         AND MMC_BizSts = #{BISSTS}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MMC_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="LCODE != null and LCODE != ''"&gt;
+         AND MMC_LGROUP = #{LCODE}
+      &lt;/if&gt;
+      &lt;if test="MCODE != null and MCODE != ''"&gt;
+         AND MMC_MGROUP = #{MCODE}
+      &lt;/if&gt;
+      &lt;if test="SCODE != null and SCODE != ''"&gt;
+         AND MMC_SGROUP = #{SCODE}
+      &lt;/if&gt;
+      &lt;if test="MCODENAME != null and MCODENAME != ''"&gt;
+         AND MMC_MGROUP like '%${MCODENAME}%'
+      &lt;/if&gt;
+      &lt;if test="SCODENAME != null and SCODENAME != ''"&gt;
+         AND MMC_SGROUP like '%${SCODENAME}%'
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND MMC_CODE like '%${MNAME}%'
+      &lt;/if&gt;
+  )A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getJegoModel" resultType="com.vo.MoveVo" parameterType="hashmap"&gt;
+ &lt;choose&gt;
+    &lt;when test="NOWDATE != ''"&gt;
+ SELECT DMJ_MODEL, DMJ_CENTER, DMJ_JEGO, ISNULL(A.INQTY, 0) - ISNULL(B.OUTQTY, 0) as OUTJEGO 
+   FROM DT_MODEL_JEGO
+        left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS INQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '1' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) A on A.DIB_MODEL = DMJ_MODEL and A.DIB_CENTER = DMJ_CENTER
+        left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS OUTQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '2' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) B on B.DIB_MODEL = DMJ_MODEL and B.DIB_CENTER = DMJ_CENTER
+     WHERE DMJ_MODEL = #{MODEL} 
+    and DMJ_CENTER = #{CENTER}
+ &lt;/when&gt;
+ &lt;otherwise&gt;
+ SELECT DMJ_JEGO, DMJ_JEGO as OUTJEGO
+   FROM DT_MODEL_JEGO
+     WHERE DMJ_MODEL = #{MODEL} 
+    and DMJ_CENTER = #{CENTER}
+ &lt;/otherwise&gt;
+ &lt;/choose&gt;
+ &lt;/select&gt;
+&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getModelInfo" resultType="com.vo.ModelVo" parameterType="String"&gt;
+  SELECT MMC_CODE, MMC_LOGC, A.MCI_LOGCNAME as MMC_LOGCNAME, MMC_LGROUP, B.MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, MMC_KINDS, C.MCC_S_NAME as MMC_KINDSNAME,
+      MMC_UNIT, MMC_ERPMODEL,
+      CONVERT(CHAR(10), MMC_StartDay, 23) as MMC_StartDay, CONVERT(CHAR(10), MMC_EndDay, 23) as MMC_EndDay, 
+      MMC_BizSts, MMC_SEQ, MMC_CMNT
+    FROM MF_MODEL_CODE 
+         left outer join MF_CENTER_INFO A on MMC_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+      left outer join MF_COMM_CODE B on B.MCC_L_CODE = '200' AND B.MCC_M_CODE = '201' AND MMC_LGROUP = B.MCC_S_CODE
+      left outer join MF_COMM_CODE C on C.MCC_L_CODE = '200' AND C.MCC_M_CODE = '200' AND MMC_KINDS = C.MCC_S_CODE
+   WHERE MMC_CODE = #{value}
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getNowJegoReport" resultType="com.vo.JegoVo" parameterType="hashmap"&gt;
+ SELECT LOGC, LOGCNAME, BONBU, BONBUNAME, CENTER, CENTERNAME, MCI_CODE, PJEGO, NOWJEGO, MMJ_JEGO,
+        PJEGO + SUM(CASE WHEN MMDATE = '1' THEN DIB_QTY else 0 end) M1JEGO,
+        &lt;if test="MONTH gte 2"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '2' THEN DIB_QTY else 0 end) M2JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 3"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '3' THEN DIB_QTY else 0 end) M3JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 4"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '4' THEN DIB_QTY else 0 end) M4JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 5"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '5' THEN DIB_QTY else 0 end) M5JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 6"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '6' THEN DIB_QTY else 0 end) M6JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 7"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '7' THEN DIB_QTY else 0 end) M7JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 8"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '8' THEN DIB_QTY else 0 end) M8JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 9"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '9' THEN DIB_QTY else 0 end) M9JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 10"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '10' THEN DIB_QTY else 0 end) M10JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 11"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '11' THEN DIB_QTY else 0 end) M11JEGO,
+        &lt;/if&gt;
+        &lt;if test="MONTH gte 12"&gt;
+        PJEGO + SUM(CASE WHEN MMDATE &lt;![CDATA[&lt;=]]&gt; '12' THEN DIB_QTY else 0 end) M12JEGO,
+        &lt;/if&gt;
+        ''
+   FROM (
+     SELECT MCI_LOGC as LOGC, MCI_LOGCNAME as LOGCNAME, MCI_Bonbu as BONBU, MCI_BonbuNAME as BONBUNAME, MCI_Center as CENTER, MCI_CenterName as CENTERNAME, MCI_CODE, 
+            ISNULL(DMJ_JEGO, 0) + ISNULL(P.JEGO, 0) as PJEGO, ISNULL(DMJ_JEGO,0) + ISNULL(N.JEGO,0) as NOWJEGO, ISNULL(MMJ_JEGO,0) as MMJ_JEGO, 
+            DIB_IODATE, DATEPART(mm, DIB_IODATE) MMDATE, CASE WHEN DIB_IOTYPE = '2' THEN DIB_QTY*(-1) else DIB_QTY end DIB_QTY
+       FROM MF_CENTER_INFO
+            left outer join DT_INOUT_BONBU A on DIB_MODEL = #{MODEL} AND MCI_CODE = A.DIB_CENTER  AND DIB_IODATE BETWEEN #{StartDay} AND #{EndDay}
+            left outer join MF_MODEL_JEGO on MMJ_CENTER = MCI_CODE and MMJ_MODEL = #{MODEL}
+             left outer join DT_MODEL_JEGO on DMJ_CENTER = MCI_CODE and DMJ_MODEL = #{MODEL}
+             left outer join 
+             (
+                 SELECT DIB_CENTER, ISNULL(SUM(case WHEN DIB_IOTYPE = '1' THEN DIB_QTY * (-1) else DIB_QTY end), 0) as JEGO 
+                   FROM DT_INOUT_BONBU
+                  WHERE DIB_MODEL = #{MODEL}
+                    and DIB_IODATE &gt; #{pDay}
+                  group by DIB_CENTER
+                ) P
+             on DMJ_CENTER = P.DIB_CENTER
+             left outer join 
+             (
+                 SELECT DIB_CENTER, ISNULL(SUM(case WHEN DIB_IOTYPE = '1' THEN DIB_QTY * (-1) else DIB_QTY end), 0) as JEGO 
+                   FROM DT_INOUT_BONBU
+                  WHERE DIB_MODEL = #{MODEL}
+                    and DIB_IODATE &gt; #{NowDay}
+                  group by DIB_CENTER
+             ) N
+             on DMJ_CENTER = N.DIB_CENTER
+       &lt;choose&gt;
+    &lt;when test="LEVEL == '001' or LEVEL == '002'"&gt;
+             WHERE MCI_LOGC = #{LOGC}
+            AND not MCI_Bonbu = ' '
+            AND not MCI_Center = ' '
+    &lt;/when&gt;
+    &lt;when test="LEVEL == '003'"&gt;
+        WHERE MCI_LOGC = #{LOGC}
+         AND MCI_Bonbu = #{BONBU}
+         AND not MCI_Center = ' '
+    &lt;/when&gt;
+    &lt;otherwise&gt;
+     WHERE MCI_LOGC = #{LOGC}
+         AND MCI_Bonbu = #{BONBU}
+         AND MCI_Center = #{CENTER}
+    &lt;/otherwise&gt;
+    &lt;/choose&gt;
+   ) MAIN
+   GROUP BY LOGC, LOGCNAME, BONBU, BONBUNAME, CENTER, CENTERNAME, MCI_CODE, PJEGO, NOWJEGO, MMJ_JEGO
+        ORDER BY LOGC, BONBU, CENTER
+ &lt;/select&gt;
+&lt;select id="getModelInfo" resultType="com.vo.ModelVo" parameterType="String"&gt;
+  SELECT MMC_CODE, MMC_LOGC, A.MCI_LOGCNAME as MMC_LOGCNAME, MMC_LGROUP, B.MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, MMC_KINDS, C.MCC_S_NAME as MMC_KINDSNAME,
+      MMC_UNIT, MMC_ERPMODEL,
+      CONVERT(CHAR(10), MMC_StartDay, 23) as MMC_StartDay, CONVERT(CHAR(10), MMC_EndDay, 23) as MMC_EndDay, 
+      MMC_BizSts, MMC_SEQ, MMC_CMNT
+    FROM MF_MODEL_CODE 
+         left outer join MF_CENTER_INFO A on MMC_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+      left outer join MF_COMM_CODE B on B.MCC_L_CODE = '200' AND B.MCC_M_CODE = '201' AND MMC_LGROUP = B.MCC_S_CODE
+      left outer join MF_COMM_CODE C on C.MCC_L_CODE = '200' AND C.MCC_M_CODE = '200' AND MMC_KINDS = C.MCC_S_CODE
+   WHERE MMC_CODE = #{value}
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getInOutListReport" resultType="com.vo.InOutListVo" parameterType="hashmap"&gt;
+  SELECT rownum, DOCNO, MODEL, IOTYPE, IODATE, QTY, RESNNAME, CCODE,
+      MCI_LOGC, LOGCNAME, BONBUNAME, CENTERNAME,
+      MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY IODATE, CMN_MAK_DATE, MCI_LOGC, CCODE) AS rownum,
+          DOCNO, MODEL, IOTYPE, IODATE, QTY, RESNNAME, CCODE, 
+          MCI_LOGC, LOGCNAME, BONBUNAME, CENTERNAME, 
+          MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+          COUNT(*) OVER() AS totalCnt
+     FROM (
+   &lt;if test="BONBU == '' and CENTER == '' and ( IOTYPE == 0 or IOTYPE == 1 )"&gt;
+      SELECT DIL_DOCNO as DOCNO, DIL_MODEL as MODEL, '1' as IOTYPE, CONVERT(CHAR(10), DIL_INDate, 23) as IODATE, 
+          ISNULL(DIL_QTY,'0') as QTY, '물류입고' as RESNNAME,
+          '0' as CCODE, MCI_LOGC, MCI_LOGCNAME as LOGCNAME, '-' as BONBUNAME, '-' as CENTERNAME,
+          MMC_LGROUP, A.MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, DT_IN_LOGC.CMN_UPD_DATE AS CMN_MAK_DATE
+        FROM DT_IN_LOGC, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE A
+       WHERE DIL_LOGC = MCI_LOGC AND MCI_Bonbu = ' ' AND MCI_Center = ' '
+         AND DIL_MODEL = MMC_CODE
+         AND A.MCC_L_CODE = '200' AND A.MCC_M_CODE = '201' AND MMC_LGROUP = A.MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DIL_INDate between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND DIL_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DIL_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+       UNION ALL 
+      &lt;/if&gt;
+   SELECT DIB_DOCNO as DOCNO, DIB_MODEL as MODEL, DIB_IOTYPE as IOTYPE, CONVERT(CHAR(10), DIB_IODATE, 23) as IODATE, 
+       ISNULL(DIB_QTY,'0') as QTY, case when DIB_IOTYPE = '1' then B.MCC_S_NAME ELSE C.MCC_S_NAME end as RESNNAME, 
+       MCI_CODE as CCODE, MCI_LOGC, MCI_LOGCNAME as LOGCNAME, MCI_BonbuNAME as BONBUNAME, MCI_CenterName as CENTERNAME,
+          MMC_LGROUP, A.MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, DT_INOUT_BONBU.CMN_MAK_DATE AS CMN_MAK_DATE
+        FROM DT_INOUT_BONBU 
+             LEFT OUTER JOIN MF_COMM_CODE B ON DIB_IOTYPE = '1' AND B.MCC_L_CODE = '100' AND B.MCC_M_CODE = '100' AND DIB_RESN = B.MCC_S_CODE
+             LEFT OUTER JOIN MF_COMM_CODE C ON DIB_IOTYPE = '2' AND C.MCC_L_CODE = '100' AND C.MCC_M_CODE = '101' AND DIB_RESN = C.MCC_S_CODE,
+             MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE A
+       WHERE DIB_CENTER = MCI_CODE
+         AND DIB_MODEL = MMC_CODE
+         AND A.MCC_L_CODE = '200' AND A.MCC_M_CODE = '201' AND MMC_LGROUP = A.MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DIB_IODATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DIB_IODATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DIB_IODATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != null and BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != null and CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DIB_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+      &lt;if test="IOTYPE != 0"&gt;
+         AND DIB_IOTYPE = #{IOTYPE}
+      &lt;/if&gt;
+      &lt;if test="EVENT != null and EVENT != ''"&gt;
+         AND DIB_DOCNO like '%${EVENT}%'
+         AND (DIB_IOTYPE = '1' AND DIB_RESN = '3' or DIB_IOTYPE = '2' AND DIB_RESN = '1')
+      &lt;/if&gt;
+      ) SUB
+  ) MAIN
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getGTYPELIST" resultType="com.vo.InOutListVo"&gt;
+  SELECT a.일반단체구분 as GTYPE, count(a.일반단체구분) from 행사마스터 a (nolock) group by a.일반단체구분
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), codeService.getSCodeList("200","201"), inOutService.getInOutListReport(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, IOTYPE, EVENT, PAGE, 9), CommonService(), inOutService.getGTYPELIST()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getInOutListReport" resultType="com.vo.InOutListVo" parameterType="hashmap"&gt;
+  SELECT rownum, DOCNO, MODEL, IOTYPE, IODATE, QTY, RESNNAME, CCODE,
+      MCI_LOGC, LOGCNAME, BONBUNAME, CENTERNAME,
+      MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY IODATE, CMN_MAK_DATE, MCI_LOGC, CCODE) AS rownum,
+          DOCNO, MODEL, IOTYPE, IODATE, QTY, RESNNAME, CCODE, 
+          MCI_LOGC, LOGCNAME, BONBUNAME, CENTERNAME, 
+          MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+          COUNT(*) OVER() AS totalCnt
+     FROM (
+   &lt;if test="BONBU == '' and CENTER == '' and ( IOTYPE == 0 or IOTYPE == 1 )"&gt;
+      SELECT DIL_DOCNO as DOCNO, DIL_MODEL as MODEL, '1' as IOTYPE, CONVERT(CHAR(10), DIL_INDate, 23) as IODATE, 
+          ISNULL(DIL_QTY,'0') as QTY, '물류입고' as RESNNAME,
+          '0' as CCODE, MCI_LOGC, MCI_LOGCNAME as LOGCNAME, '-' as BONBUNAME, '-' as CENTERNAME,
+          MMC_LGROUP, A.MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, DT_IN_LOGC.CMN_UPD_DATE AS CMN_MAK_DATE
+        FROM DT_IN_LOGC, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE A
+       WHERE DIL_LOGC = MCI_LOGC AND MCI_Bonbu = ' ' AND MCI_Center = ' '
+         AND DIL_MODEL = MMC_CODE
+         AND A.MCC_L_CODE = '200' AND A.MCC_M_CODE = '201' AND MMC_LGROUP = A.MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DIL_INDate between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND DIL_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DIL_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+       UNION ALL 
+      &lt;/if&gt;
+   SELECT DIB_DOCNO as DOCNO, DIB_MODEL as MODEL, DIB_IOTYPE as IOTYPE, CONVERT(CHAR(10), DIB_IODATE, 23) as IODATE, 
+       ISNULL(DIB_QTY,'0') as QTY, case when DIB_IOTYPE = '1' then B.MCC_S_NAME ELSE C.MCC_S_NAME end as RESNNAME, 
+       MCI_CODE as CCODE, MCI_LOGC, MCI_LOGCNAME as LOGCNAME, MCI_BonbuNAME as BONBUNAME, MCI_CenterName as CENTERNAME,
+          MMC_LGROUP, A.MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, DT_INOUT_BONBU.CMN_MAK_DATE AS CMN_MAK_DATE
+        FROM DT_INOUT_BONBU 
+             LEFT OUTER JOIN MF_COMM_CODE B ON DIB_IOTYPE = '1' AND B.MCC_L_CODE = '100' AND B.MCC_M_CODE = '100' AND DIB_RESN = B.MCC_S_CODE
+             LEFT OUTER JOIN MF_COMM_CODE C ON DIB_IOTYPE = '2' AND C.MCC_L_CODE = '100' AND C.MCC_M_CODE = '101' AND DIB_RESN = C.MCC_S_CODE,
+             MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE A
+       WHERE DIB_CENTER = MCI_CODE
+         AND DIB_MODEL = MMC_CODE
+         AND A.MCC_L_CODE = '200' AND A.MCC_M_CODE = '201' AND MMC_LGROUP = A.MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DIB_IODATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DIB_IODATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DIB_IODATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != null and BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != null and CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DIB_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+      &lt;if test="IOTYPE != 0"&gt;
+         AND DIB_IOTYPE = #{IOTYPE}
+      &lt;/if&gt;
+      &lt;if test="EVENT != null and EVENT != ''"&gt;
+         AND DIB_DOCNO like '%${EVENT}%'
+         AND (DIB_IOTYPE = '1' AND DIB_RESN = '3' or DIB_IOTYPE = '2' AND DIB_RESN = '1')
+      &lt;/if&gt;
+      ) SUB
+  ) MAIN
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getEventInfo" resultType="com.vo.InOutListVo" parameterType="hashmap"&gt;
+  SELECT rownum, BONBUNAME, CENTERNAME, DOCNO, EUSERID, EUSERNAME,
+      EVENTDATE, GROUPNAME, JNAME, ESTATE, GTYPE, totalCnt
+  FROM
+  (
+  SELECT ROW_NUMBER() OVER(ORDER BY a.행사시작일시, a.본부, a.센터) AS rownum,
+         a.본부 as BONBUNAME, a.센터 as CENTERNAME, a.행사번호 as DOCNO, c.코드 as EUSERID, c.성함 as EUSERNAME, 
+         a.행사시작일시 as EVENTDATE, b.단체명 as GROUPNAME, d.장례식장 as JNAME, a.행사상태 as ESTATE, a.일반단체구분 as GTYPE,
+         COUNT(*) OVER() AS totalCnt
+    from 행사마스터 a (nolock)
+    left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드
+    left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드
+    left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드
+    left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호
+   where 1=1
+   &lt;if test="StartDay == '' and EndDay != ''"&gt;
+     AND SUBSTRING(a.행사시작일시,0,9) &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+   &lt;/if&gt;
+   &lt;if test="StartDay != '' and EndDay == ''"&gt;
+     AND SUBSTRING(a.행사시작일시,0,9) &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+   &lt;/if&gt;
+    &lt;if test="StartDay != '' and EndDay != ''"&gt;
+     AND SUBSTRING(a.행사시작일시,0,9) between #{StartDay} AND #{EndDay}
+   &lt;/if&gt;
+   &lt;if test="BONBU != ''"&gt;
+   &lt;choose&gt;
+   &lt;when test="BONBU == '수도권'"&gt;
+   AND (a.본부 = '수도권' or a.본부 = '외주') 
+   &lt;/when&gt;
+   &lt;otherwise&gt;
+   AND a.본부 = #{BONBU}
+   &lt;/otherwise&gt;
+   &lt;/choose&gt;
+   &lt;/if&gt;
+   &lt;if test="CENTER != ''"&gt;
+   &lt;choose&gt;
+   &lt;when test="CENTER == '본부'"&gt;
+   AND (a.센터 = '본부' or a.센터 = '') 
+   &lt;/when&gt;
+   &lt;otherwise&gt;
+   AND a.센터 = #{CENTER}
+   &lt;/otherwise&gt;
+   &lt;/choose&gt;
+      &lt;/if&gt;
+   &lt;if test="EUSERNAME != null and EUSERNAME != ''"&gt;
+     AND c.성함 like '%${EUSERNAME}%'
+   &lt;/if&gt;
+   &lt;if test="GNAME != null and GNAME != ''"&gt;
+     AND b.단체명 like '%${GNAME}%'
+   &lt;/if&gt;
+   &lt;if test="JNAME != null and JNAME != ''"&gt;
+     AND d.장례식장 like '%${JNAME}%'
+   &lt;/if&gt;
+   &lt;if test="ESTATE != null and ESTATE != ''"&gt;
+     AND a.행사상태 = #{ESTATE}
+   &lt;/if&gt;
+   &lt;if test="GTYPE != null and GTYPE != ''"&gt;
+     AND a.일반단체구분 = #{GTYPE}
+   &lt;/if&gt;
+  ) MAIN
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getInOutListReport_Excel" resultType="com.vo.InOutListVo" parameterType="hashmap"&gt;
+  SELECT DOCNO, MODEL, IOTYPE, IODATE, QTY, RESNNAME, CCODE, 
+      MCI_LOGC, LOGCNAME, BONBUNAME, CENTERNAME, 
+      MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP
+       FROM (
+         &lt;if test="BONBU == '' and CENTER == '' and ( IOTYPE == 0 or IOTYPE == 1 )"&gt;
+      SELECT DIL_DOCNO as DOCNO, DIL_MODEL as MODEL, '1' as IOTYPE, CONVERT(CHAR(10), DIL_INDate, 23) as IODATE, 
+          ISNULL(DIL_QTY,'0') as QTY, '물류입고' as RESNNAME,
+          '0' as CCODE, MCI_LOGC, MCI_LOGCNAME as LOGCNAME, '-' as BONBUNAME, '-' as CENTERNAME,
+          MMC_LGROUP, A.MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, DT_IN_LOGC.CMN_UPD_DATE AS CMN_MAK_DATE
+        FROM DT_IN_LOGC, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE A
+       WHERE DIL_LOGC = MCI_LOGC AND MCI_Bonbu = ' ' AND MCI_Center = ' '
+         AND DIL_MODEL = MMC_CODE
+         AND A.MCC_L_CODE = '200' AND A.MCC_M_CODE = '201' AND MMC_LGROUP = A.MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DIL_INDate &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DIL_INDate between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND DIL_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DIL_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+       UNION ALL 
+      &lt;/if&gt;
+   SELECT DIB_DOCNO as DOCNO, DIB_MODEL as MODEL, DIB_IOTYPE as IOTYPE, CONVERT(CHAR(10), DIB_IODATE, 23) as IODATE, 
+       ISNULL(DIB_QTY,'0') as QTY, case when DIB_IOTYPE = '1' then B.MCC_S_NAME ELSE C.MCC_S_NAME end as RESNNAME, 
+       MCI_CODE as CCODE, MCI_LOGC, MCI_LOGCNAME as LOGCNAME, MCI_BonbuNAME as BONBUNAME, MCI_CenterName as CENTERNAME,
+          MMC_LGROUP, A.MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, DT_INOUT_BONBU.CMN_MAK_DATE AS CMN_MAK_DATE
+        FROM DT_INOUT_BONBU 
+             LEFT OUTER JOIN MF_COMM_CODE B ON DIB_IOTYPE = '1' AND B.MCC_L_CODE = '100' AND B.MCC_M_CODE = '100' AND DIB_RESN = B.MCC_S_CODE
+             LEFT OUTER JOIN MF_COMM_CODE C ON DIB_IOTYPE = '2' AND C.MCC_L_CODE = '100' AND C.MCC_M_CODE = '101' AND DIB_RESN = C.MCC_S_CODE,
+             MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE A
+       WHERE DIB_CENTER = MCI_CODE
+         AND DIB_MODEL = MMC_CODE
+         AND A.MCC_L_CODE = '200' AND A.MCC_M_CODE = '201' AND MMC_LGROUP = A.MCC_S_CODE
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DIB_IODATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DIB_IODATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DIB_IODATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != null and LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != null and BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != null and CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND DIB_MODEL like '%${MNAME}%'
+      &lt;/if&gt;
+      &lt;if test="IOTYPE != 0"&gt;
+         AND DIB_IOTYPE = #{IOTYPE}
+      &lt;/if&gt;
+      &lt;if test="EVENT != null and EVENT != ''"&gt;
+         AND DIB_DOCNO like '%${EVENT}%'
+         AND (DIB_IOTYPE = '1' AND DIB_RESN = '3' or DIB_IOTYPE = '2' AND DIB_RESN = '1')
+      &lt;/if&gt;
+  ) SUB
+  ORDER BY IODATE, CMN_MAK_DATE, MCI_LOGC, CCODE
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.getBonbuStatusReport(YEAR, MONTH, LOGC, centerVo.getMCI_CODE(), LCODE, MCODE, SCODE, MNAME, MCODENAME, SCODENAME, PTYPE, PAGE, PSIZE), CommonService(), centerService.getLOGCInfo(), codeService.getSCodeList("200","201"), modelService.MgroupList(LOGC, LCODE), modelService.SgroupList(LOGC, LCODE, MCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="SgroupList" resultType="com.vo.ModelVo" parameterType="hashmap"&gt;
+  SELECT MMC_LGROUP, MMC_MGROUP, MMC_SGROUP, COUNT(MMC_SGROUP) as cnt 
+    from MF_MODEL_CODE 
+   WHERE MMC_LOGC = #{LOGC} 
+     AND MMC_LGROUP = #{LCODE} 
+     AND MMC_MGROUP = #{MCODE} 
+   group by MMC_LGROUP, MMC_MGROUP, MMC_SGROUP
+   order by MMC_LGROUP, MMC_MGROUP, MMC_SGROUP
+ &lt;/select&gt;
+&lt;select id="MgroupList" resultType="com.vo.ModelVo" parameterType="hashmap"&gt;
+  SELECT MMC_LGROUP, MMC_MGROUP, COUNT(MMC_MGROUP) as cnt 
+    from MF_MODEL_CODE 
+   WHERE MMC_LOGC = #{LOGC} 
+     AND MMC_LGROUP = #{LCODE} 
+   group by MMC_LGROUP, MMC_MGROUP
+   order by MMC_LGROUP, MMC_MGROUP
+ &lt;/select&gt;
+&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getBonbuStatusReport" resultType="com.vo.BonbuStatusVo" parameterType="hashmap"&gt;
+   SELECT rownum, MMC_CODE, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      MMJ_JEGO, PJEGO, (PJEGO - OUTJEGO) + INJEGO as NOWJEGO, INJEGO, OUTJEGO, totalCnt
+  FROM
+  (
+       SELECT ROW_NUMBER() OVER(ORDER BY MMC_CODE) AS rownum,
+              MMC_CODE, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+              ISNULL(MMJ_JEGO, 0) as MMJ_JEGO,
+                 ISNULL(C.INQTY, 0) - ISNULL(D.OUTQTY, 0) as PJEGO,
+              ISNULL(SUM(case WHEN DIB_IOTYPE = '1' THEN DIB_QTY else 0 end), 0) as INJEGO,
+              ISNULL(SUM(case WHEN DIB_IOTYPE = '2'  THEN DIB_QTY else 0 end), 0) as OUTJEGO,
+              COUNT(*) OVER() AS totalCnt
+            FROM MF_COMM_CODE, MF_MODEL_CODE
+                 left outer join DT_INOUT_BONBU on MMC_CODE = DIB_MODEL and DIB_CENTER = #{CENTER} AND DIB_IODATE between #{StartDay} and #{EndDay}
+                 left outer join MF_MODEL_JEGO on MMC_CODE = MMJ_MODEL AND MMJ_CENTER = #{CENTER}
+              left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS INQTY
+                                 FROM DT_INOUT_BONBU 
+                                WHERE DIB_IOTYPE = '1' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{PDATE})
+                                  AND DIB_CENTER = #{CENTER}
+                                GROUP BY DIB_MODEL, DIB_CENTER
+              ) C on C.DIB_MODEL = MMC_CODE
+              left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS OUTQTY
+                                 FROM DT_INOUT_BONBU 
+                                WHERE DIB_IOTYPE = '2' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{PDATE})
+                                  AND DIB_CENTER = #{CENTER}
+                                GROUP BY DIB_MODEL, DIB_CENTER
+              ) D on D.DIB_MODEL = MMC_CODE
+           where MMC_LOGC = #{LOGC}
+             AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+      &lt;if test="LCODE != null and LCODE != ''"&gt;
+         AND MMC_LGROUP = #{LCODE}
+      &lt;/if&gt;
+      &lt;if test="MCODE != null and MCODE != ''"&gt;
+         AND MMC_MGROUP = #{MCODE}
+      &lt;/if&gt;
+      &lt;if test="SCODE != null and SCODE != ''"&gt;
+         AND MMC_SGROUP = #{SCODE}
+      &lt;/if&gt;
+      &lt;if test="MCODENAME != null and MCODENAME != ''"&gt;
+         AND MMC_MGROUP like '%${MCODENAME}%'
+      &lt;/if&gt;
+      &lt;if test="SCODENAME != null and SCODENAME != ''"&gt;
+         AND MMC_SGROUP like '%${SCODENAME}%'
+      &lt;/if&gt;
+      &lt;if test="MNAME != null and MNAME != ''"&gt;
+         AND MMC_CODE like '%${MNAME}%'
+      &lt;/if&gt;
+        group by MMC_CODE, MMC_LGROUP, MCC_S_NAME, MMC_MGROUP, MMC_SGROUP, MMJ_JEGO, C.INQTY, D.OUTQTY
+     ) MAIN
+     &lt;if test="PTYPE == 1"&gt;
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+  &lt;/if&gt;
+ &lt;/select&gt;
+&lt;select id="getCENTERInfo_Detail" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_Bonbu, MCI_Center, MCI_LOGCNAME, MCI_BonbuNAME, MCI_CenterName, MCI_CODE, MCI_BRN, MCI_CoName, MCI_CEO, MCI_Addr, MCI_CoType, MCI_Jongmog, MCI_PIC, MCI_PICHP, CONVERT(CHAR(10), MCI_StartDay, 23) as MCI_StartDay, CONVERT(CHAR(10), MCI_EndDay, 23) as MCI_EndDay, MCI_BizSts, MCI_CMNT, MCI_SORT_ORDER FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND MCI_Center = #{CENTER}
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getEventReturn" resultType="com.vo.EventVo" parameterType="hashmap"&gt;
+  SELECT rownum, DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+   DEM_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+   DEM_QTY, DEM_DATE, DEM_USER, DEM_USERNAME, 
+   DEM_RETEMPDATE, DEM_REDATE, DEM_REUESR, DEM_REUESRNAME,
+   DEM_STS, DEM_CMNT, totalCnt
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER(ORDER BY DEM_DATE, DT_EVENT_MODEL.CMN_MAK_DATE, MCI_CODE, MMC_CODE) AS rownum,
+               DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               DEM_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               ISNULL(DEM_QTY, 0) as DEM_QTY, CONVERT(CHAR(10), DEM_DATE, 23) as DEM_DATE, DEM_USER, A.MUT_UserName as DEM_USERNAME, 
+               CONVERT(CHAR(10), DEM_RETEMPDATE, 23) as DEM_RETEMPDATE, CONVERT(CHAR(10), DEM_REDATE, 23) as DEM_REDATE, DEM_REUESR, B.MUT_UserName as DEM_REUESRNAME,
+               case when DEM_STS = '1' and DEM_RETEMPDATE &lt;![CDATA[&lt;]]&gt; getdate() then '5' else DEM_STS end as DEM_STS,
+               DEM_CMNT, COUNT(*) OVER() AS totalCnt
+          FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL A, DT_EVENT_MODEL
+         left outer join MF_USER_TBL B on DEM_REUESR = B.MUT_UserID
+            WHERE DEM_CENTER = MCI_CODE
+              AND DEM_MODEL = MMC_CODE
+              AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+              AND DEM_USER = A.MUT_UserID
+              AND MMC_KINDS = '3'
+            &lt;if test="StartDay == '' and EndDay != ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+        AND DEM_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+        AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+        AND MCI_Bonbu = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+        AND MCI_Center = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="ENAME != ''"&gt;
+        AND DEM_DOCNO like '%${ENAME}%'
+         &lt;/if&gt;
+         &lt;if test="BISSTS != null and !BISSTS.equals('')  "&gt;
+         &lt;choose&gt;
+         &lt;when test="BISSTS == 1 "&gt;
+          AND DEM_STS = '1' AND DEM_RETEMPDATE &lt;![CDATA[&gt;]]&gt; getdate()
+         &lt;/when&gt;
+         &lt;when test="BISSTS == 5 "&gt;
+          AND DEM_STS = '1' AND DEM_RETEMPDATE &lt;![CDATA[&lt;]]&gt; getdate()
+         &lt;/when&gt;
+         &lt;otherwise&gt;
+          AND DEM_STS = #{BISSTS}
+         &lt;/otherwise&gt;
+         &lt;/choose&gt;
+      &lt;/if&gt;
+    ) MAIN
+   WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getGTYPELIST" resultType="com.vo.InOutListVo"&gt;
+  SELECT a.일반단체구분 as GTYPE, count(a.일반단체구분) from 행사마스터 a (nolock) group by a.일반단체구분
+ &lt;/select&gt;
+&lt;select id="getEventReturn" resultType="com.vo.EventVo" parameterType="hashmap"&gt;
+  SELECT rownum, DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+   DEM_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+   DEM_QTY, DEM_DATE, DEM_USER, DEM_USERNAME, 
+   DEM_RETEMPDATE, DEM_REDATE, DEM_REUESR, DEM_REUESRNAME,
+   DEM_STS, DEM_CMNT, totalCnt
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER(ORDER BY DEM_DATE, DT_EVENT_MODEL.CMN_MAK_DATE, MCI_CODE, MMC_CODE) AS rownum,
+               DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               DEM_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               ISNULL(DEM_QTY, 0) as DEM_QTY, CONVERT(CHAR(10), DEM_DATE, 23) as DEM_DATE, DEM_USER, A.MUT_UserName as DEM_USERNAME, 
+               CONVERT(CHAR(10), DEM_RETEMPDATE, 23) as DEM_RETEMPDATE, CONVERT(CHAR(10), DEM_REDATE, 23) as DEM_REDATE, DEM_REUESR, B.MUT_UserName as DEM_REUESRNAME,
+               case when DEM_STS = '1' and DEM_RETEMPDATE &lt;![CDATA[&lt;]]&gt; getdate() then '5' else DEM_STS end as DEM_STS,
+               DEM_CMNT, COUNT(*) OVER() AS totalCnt
+          FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL A, DT_EVENT_MODEL
+         left outer join MF_USER_TBL B on DEM_REUESR = B.MUT_UserID
+            WHERE DEM_CENTER = MCI_CODE
+              AND DEM_MODEL = MMC_CODE
+              AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+              AND DEM_USER = A.MUT_UserID
+              AND MMC_KINDS = '3'
+            &lt;if test="StartDay == '' and EndDay != ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+        AND DEM_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+        AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+        AND MCI_Bonbu = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+        AND MCI_Center = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="ENAME != ''"&gt;
+        AND DEM_DOCNO like '%${ENAME}%'
+         &lt;/if&gt;
+         &lt;if test="BISSTS != null and !BISSTS.equals('')  "&gt;
+         &lt;choose&gt;
+         &lt;when test="BISSTS == 1 "&gt;
+          AND DEM_STS = '1' AND DEM_RETEMPDATE &lt;![CDATA[&gt;]]&gt; getdate()
+         &lt;/when&gt;
+         &lt;when test="BISSTS == 5 "&gt;
+          AND DEM_STS = '1' AND DEM_RETEMPDATE &lt;![CDATA[&lt;]]&gt; getdate()
+         &lt;/when&gt;
+         &lt;otherwise&gt;
+          AND DEM_STS = #{BISSTS}
+         &lt;/otherwise&gt;
+         &lt;/choose&gt;
+      &lt;/if&gt;
+    ) MAIN
+   WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getGTYPELIST" resultType="com.vo.InOutListVo"&gt;
+  SELECT a.일반단체구분 as GTYPE, count(a.일반단체구분) from 행사마스터 a (nolock) group by a.일반단체구분
+ &lt;/select&gt;
+&lt;select id="getEventReturn" resultType="com.vo.EventVo" parameterType="hashmap"&gt;
+  SELECT rownum, DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+   DEM_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+   DEM_QTY, DEM_DATE, DEM_USER, DEM_USERNAME, 
+   DEM_RETEMPDATE, DEM_REDATE, DEM_REUESR, DEM_REUESRNAME,
+   DEM_STS, DEM_CMNT, totalCnt
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER(ORDER BY DEM_DATE, DT_EVENT_MODEL.CMN_MAK_DATE, MCI_CODE, MMC_CODE) AS rownum,
+               DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               DEM_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               ISNULL(DEM_QTY, 0) as DEM_QTY, CONVERT(CHAR(10), DEM_DATE, 23) as DEM_DATE, DEM_USER, A.MUT_UserName as DEM_USERNAME, 
+               CONVERT(CHAR(10), DEM_RETEMPDATE, 23) as DEM_RETEMPDATE, CONVERT(CHAR(10), DEM_REDATE, 23) as DEM_REDATE, DEM_REUESR, B.MUT_UserName as DEM_REUESRNAME,
+               case when DEM_STS = '1' and DEM_RETEMPDATE &lt;![CDATA[&lt;]]&gt; getdate() then '5' else DEM_STS end as DEM_STS,
+               DEM_CMNT, COUNT(*) OVER() AS totalCnt
+          FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL A, DT_EVENT_MODEL
+         left outer join MF_USER_TBL B on DEM_REUESR = B.MUT_UserID
+            WHERE DEM_CENTER = MCI_CODE
+              AND DEM_MODEL = MMC_CODE
+              AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+              AND DEM_USER = A.MUT_UserID
+              AND MMC_KINDS = '3'
+            &lt;if test="StartDay == '' and EndDay != ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+        AND DEM_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+        AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+        AND MCI_Bonbu = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+        AND MCI_Center = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="ENAME != ''"&gt;
+        AND DEM_DOCNO like '%${ENAME}%'
+         &lt;/if&gt;
+         &lt;if test="BISSTS != null and !BISSTS.equals('')  "&gt;
+         &lt;choose&gt;
+         &lt;when test="BISSTS == 1 "&gt;
+          AND DEM_STS = '1' AND DEM_RETEMPDATE &lt;![CDATA[&gt;]]&gt; getdate()
+         &lt;/when&gt;
+         &lt;when test="BISSTS == 5 "&gt;
+          AND DEM_STS = '1' AND DEM_RETEMPDATE &lt;![CDATA[&lt;]]&gt; getdate()
+         &lt;/when&gt;
+         &lt;otherwise&gt;
+          AND DEM_STS = #{BISSTS}
+         &lt;/otherwise&gt;
+         &lt;/choose&gt;
+      &lt;/if&gt;
+    ) MAIN
+   WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+&lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+&lt;update id="updateEventReturn" parameterType="com.vo.EventVo"&gt;
+   update DT_EVENT_MODEL 
+        set DEM_STS = #{DEM_STS},
+            DEM_CMNT = #{DEM_CMNT},
+            &lt;if test="DEM_STS == 4 "&gt;
+            DEM_REUESR = #{DEM_REUESR},
+            DEM_REDATE = getdate(),
+            &lt;/if&gt;
+            CMN_UPD_DATE = getdate(),
+            CMN_UPD_PROG = #{CMN_UPD_PROG},
+            CMN_UPD_ID = #{CMN_UPD_ID}
+      where DEM_DOCNO = #{DEM_DOCNO}
+        AND DEM_CENTER = #{DEM_CENTER}
+        AND DEM_MODEL = #{DEM_MODEL}
+ &lt;/update&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getModelBepum" resultType="com.vo.ModelBepumVo" parameterType="hashmap"&gt;
+  SELECT rownum, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+         MMC_CODE, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+         DMJ_JEGO, MODEL_STS, CMNT, totalCnt
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER(ORDER BY MCI_CODE, MMC_CODE) AS rownum, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               MMC_CODE, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               DMJ_JEGO, MODEL_STS, CMNT, COUNT(*) OVER() AS totalCnt
+          FROM (
+               &lt;if test="BISSTS.equals('') or BISSTS == 1 "&gt;
+               SELECT MCI_CODE, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                      MMC_CODE, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+                      DMJ_JEGO, '보관' AS MODEL_STS, '' AS CMNT
+                 FROM DT_MODEL_JEGO, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE
+                WHERE DMJ_CENTER = MCI_CODE
+                  AND DMJ_MODEL = MMC_CODE
+                  AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+                  AND MMC_KINDS = '3'
+                  AND DMJ_JEGO &lt;![CDATA[&gt;]]&gt; 0
+                &lt;if test="LOGC != ''"&gt;
+               AND MCI_LOGC = #{LOGC}
+             &lt;/if&gt;
+             &lt;if test="BONBU != ''"&gt;
+               AND MCI_Bonbu = #{BONBU}
+             &lt;/if&gt;
+             &lt;if test="CENTER != ''"&gt;
+               AND MCI_Center = #{CENTER}
+                &lt;/if&gt;
+                &lt;if test="MNAME != ''"&gt;
+               AND MMC_CODE like '%${MNAME}%'
+                &lt;/if&gt;
+               UNION ALL
+               &lt;/if&gt;
+               SELECT MCI_CODE, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                      MMC_CODE, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+                      DMJ_JEGO, MODEL_STS, CMNT
+                 FROM (
+          SELECT MCI_CODE, MCI_LOGC, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                          MMC_CODE, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+                          DMJ_JEGO, DIB_RESN, DEM_STS, case when DIB_RESN = '1' AND DEM_STS = '3' then '분실' when DIB_RESN = '1' AND NOT DEM_STS = '3' then '보관' when DIB_RESN = '3' then '망실' else '' end AS MODEL_STS, DEM_CMNT AS CMNT,
+           ROW_NUMBER() OVER (PARTITION BY MCI_Center, MMC_CODE  ORDER BY DIB_IODATE DESC, DT_INOUT_BONBU.CMN_MAK_DATE DESC) AS RankNo
+                     FROM DT_MODEL_JEGO, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, DT_INOUT_BONBU LEFT OUTER JOIN DT_EVENT_MODEL ON DIB_MODEL = DEM_MODEL AND DIB_CENTER = DEM_CENTER AND DIB_DOCNO = DEM_DOCNO
+                    WHERE DMJ_CENTER = MCI_CODE
+                      AND DMJ_MODEL = MMC_CODE
+                      AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+                      AND MMC_KINDS = '3'
+                      AND DMJ_JEGO = 0 
+          AND DMJ_MODEL = DIB_MODEL
+          AND DMJ_CENTER = DIB_CENTER
+          AND DIB_IOTYPE = '2'
+        ) T
+                   WHERE RankNo = 1
+                     AND NOT DIB_RESN = '2'
+                   &lt;if test="LOGC != ''"&gt;
+               AND MCI_LOGC = #{LOGC}
+             &lt;/if&gt;
+             &lt;if test="BONBU != ''"&gt;
+               AND MCI_Bonbu = #{BONBU}
+             &lt;/if&gt;
+             &lt;if test="CENTER != ''"&gt;
+               AND MCI_Center = #{CENTER}
+                &lt;/if&gt;
+                &lt;if test="MNAME != ''"&gt;
+               AND MMC_CODE like '%${MNAME}%'
+                &lt;/if&gt;
+                &lt;if test="BISSTS != null and !BISSTS.equals('')  "&gt;
+                &lt;choose&gt;
+                &lt;when test="BISSTS == 1 "&gt;
+               AND DIB_RESN = '1' AND NOT DEM_STS = '3'
+                &lt;/when&gt;
+                &lt;when test="BISSTS == 2 "&gt;
+               AND DIB_RESN = '1' AND DEM_STS = '3'
+                &lt;/when&gt;
+                &lt;otherwise&gt;
+               AND DIB_RESN = '3'
+                &lt;/otherwise&gt;
+                &lt;/choose&gt;
+             &lt;/if&gt;
+          ) SUB
+    ) MAIN
+   WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getModelBepum" resultType="com.vo.ModelBepumVo" parameterType="hashmap"&gt;
+  SELECT rownum, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+         MMC_CODE, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+         DMJ_JEGO, MODEL_STS, CMNT, totalCnt
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER(ORDER BY MCI_CODE, MMC_CODE) AS rownum, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               MMC_CODE, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               DMJ_JEGO, MODEL_STS, CMNT, COUNT(*) OVER() AS totalCnt
+          FROM (
+               &lt;if test="BISSTS.equals('') or BISSTS == 1 "&gt;
+               SELECT MCI_CODE, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                      MMC_CODE, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+                      DMJ_JEGO, '보관' AS MODEL_STS, '' AS CMNT
+                 FROM DT_MODEL_JEGO, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE
+                WHERE DMJ_CENTER = MCI_CODE
+                  AND DMJ_MODEL = MMC_CODE
+                  AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+                  AND MMC_KINDS = '3'
+                  AND DMJ_JEGO &lt;![CDATA[&gt;]]&gt; 0
+                &lt;if test="LOGC != ''"&gt;
+               AND MCI_LOGC = #{LOGC}
+             &lt;/if&gt;
+             &lt;if test="BONBU != ''"&gt;
+               AND MCI_Bonbu = #{BONBU}
+             &lt;/if&gt;
+             &lt;if test="CENTER != ''"&gt;
+               AND MCI_Center = #{CENTER}
+                &lt;/if&gt;
+                &lt;if test="MNAME != ''"&gt;
+               AND MMC_CODE like '%${MNAME}%'
+                &lt;/if&gt;
+               UNION ALL
+               &lt;/if&gt;
+               SELECT MCI_CODE, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                      MMC_CODE, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+                      DMJ_JEGO, MODEL_STS, CMNT
+                 FROM (
+          SELECT MCI_CODE, MCI_LOGC, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                          MMC_CODE, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+                          DMJ_JEGO, DIB_RESN, DEM_STS, case when DIB_RESN = '1' AND DEM_STS = '3' then '분실' when DIB_RESN = '1' AND NOT DEM_STS = '3' then '보관' when DIB_RESN = '3' then '망실' else '' end AS MODEL_STS, DEM_CMNT AS CMNT,
+           ROW_NUMBER() OVER (PARTITION BY MCI_Center, MMC_CODE  ORDER BY DIB_IODATE DESC, DT_INOUT_BONBU.CMN_MAK_DATE DESC) AS RankNo
+                     FROM DT_MODEL_JEGO, MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, DT_INOUT_BONBU LEFT OUTER JOIN DT_EVENT_MODEL ON DIB_MODEL = DEM_MODEL AND DIB_CENTER = DEM_CENTER AND DIB_DOCNO = DEM_DOCNO
+                    WHERE DMJ_CENTER = MCI_CODE
+                      AND DMJ_MODEL = MMC_CODE
+                      AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+                      AND MMC_KINDS = '3'
+                      AND DMJ_JEGO = 0 
+          AND DMJ_MODEL = DIB_MODEL
+          AND DMJ_CENTER = DIB_CENTER
+          AND DIB_IOTYPE = '2'
+        ) T
+                   WHERE RankNo = 1
+                     AND NOT DIB_RESN = '2'
+                   &lt;if test="LOGC != ''"&gt;
+               AND MCI_LOGC = #{LOGC}
+             &lt;/if&gt;
+             &lt;if test="BONBU != ''"&gt;
+               AND MCI_Bonbu = #{BONBU}
+             &lt;/if&gt;
+             &lt;if test="CENTER != ''"&gt;
+               AND MCI_Center = #{CENTER}
+                &lt;/if&gt;
+                &lt;if test="MNAME != ''"&gt;
+               AND MMC_CODE like '%${MNAME}%'
+                &lt;/if&gt;
+                &lt;if test="BISSTS != null and !BISSTS.equals('')  "&gt;
+                &lt;choose&gt;
+                &lt;when test="BISSTS == 1 "&gt;
+               AND DIB_RESN = '1' AND NOT DEM_STS = '3'
+                &lt;/when&gt;
+                &lt;when test="BISSTS == 2 "&gt;
+               AND DIB_RESN = '1' AND DEM_STS = '3'
+                &lt;/when&gt;
+                &lt;otherwise&gt;
+               AND DIB_RESN = '3'
+                &lt;/otherwise&gt;
+                &lt;/choose&gt;
+             &lt;/if&gt;
+          ) SUB
+    ) MAIN
+   WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getJegoMagamReport" resultType="com.vo.JegoMagamReportVo" parameterType="hashmap"&gt;
+  SELECT '0' as sumtype, B.MCI_CODE, B.MCI_LOGC, B.MCI_LOGCNAME, B.MCI_Bonbu, B.MCI_BonbuNAME, B.MCI_Center, B.MCI_CenterName, 
+         B.MMC_CODE, B.MMC_LGROUP, B.MMC_LGROUPNAME, B.MMC_MGROUP, B.MMC_SGROUP,
+               ISNULL(A.QTY, 0) AS pqty, ISNULL(A.PRICE, 0) AS pprice, 
+            ISNULL(C.DPI_QTY, 0) AS logcqty, ISNULL(C.PRICE, 0) AS logcprice,
+            ISNULL(D.DPI_QTY, 0) AS moveinqty, ISNULL(D.PRICE, 0) AS moveinprice,
+            ISNULL(E.DPI_QTY, 0) AS moveoutqty, ISNULL(E.PRICE, 0) AS moveoutprice,
+            ISNULL(F.DPI_QTY, 0) AS otherqty, ISNULL(F.PRICE, 0) AS otherprice,
+            ISNULL(G.DPI_QTY, 0) AS eventqty, ISNULL(G.PRICE, 0) AS eventprice,
+            ISNULL(A.QTY, 0) + ISNULL(C.DPI_QTY, 0) + ISNULL(D.DPI_QTY, 0) + (ISNULL(E.DPI_QTY, 0)*(-1)) + (ISNULL(F.DPI_QTY, 0)*(-1)) + (ISNULL(G.DPI_QTY, 0)*(-1)) as nowqty,
+            ISNULL(A.PRICE, 0) + ISNULL(C.PRICE, 0) + ISNULL(D.PRICE, 0) + (ISNULL(E.PRICE, 0)*(-1)) + (ISNULL(F.PRICE, 0)*(-1)) + (ISNULL(G.PRICE, 0)*(-1)) as nowprice
+          FROM
+          (
+              SELECT ROW_NUMBER() OVER(ORDER BY MCI_CODE, MMC_CODE) AS rownum, 
+                     MCI_CODE, MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                     MMC_CODE, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP
+             FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE
+            WHERE MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE  
+              AND NOT MCI_Center = ' '
+              AND NOT MMC_KINDS = '3'
+             &lt;if test="LOGC != ''"&gt;
+           AND MCI_LOGC = #{LOGC}
+          &lt;/if&gt;
+          &lt;if test="BONBU != ''"&gt;
+           AND MCI_Bonbu = #{BONBU}
+          &lt;/if&gt;
+          &lt;if test="CENTER != ''"&gt;
+           AND MCI_Center = #{CENTER}
+             &lt;/if&gt;
+            &lt;if test="LGROUP != ''"&gt;
+           AND MMC_LGROUP = #{LGROUP}
+             &lt;/if&gt;
+             &lt;if test="KINDS != null and !KINDS.equals('') "&gt;
+              AND MMC_KINDS = #{KINDS}
+          &lt;/if&gt;
+          ) B
+          LEFT OUTER JOIN
+          (
+              SELECT DIB_CENTER, DIB_MODEL, 
+                  SUM(CASE WHEN DIB_IOTYPE = '1' THEN QTY ELSE QTY*(-1) END) AS QTY, 
+                  SUM(CASE WHEN DIB_IOTYPE = '1' THEN PRICE ELSE PRICE*(-1) END) AS PRICE
+             FROM 
+             (
+                 SELECT ROW_NUMBER() OVER(ORDER BY DIB_CENTER, DIB_MODEL, DIB_IOTYPE) AS rownum, 
+            DIB_CENTER, DIB_MODEL, DIB_IOTYPE, DIB_IODATE, DPI_QTY AS QTY, DPI_PRICE AS UNIT, DPI_QTY * DPI_PRICE AS PRICE
+                      FROM DT_INOUT_BONBU, DT_PRICE_IN
+                     WHERE DIB_IOTYPE = '1' AND DIB_DOCNO = DPI_DOCNO AND DIB_CENTER = DPI_CENTER AND DIB_MODEL = DPI_MODEL
+                    AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; #{StartDay}
+                  UNION 
+                 SELECT ROW_NUMBER() OVER(ORDER BY DIB_CENTER, DIB_MODEL, DIB_IOTYPE) AS rownum, 
+            DIB_CENTER, DIB_MODEL, DIB_IOTYPE, DIB_IODATE, DPO_QTY AS QTY, DPO_PRICE AS UNIT, DPO_QTY * DPO_PRICE AS PRICE
+                      FROM DT_INOUT_BONBU, DT_PRICE_OUT
+                     WHERE DIB_IOTYPE = '2' AND DIB_DOCNO = DPO_DOCNO AND DIB_CENTER = DPO_CENTER AND DIB_MODEL = DPO_MODEL
+                 AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; #{StartDay}
+          ) A
+            GROUP BY DIB_CENTER, DIB_MODEL
+          ) A ON A.DIB_CENTER = B.MCI_CODE AND A.DIB_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPI_CENTER, DPI_MODEL, SUM(DPI_QTY) AS DPI_QTY, SUM(DPI_QTY * DPI_PRICE) AS PRICE
+             FROM DT_BONBU_IN, DT_PRICE_IN, DT_IN_LOGC 
+            WHERE DBI_BisSts = 'Y' 
+              AND DBI_CFMDATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DBI_DOCNO = DPI_DOCNO
+           AND DBI_TOPDOCNO = DIL_DOCNO
+           AND DIL_MODEL = DPI_MODEL
+           AND DBI_CENTER = DPI_CENTER
+            GROUP BY DPI_CENTER, DPI_MODEL
+          ) C ON C.DPI_CENTER = B.MCI_CODE AND C.DPI_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPI_CENTER, DPI_MODEL, SUM(DPI_QTY) AS DPI_QTY, SUM(DPI_QTY * DPI_PRICE) AS PRICE
+             FROM DT_BONBU_ORDER, DT_BONBU_MOVE, DT_PRICE_IN 
+            WHERE DBO_BisSts = 'Y' 
+              AND DBO_CFMDATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DBO_DOCNO = DPI_DOCNO
+           AND DBO_DOCNO = DBM_DOCNO
+           AND DBO_MODEL = DPI_MODEL
+           AND DBO_CENTER = DPI_CENTER
+            GROUP BY DPI_CENTER, DPI_MODEL
+          ) D ON D.DPI_CENTER = B.MCI_CODE AND D.DPI_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPO_CENTER, DPO_MODEL, SUM(DPO_QTY) AS DPI_QTY, SUM(DPO_QTY * DPO_PRICE) AS PRICE
+             FROM DT_BONBU_ORDER, DT_BONBU_MOVE, DT_PRICE_OUT
+            WHERE DBM_Sts = 'Y' 
+              AND DBM_DATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DBO_DOCNO = DPO_DOCNO
+           AND DBO_DOCNO = DBM_DOCNO
+           AND DBO_MODEL = DPO_MODEL
+           AND DBM_CENTER = DPO_CENTER
+            GROUP BY DPO_CENTER, DPO_MODEL
+          ) E ON E.DPO_CENTER = B.MCI_CODE AND E.DPO_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPO_CENTER, DPO_MODEL, SUM(DPO_QTY) AS DPI_QTY, SUM(DPO_QTY * DPO_PRICE) AS PRICE
+             FROM DT_Other_OUT, DT_PRICE_OUT
+            WHERE DOO_DATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DOO_DOCNO = DPO_DOCNO
+           AND DOO_MODEL = DPO_MODEL
+           AND DOO_CENTER = DPO_CENTER
+            GROUP BY DPO_CENTER, DPO_MODEL
+          ) F ON F.DPO_CENTER = B.MCI_CODE AND F.DPO_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPO_CENTER, DPO_MODEL, SUM(DPO_QTY) AS DPI_QTY, SUM(DPO_QTY * DPO_PRICE) AS PRICE
+             FROM DT_EVENT_MODEL, DT_PRICE_OUT
+            WHERE DEM_DATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DEM_DOCNO = DPO_DOCNO
+           AND DEM_MODEL = DPO_MODEL
+           AND DEM_CENTER = DPO_CENTER
+            GROUP BY DPO_CENTER, DPO_MODEL
+          ) G ON G.DPO_CENTER = B.MCI_CODE AND G.DPO_MODEL = B.MMC_CODE 
+   ORDER BY B.MCI_CODE, B.MMC_CODE
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getJegoMagamReport" resultType="com.vo.JegoMagamReportVo" parameterType="hashmap"&gt;
+  SELECT '0' as sumtype, B.MCI_CODE, B.MCI_LOGC, B.MCI_LOGCNAME, B.MCI_Bonbu, B.MCI_BonbuNAME, B.MCI_Center, B.MCI_CenterName, 
+         B.MMC_CODE, B.MMC_LGROUP, B.MMC_LGROUPNAME, B.MMC_MGROUP, B.MMC_SGROUP,
+               ISNULL(A.QTY, 0) AS pqty, ISNULL(A.PRICE, 0) AS pprice, 
+            ISNULL(C.DPI_QTY, 0) AS logcqty, ISNULL(C.PRICE, 0) AS logcprice,
+            ISNULL(D.DPI_QTY, 0) AS moveinqty, ISNULL(D.PRICE, 0) AS moveinprice,
+            ISNULL(E.DPI_QTY, 0) AS moveoutqty, ISNULL(E.PRICE, 0) AS moveoutprice,
+            ISNULL(F.DPI_QTY, 0) AS otherqty, ISNULL(F.PRICE, 0) AS otherprice,
+            ISNULL(G.DPI_QTY, 0) AS eventqty, ISNULL(G.PRICE, 0) AS eventprice,
+            ISNULL(A.QTY, 0) + ISNULL(C.DPI_QTY, 0) + ISNULL(D.DPI_QTY, 0) + (ISNULL(E.DPI_QTY, 0)*(-1)) + (ISNULL(F.DPI_QTY, 0)*(-1)) + (ISNULL(G.DPI_QTY, 0)*(-1)) as nowqty,
+            ISNULL(A.PRICE, 0) + ISNULL(C.PRICE, 0) + ISNULL(D.PRICE, 0) + (ISNULL(E.PRICE, 0)*(-1)) + (ISNULL(F.PRICE, 0)*(-1)) + (ISNULL(G.PRICE, 0)*(-1)) as nowprice
+          FROM
+          (
+              SELECT ROW_NUMBER() OVER(ORDER BY MCI_CODE, MMC_CODE) AS rownum, 
+                     MCI_CODE, MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+                     MMC_CODE, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP
+             FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE
+            WHERE MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE  
+              AND NOT MCI_Center = ' '
+              AND NOT MMC_KINDS = '3'
+             &lt;if test="LOGC != ''"&gt;
+           AND MCI_LOGC = #{LOGC}
+          &lt;/if&gt;
+          &lt;if test="BONBU != ''"&gt;
+           AND MCI_Bonbu = #{BONBU}
+          &lt;/if&gt;
+          &lt;if test="CENTER != ''"&gt;
+           AND MCI_Center = #{CENTER}
+             &lt;/if&gt;
+            &lt;if test="LGROUP != ''"&gt;
+           AND MMC_LGROUP = #{LGROUP}
+             &lt;/if&gt;
+             &lt;if test="KINDS != null and !KINDS.equals('') "&gt;
+              AND MMC_KINDS = #{KINDS}
+          &lt;/if&gt;
+          ) B
+          LEFT OUTER JOIN
+          (
+              SELECT DIB_CENTER, DIB_MODEL, 
+                  SUM(CASE WHEN DIB_IOTYPE = '1' THEN QTY ELSE QTY*(-1) END) AS QTY, 
+                  SUM(CASE WHEN DIB_IOTYPE = '1' THEN PRICE ELSE PRICE*(-1) END) AS PRICE
+             FROM 
+             (
+                 SELECT ROW_NUMBER() OVER(ORDER BY DIB_CENTER, DIB_MODEL, DIB_IOTYPE) AS rownum, 
+            DIB_CENTER, DIB_MODEL, DIB_IOTYPE, DIB_IODATE, DPI_QTY AS QTY, DPI_PRICE AS UNIT, DPI_QTY * DPI_PRICE AS PRICE
+                      FROM DT_INOUT_BONBU, DT_PRICE_IN
+                     WHERE DIB_IOTYPE = '1' AND DIB_DOCNO = DPI_DOCNO AND DIB_CENTER = DPI_CENTER AND DIB_MODEL = DPI_MODEL
+                    AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; #{StartDay}
+                  UNION 
+                 SELECT ROW_NUMBER() OVER(ORDER BY DIB_CENTER, DIB_MODEL, DIB_IOTYPE) AS rownum, 
+            DIB_CENTER, DIB_MODEL, DIB_IOTYPE, DIB_IODATE, DPO_QTY AS QTY, DPO_PRICE AS UNIT, DPO_QTY * DPO_PRICE AS PRICE
+                      FROM DT_INOUT_BONBU, DT_PRICE_OUT
+                     WHERE DIB_IOTYPE = '2' AND DIB_DOCNO = DPO_DOCNO AND DIB_CENTER = DPO_CENTER AND DIB_MODEL = DPO_MODEL
+                 AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; #{StartDay}
+          ) A
+            GROUP BY DIB_CENTER, DIB_MODEL
+          ) A ON A.DIB_CENTER = B.MCI_CODE AND A.DIB_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPI_CENTER, DPI_MODEL, SUM(DPI_QTY) AS DPI_QTY, SUM(DPI_QTY * DPI_PRICE) AS PRICE
+             FROM DT_BONBU_IN, DT_PRICE_IN, DT_IN_LOGC 
+            WHERE DBI_BisSts = 'Y' 
+              AND DBI_CFMDATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DBI_DOCNO = DPI_DOCNO
+           AND DBI_TOPDOCNO = DIL_DOCNO
+           AND DIL_MODEL = DPI_MODEL
+           AND DBI_CENTER = DPI_CENTER
+            GROUP BY DPI_CENTER, DPI_MODEL
+          ) C ON C.DPI_CENTER = B.MCI_CODE AND C.DPI_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPI_CENTER, DPI_MODEL, SUM(DPI_QTY) AS DPI_QTY, SUM(DPI_QTY * DPI_PRICE) AS PRICE
+             FROM DT_BONBU_ORDER, DT_BONBU_MOVE, DT_PRICE_IN 
+            WHERE DBO_BisSts = 'Y' 
+              AND DBO_CFMDATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DBO_DOCNO = DPI_DOCNO
+           AND DBO_DOCNO = DBM_DOCNO
+           AND DBO_MODEL = DPI_MODEL
+           AND DBO_CENTER = DPI_CENTER
+            GROUP BY DPI_CENTER, DPI_MODEL
+          ) D ON D.DPI_CENTER = B.MCI_CODE AND D.DPI_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPO_CENTER, DPO_MODEL, SUM(DPO_QTY) AS DPI_QTY, SUM(DPO_QTY * DPO_PRICE) AS PRICE
+             FROM DT_BONBU_ORDER, DT_BONBU_MOVE, DT_PRICE_OUT
+            WHERE DBM_Sts = 'Y' 
+              AND DBM_DATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DBO_DOCNO = DPO_DOCNO
+           AND DBO_DOCNO = DBM_DOCNO
+           AND DBO_MODEL = DPO_MODEL
+           AND DBM_CENTER = DPO_CENTER
+            GROUP BY DPO_CENTER, DPO_MODEL
+          ) E ON E.DPO_CENTER = B.MCI_CODE AND E.DPO_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPO_CENTER, DPO_MODEL, SUM(DPO_QTY) AS DPI_QTY, SUM(DPO_QTY * DPO_PRICE) AS PRICE
+             FROM DT_Other_OUT, DT_PRICE_OUT
+            WHERE DOO_DATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DOO_DOCNO = DPO_DOCNO
+           AND DOO_MODEL = DPO_MODEL
+           AND DOO_CENTER = DPO_CENTER
+            GROUP BY DPO_CENTER, DPO_MODEL
+          ) F ON F.DPO_CENTER = B.MCI_CODE AND F.DPO_MODEL = B.MMC_CODE
+          LEFT OUTER JOIN
+          (
+              SELECT DPO_CENTER, DPO_MODEL, SUM(DPO_QTY) AS DPI_QTY, SUM(DPO_QTY * DPO_PRICE) AS PRICE
+             FROM DT_EVENT_MODEL, DT_PRICE_OUT
+            WHERE DEM_DATE BETWEEN #{StartDay} AND #{EndDay}
+           AND DEM_DOCNO = DPO_DOCNO
+           AND DEM_MODEL = DPO_MODEL
+           AND DEM_CENTER = DPO_CENTER
+            GROUP BY DPO_CENTER, DPO_MODEL
+          ) G ON G.DPO_CENTER = B.MCI_CODE AND G.DPO_MODEL = B.MMC_CODE 
+   ORDER BY B.MCI_CODE, B.MMC_CODE
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getCENTERList(LOGC, BONBU), centerService.getBONBUList(LOGC), CommonService(), formatService.getDealFormatList(StartDay, EndDay, "", "", "", LOGC, BONBU, CENTER, "", "", CTYPE, 1, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getDealFormatList" resultType="com.vo.DealFormatVo" parameterType="hashmap"&gt;
+   SELECT rownum, DDT_DOCNO, DDT_DATE, DDT_STARTDAY, DDT_ENDDAY,
+             INCENTER,OUTCENTER,
+    DDT_INCENTER, DDT_OUTCENTER, DDT_INSTS, DDT_OUTSTS, DDT_CMNT, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DDT_DATE desc, DDT_DOCNO) AS rownum, 
+       DDT_DOCNO, CONVERT(CHAR(10), DDT_DATE, 23) as DDT_DATE,
+       CONVERT(CHAR(10), DDT_STARTDAY, 23) as DDT_STARTDAY,
+       CONVERT(CHAR(10), DDT_ENDDAY, 23) as DDT_ENDDAY,
+       A.MCI_BonbuNAME + ' ' + A.MCI_CenterName as INCENTER,
+       case when DDT_RESN = '1' then B.MCI_LOGCNAME else B.MCI_BonbuNAME + ' ' + B.MCI_CenterName end as OUTCENTER,
+       DDT_INCENTER, DDT_OUTCENTER, DDT_INSTS, DDT_OUTSTS, DDT_CMNT,
+          COUNT(*) OVER() AS totalCnt
+     FROM DT_DOC_TRAN
+            left outer join MF_CENTER_INFO A on DDT_INCENTER = A.MCI_CODE
+            left outer join MF_CENTER_INFO B on DDT_RESN = '1' and DDT_OUTCENTER = B.MCI_LOGC AND B.MCI_BONBU = ' ' AND B.MCI_CENTER = ' ' or DDT_RESN = '2' and DDT_OUTCENTER = B.MCI_CODE
+    WHERE 1=1
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DDT_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DDT_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DDT_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;choose&gt;
+      &lt;when test="CTYPE.equals('') or CTYPE == 1 or CTYPE == 2 "&gt;
+      &lt;if test="INLOGC != ''"&gt;
+         AND A.MCI_LOGC = #{INLOGC}
+      &lt;/if&gt;
+      &lt;if test="INBONBU != ''"&gt;
+         AND A.MCI_BONBU = #{INBONBU}
+      &lt;/if&gt;
+      &lt;if test="INCENTER != ''"&gt;
+         AND A.MCI_CENTER = #{INCENTER}
+      &lt;/if&gt;
+   &lt;if test="OUTLOGC != ''"&gt;
+         AND B.MCI_LOGC = #{OUTLOGC}
+      &lt;/if&gt;
+      &lt;if test="OUTBONBU != ''"&gt;
+         AND B.MCI_BONBU = #{OUTBONBU}
+      &lt;/if&gt;
+      &lt;if test="OUTCENTER != ''"&gt;
+         AND B.MCI_CENTER = #{OUTCENTER}
+      &lt;/if&gt; 
+      &lt;/when&gt;
+      &lt;otherwise&gt;
+      AND ( 
+      A.MCI_LOGC = #{OUTLOGC} AND A.MCI_BONBU = #{OUTBONBU}
+      &lt;if test="OUTCENTER != ''"&gt;
+         AND A.MCI_CENTER = #{OUTCENTER}
+      &lt;/if&gt;
+      or
+   B.MCI_LOGC = #{OUTLOGC} AND B.MCI_BONBU = #{OUTBONBU}
+      &lt;if test="OUTCENTER != ''"&gt;
+         AND B.MCI_CENTER = #{OUTCENTER}
+      &lt;/if&gt; 
+      )
+      &lt;/otherwise&gt;
+      &lt;/choose&gt;
+      &lt;if test="INSTSTYPE != ''"&gt;
+         AND DDT_INSTS = #{INSTSTYPE}
+      &lt;/if&gt; 
+      &lt;if test="OUTSTSTYPE != ''"&gt;
+         AND DDT_OUTSTS = #{OUTSTSTYPE}
+      &lt;/if&gt; 
+  ) A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getSCodeList" resultType="com.vo.CodeVo" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getDealFormatList" resultType="com.vo.DealFormatVo" parameterType="hashmap"&gt;
+   SELECT rownum, DDT_DOCNO, DDT_DATE, DDT_STARTDAY, DDT_ENDDAY,
+             INCENTER,OUTCENTER,
+    DDT_INCENTER, DDT_OUTCENTER, DDT_INSTS, DDT_OUTSTS, DDT_CMNT, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DDT_DATE desc, DDT_DOCNO) AS rownum, 
+       DDT_DOCNO, CONVERT(CHAR(10), DDT_DATE, 23) as DDT_DATE,
+       CONVERT(CHAR(10), DDT_STARTDAY, 23) as DDT_STARTDAY,
+       CONVERT(CHAR(10), DDT_ENDDAY, 23) as DDT_ENDDAY,
+       A.MCI_BonbuNAME + ' ' + A.MCI_CenterName as INCENTER,
+       case when DDT_RESN = '1' then B.MCI_LOGCNAME else B.MCI_BonbuNAME + ' ' + B.MCI_CenterName end as OUTCENTER,
+       DDT_INCENTER, DDT_OUTCENTER, DDT_INSTS, DDT_OUTSTS, DDT_CMNT,
+          COUNT(*) OVER() AS totalCnt
+     FROM DT_DOC_TRAN
+            left outer join MF_CENTER_INFO A on DDT_INCENTER = A.MCI_CODE
+            left outer join MF_CENTER_INFO B on DDT_RESN = '1' and DDT_OUTCENTER = B.MCI_LOGC AND B.MCI_BONBU = ' ' AND B.MCI_CENTER = ' ' or DDT_RESN = '2' and DDT_OUTCENTER = B.MCI_CODE
+    WHERE 1=1
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DDT_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DDT_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DDT_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;choose&gt;
+      &lt;when test="CTYPE.equals('') or CTYPE == 1 or CTYPE == 2 "&gt;
+      &lt;if test="INLOGC != ''"&gt;
+         AND A.MCI_LOGC = #{INLOGC}
+      &lt;/if&gt;
+      &lt;if test="INBONBU != ''"&gt;
+         AND A.MCI_BONBU = #{INBONBU}
+      &lt;/if&gt;
+      &lt;if test="INCENTER != ''"&gt;
+         AND A.MCI_CENTER = #{INCENTER}
+      &lt;/if&gt;
+   &lt;if test="OUTLOGC != ''"&gt;
+         AND B.MCI_LOGC = #{OUTLOGC}
+      &lt;/if&gt;
+      &lt;if test="OUTBONBU != ''"&gt;
+         AND B.MCI_BONBU = #{OUTBONBU}
+      &lt;/if&gt;
+      &lt;if test="OUTCENTER != ''"&gt;
+         AND B.MCI_CENTER = #{OUTCENTER}
+      &lt;/if&gt; 
+      &lt;/when&gt;
+      &lt;otherwise&gt;
+      AND ( 
+      A.MCI_LOGC = #{OUTLOGC} AND A.MCI_BONBU = #{OUTBONBU}
+      &lt;if test="OUTCENTER != ''"&gt;
+         AND A.MCI_CENTER = #{OUTCENTER}
+      &lt;/if&gt;
+      or
+   B.MCI_LOGC = #{OUTLOGC} AND B.MCI_BONBU = #{OUTBONBU}
+      &lt;if test="OUTCENTER != ''"&gt;
+         AND B.MCI_CENTER = #{OUTCENTER}
+      &lt;/if&gt; 
+      )
+      &lt;/otherwise&gt;
+      &lt;/choose&gt;
+      &lt;if test="INSTSTYPE != ''"&gt;
+         AND DDT_INSTS = #{INSTSTYPE}
+      &lt;/if&gt; 
+      &lt;if test="OUTSTSTYPE != ''"&gt;
+         AND DDT_OUTSTS = #{OUTSTSTYPE}
+      &lt;/if&gt; 
+  ) A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getDealFormatInfo" resultType="com.vo.DealFormatVo" parameterType="String"&gt;
+      SELECT DDT_DOCNO, DDT_OUTCENTER, DDT_INCENTER, DDT_RESN,
+         CONVERT(CHAR(10), DDT_DATE, 23) as DDT_DATE, 
+      CONVERT(CHAR(10), DDT_STARTDAY, 23) as DDT_STARTDAY, 
+      CONVERT(CHAR(10), DDT_ENDDAY, 23) as DDT_ENDDAY, 
+      case when DDT_RESN = '1' then A.MCI_LOGCNAME + '-' + A.MCI_LOGC else A.MCI_LOGCNAME + ' ' + A.MCI_BonbuNAME + ' ' + A.MCI_CenterName end as OUTCENTERNAME,
+          A.MCI_BRN as OUTBRN,
+          A.MCI_CoName AS OUTCONAME, A.MCI_CEO AS OUTCEO,
+          A.MCI_Addr as OUTADDR, A.MCI_CoType AS OUTCOTYPE, A.MCI_Jongmog as OUTJM,
+          B.MCI_LOGCNAME + ' ' + B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as INCENTERNAME,
+          B.MCI_BRN as INBRN, B.MCI_CoName AS INCONAME, B.MCI_CEO AS INCEO,
+          B.MCI_Addr as INADDR, B.MCI_CoType AS INCOTYPE, B.MCI_Jongmog as INJM,
+          DDT_INSTS,  CONVERT(CHAR(10), DDT_INSTSDATE, 23) as DDT_INSTSDATE, DDT_INSTSUSER, C.MUT_UserName as INSTSUSERNM,
+          DDT_OUTSTS,  CONVERT(CHAR(10), DDT_OUTSTSDATE, 23) as DDT_OUTSTSDATE, DDT_OUTSTSUSER, D.MUT_UserName as OUTSTSUSERNM,
+          DDT_CMNT, C.MUT_SIGN as INSIGN, D.MUT_SIGN as OUTSIGN
+        FROM MF_CENTER_INFO A, MF_CENTER_INFO B, DT_DOC_TRAN
+          left outer join MF_USER_TBL C on not DDT_INSTS = '0' and DDT_INSTSUSER = C.MUT_UserID
+          left outer join MF_USER_TBL D on not DDT_OUTSTS = '0' and DDT_OUTSTSUSER = D.MUT_UserID
+    WHERE DDT_INCENTER = B.MCI_CODE 
+      AND (DDT_RESN = '2' and DDT_OUTCENTER = A.MCI_CODE or DDT_RESN = '1' AND DDT_OUTCENTER = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' ')
+   AND DDT_DOCNO = #{value}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getDealFormatInfo" resultType="com.vo.DealFormatVo" parameterType="String"&gt;
+      SELECT DDT_DOCNO, DDT_OUTCENTER, DDT_INCENTER, DDT_RESN,
+         CONVERT(CHAR(10), DDT_DATE, 23) as DDT_DATE, 
+      CONVERT(CHAR(10), DDT_STARTDAY, 23) as DDT_STARTDAY, 
+      CONVERT(CHAR(10), DDT_ENDDAY, 23) as DDT_ENDDAY, 
+      case when DDT_RESN = '1' then A.MCI_LOGCNAME + '-' + A.MCI_LOGC else A.MCI_LOGCNAME + ' ' + A.MCI_BonbuNAME + ' ' + A.MCI_CenterName end as OUTCENTERNAME,
+          A.MCI_BRN as OUTBRN,
+          A.MCI_CoName AS OUTCONAME, A.MCI_CEO AS OUTCEO,
+          A.MCI_Addr as OUTADDR, A.MCI_CoType AS OUTCOTYPE, A.MCI_Jongmog as OUTJM,
+          B.MCI_LOGCNAME + ' ' + B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as INCENTERNAME,
+          B.MCI_BRN as INBRN, B.MCI_CoName AS INCONAME, B.MCI_CEO AS INCEO,
+          B.MCI_Addr as INADDR, B.MCI_CoType AS INCOTYPE, B.MCI_Jongmog as INJM,
+          DDT_INSTS,  CONVERT(CHAR(10), DDT_INSTSDATE, 23) as DDT_INSTSDATE, DDT_INSTSUSER, C.MUT_UserName as INSTSUSERNM,
+          DDT_OUTSTS,  CONVERT(CHAR(10), DDT_OUTSTSDATE, 23) as DDT_OUTSTSDATE, DDT_OUTSTSUSER, D.MUT_UserName as OUTSTSUSERNM,
+          DDT_CMNT, C.MUT_SIGN as INSIGN, D.MUT_SIGN as OUTSIGN
+        FROM MF_CENTER_INFO A, MF_CENTER_INFO B, DT_DOC_TRAN
+          left outer join MF_USER_TBL C on not DDT_INSTS = '0' and DDT_INSTSUSER = C.MUT_UserID
+          left outer join MF_USER_TBL D on not DDT_OUTSTS = '0' and DDT_OUTSTSUSER = D.MUT_UserID
+    WHERE DDT_INCENTER = B.MCI_CODE 
+      AND (DDT_RESN = '2' and DDT_OUTCENTER = A.MCI_CODE or DDT_RESN = '1' AND DDT_OUTCENTER = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' ')
+   AND DDT_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;update id="updateDocTRANCfm" parameterType="com.vo.DealFormatVo"&gt;
+  update DT_DOC_TRAN set 
+  &lt;if test="DDT_INSTS != ''"&gt; 
+  DDT_INSTS = #{DDT_INSTS}, 
+  DDT_INSTSDATE = getdate(), 
+  DDT_INSTSUSER = #{CMN_UPD_ID},
+  &lt;/if&gt; 
+  &lt;if test="DDT_OUTSTS != ''"&gt; 
+  DDT_OUTSTS = #{DDT_OUTSTS}, 
+  DDT_OUTSTSDATE = getdate(), 
+  DDT_OUTSTSUSER = #{CMN_UPD_ID},
+  &lt;/if&gt; 
+  DDT_CMNT = #{DDT_CMNT}, 
+  CMN_UPD_DATE = getdate(), 
+  CMN_UPD_PROG = #{CMN_UPD_PROG}, 
+  CMN_UPD_ID = #{CMN_UPD_ID} 
+  where DDT_DOCNO = #{DDT_DOCNO}
+ &lt;/update&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getJegoFormatList" resultType="com.vo.JegoFormatVo" parameterType="hashmap"&gt;
+   SELECT rownum, DDJ_DOCNO, DDJ_DATE, DDJ_INFODATE, JEGOCENTER,
+             DDJ_STS, DDJ_CMNT, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DDJ_DATE desc, DDJ_DOCNO) AS rownum, 
+       DDJ_DOCNO, CONVERT(CHAR(10), DDJ_DATE, 23) as DDJ_DATE,
+       CONVERT(CHAR(10), DDJ_INFODATE, 23) as DDJ_INFODATE,
+       MCI_BonbuNAME + ' ' + MCI_CenterName as JEGOCENTER,
+       DDJ_STS, DDJ_CMNT, COUNT(*) OVER() AS totalCnt
+     FROM DT_DOC_JEGO
+            left outer join MF_CENTER_INFO on DDJ_CENTER = MCI_CODE
+       WHERE 1=1
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DDJ_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DDJ_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DDJ_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="STSTYPE != ''"&gt;
+         AND DDJ_STS = #{STSTYPE}
+      &lt;/if&gt; 
+  ) A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getJegoFormatList" resultType="com.vo.JegoFormatVo" parameterType="hashmap"&gt;
+   SELECT rownum, DDJ_DOCNO, DDJ_DATE, DDJ_INFODATE, JEGOCENTER,
+             DDJ_STS, DDJ_CMNT, totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY DDJ_DATE desc, DDJ_DOCNO) AS rownum, 
+       DDJ_DOCNO, CONVERT(CHAR(10), DDJ_DATE, 23) as DDJ_DATE,
+       CONVERT(CHAR(10), DDJ_INFODATE, 23) as DDJ_INFODATE,
+       MCI_BonbuNAME + ' ' + MCI_CenterName as JEGOCENTER,
+       DDJ_STS, DDJ_CMNT, COUNT(*) OVER() AS totalCnt
+     FROM DT_DOC_JEGO
+            left outer join MF_CENTER_INFO on DDJ_CENTER = MCI_CODE
+       WHERE 1=1
+      &lt;if test="StartDay == '' and EndDay != ''"&gt;
+         AND DDJ_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+         AND DDJ_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+         AND DDJ_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+         AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+         AND MCI_BONBU = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+         AND MCI_CENTER = #{CENTER}
+      &lt;/if&gt;
+      &lt;if test="STSTYPE != ''"&gt;
+         AND DDJ_STS = #{STSTYPE}
+      &lt;/if&gt; 
+  ) A
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+ &lt;/select&gt;
+&lt;select id="getBONBUList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;
+ &lt;select id="getCENTERList" resultType="com.vo.CenterVo" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+ &lt;select id="getLOGCInfo" resultType="com.vo.CenterVo"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getJegoFormatInfo" resultType="com.vo.JegoFormatVo" parameterType="String"&gt;
+      SELECT DDJ_DOCNO, DDJ_CENTER,
+         CONVERT(CHAR(10), DDJ_DATE, 23) as DDJ_DATE, 
+      CONVERT(CHAR(10), DDJ_INFODATE, 23) as DDJ_INFODATE,
+      MCI_BonbuNAME + ' ' + MCI_CenterName as CENTERNAME,
+          MCI_BRN as BRN, MCI_CoName AS CONAME, MCI_CEO AS CEO,
+          MCI_Addr as ADDR, MCI_CoType AS COTYPE, MCI_Jongmog as JM,
+          DDJ_STS,  CONVERT(CHAR(10), DDJ_STSDATE, 23) as DDJ_STSDATE, DDJ_STSUSER,
+          DDJ_CMNT, MUT_SIGN as USERSIGN, MUT_UserName as DDJ_USER
+        FROM MF_CENTER_INFO, DT_DOC_JEGO
+          left outer join MF_USER_TBL on DT_DOC_JEGO.CMN_MAK_ID = MUT_UserID
+    WHERE DDJ_CENTER = MCI_CODE
+      AND DDJ_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;update id="updateJegoDocTRANCfm" parameterType="com.vo.JegoFormatVo"&gt;
+  update DT_DOC_JEGO set 
+  DDJ_STS = #{DDJ_STS}, 
+  DDJ_STSDATE = getdate(), 
+  DDJ_STSUSER = #{CMN_UPD_ID},
+  DDJ_CMNT = #{DDJ_CMNT}, 
+  CMN_UPD_DATE = getdate(), 
+  CMN_UPD_PROG = #{CMN_UPD_PROG}, 
+  CMN_UPD_ID = #{CMN_UPD_ID} 
+  where DDJ_DOCNO = #{DDJ_DOCNO}
+ &lt;/update&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getJegoFormatInfo" resultType="com.vo.JegoFormatVo" parameterType="String"&gt;
+      SELECT DDJ_DOCNO, DDJ_CENTER,
+         CONVERT(CHAR(10), DDJ_DATE, 23) as DDJ_DATE, 
+      CONVERT(CHAR(10), DDJ_INFODATE, 23) as DDJ_INFODATE,
+      MCI_BonbuNAME + ' ' + MCI_CenterName as CENTERNAME,
+          MCI_BRN as BRN, MCI_CoName AS CONAME, MCI_CEO AS CEO,
+          MCI_Addr as ADDR, MCI_CoType AS COTYPE, MCI_Jongmog as JM,
+          DDJ_STS,  CONVERT(CHAR(10), DDJ_STSDATE, 23) as DDJ_STSDATE, DDJ_STSUSER,
+          DDJ_CMNT, MUT_SIGN as USERSIGN, MUT_UserName as DDJ_USER
+        FROM MF_CENTER_INFO, DT_DOC_JEGO
+          left outer join MF_USER_TBL on DT_DOC_JEGO.CMN_MAK_ID = MUT_UserID
+    WHERE DDJ_CENTER = MCI_CODE
+      AND DDJ_DOCNO = #{value}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getDealInoutInfo" resultType="com.vo.DealFormatVo" parameterType="hashmap"&gt;
+   SELECT rownum, DOCNO, INDATE, OUTDATE, INCENTER, OUTCENTER, 
+    MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, MODEL,
+    totalCnt
+  FROM
+  (
+   SELECT ROW_NUMBER() OVER(ORDER BY OUTDATE, DOCNO) AS rownum, 
+          DOCNO, INDATE, OUTDATE, INCENTER, OUTCENTER, 
+          MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, MODEL,
+          COUNT(*) OVER() AS totalCnt
+     FROM (
+       &lt;if test="OUTBONBU == '' and OUTCENTER == ''"&gt;
+    SELECT DBI_DOCNO as DOCNO, CONVERT(CHAR(10), DBI_CFMDATE, 23) as INDATE,
+        CONVERT(CHAR(10), DIL_OUTDATE, 23) as OUTDATE,
+        B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as INCENTER,
+        A.MCI_LOGCNAME as OUTCENTER,
+        MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+           MMC_MGROUP, MMC_SGROUP, DIL_MODEL as MODEL
+      FROM DT_IN_LOGC
+           left outer join MF_CENTER_INFO A on DIL_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+             left outer join MF_MODEL_CODE on DIL_MODEL = MMC_CODE
+           left outer join MF_COMM_CODE on MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE,
+           DT_BONBU_IN
+           left outer join MF_CENTER_INFO B on DBI_CENTER = B.MCI_CODE
+     WHERE DIL_OUTSts = 'Y'
+       AND DBI_BisSts = 'Y'
+       AND DIL_DOCNO = DBI_TOPDOCNO
+       &lt;if test="StartDay == '' and EndDay != ''"&gt;
+            AND DIL_OUTDATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+        &lt;/if&gt;
+        &lt;if test="StartDay != '' and EndDay == ''"&gt;
+             AND DIL_OUTDATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+       &lt;/if&gt;
+       &lt;if test="StartDay != '' and EndDay != ''"&gt;
+             AND DIL_OUTDATE between #{StartDay} AND #{EndDay}
+       &lt;/if&gt;
+       &lt;if test="INLOGC != ''"&gt;
+             AND B.MCI_LOGC = #{INLOGC}
+       &lt;/if&gt;
+       &lt;if test="INBONBU != ''"&gt;
+             AND B.MCI_BONBU = #{INBONBU}
+       &lt;/if&gt;
+       &lt;if test="INCENTER != ''"&gt;
+             AND B.MCI_CENTER = #{INCENTER}
+       &lt;/if&gt;
+    &lt;if test="OUTLOGC != ''"&gt;
+             AND A.MCI_LOGC = #{OUTLOGC}
+       &lt;/if&gt;
+       &lt;if test="MNAME != null and MNAME != ''"&gt;
+             AND DIL_MODEL like '%${MNAME}%'
+       &lt;/if&gt;
+          UNION ALL
+          &lt;/if&gt;
+          SELECT DBM_DOCNO as DOCNO, CONVERT(CHAR(10), DBO_CFMDATE, 23) as INDATE,
+                 CONVERT(CHAR(10), DBM_DATE, 23) as OUTDATE,
+                 B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as INCENTER,
+                 A.MCI_BonbuNAME + ' ' + A.MCI_CenterName as OUTCENTER,
+                 MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME,
+           MMC_MGROUP, MMC_SGROUP, DBO_MODEL as MODEL
+      FROM DT_BONBU_ORDER
+           left outer join MF_CENTER_INFO B on DBO_CENTER = B.MCI_CODE
+             left outer join MF_MODEL_CODE on DBO_MODEL = MMC_CODE
+           left outer join MF_COMM_CODE on MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE,
+           DT_BONBU_MOVE
+           left outer join MF_CENTER_INFO A on DBM_CENTER = A.MCI_CODE
+     WHERE DBO_DOCNO = DBM_DOCNO
+       AND DBO_BisSts = 'Y'
+       AND DBM_CFM = 'Y'
+       AND DBM_Sts = 'Y'
+    &lt;if test="StartDay == '' and EndDay != ''"&gt;
+            AND DBM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+        &lt;/if&gt;
+        &lt;if test="StartDay != '' and EndDay == ''"&gt;
+             AND DBM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+       &lt;/if&gt;
+       &lt;if test="StartDay != '' and EndDay != ''"&gt;
+             AND DBM_DATE between #{StartDay} AND #{EndDay}
+       &lt;/if&gt;
+       &lt;if test="INLOGC != ''"&gt;
+             AND B.MCI_LOGC = #{INLOGC}
+       &lt;/if&gt;
+       &lt;if test="INBONBU != ''"&gt;
+             AND B.MCI_BONBU = #{INBONBU}
+       &lt;/if&gt;
+       &lt;if test="INCENTER != ''"&gt;
+             AND B.MCI_CENTER = #{INCENTER}
+       &lt;/if&gt;
+    &lt;if test="OUTLOGC != ''"&gt;
+             AND A.MCI_LOGC = #{OUTLOGC}
+       &lt;/if&gt;
+       &lt;if test="OUTBONBU != ''"&gt;
+             AND A.MCI_BONBU = #{OUTBONBU}
+       &lt;/if&gt;
+       &lt;if test="OUTCENTER != ''"&gt;
+             AND A.MCI_CENTER = #{OUTCENTER}
+       &lt;/if&gt;
+       &lt;if test="MNAME != null and MNAME != ''"&gt;
+             AND DBO_MODEL like '%${MNAME}%'
+       &lt;/if&gt;
+      ) SUB
+  ) A
+  &lt;if test="PTYPE == 1"&gt;
+  WHERE rownum BETWEEN ((#{PAGE}-1)*#{PSIZE})+1 AND (#{PAGE}*#{PSIZE})
+  &lt;/if&gt;
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidBONBUList" resultType="java.util.LinkedHashMap" parameterType="String"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME FROM MF_CENTER_INFO WHERE MCI_LOGC = #{value} AND NOT MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidLOGCInfo" resultType="java.util.LinkedHashMap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getAndroidCENTERList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidCENTERList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidInCFMList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+    select DOCNO, INTYPE, INBONBU, OUTBONBU, MODEL, OUTDATE, CFMsts,
+           MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP
+   FROM (
+    select DBI_DOCNO as DOCNO, '0' AS INTYPE,
+           B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as INBONBU,
+           A.MCI_LOGCNAME as OUTBONBU,
+        DIL_MODEL as MODEL,
+        MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+        CONVERT(CHAR(10), DIL_OUTDATE, 23) as OUTDATE,
+        case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+      FROM DT_IN_LOGC, MF_CENTER_INFO A, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE,
+           DT_BONBU_IN
+          left outer join DT_IN_CFM on DBI_DOCNO = DIC_DOCNO
+     WHERE DIL_DOCNO = DBI_TOPDOCNO
+       AND DIL_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+       AND DIL_MODEL = MMC_CODE
+       AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+       AND DBI_CENTER = B.MCI_CODE
+     &lt;if test="StartDay == '' and EndDay != ''"&gt;
+          AND DIL_OUTDATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+          &lt;/if&gt;
+          &lt;if test="StartDay != '' and EndDay == ''"&gt;
+          AND DIL_OUTDATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+          &lt;/if&gt;
+          &lt;if test="StartDay != '' and EndDay != ''"&gt;
+          AND DIL_OUTDATE between #{StartDay} AND #{EndDay}
+          &lt;/if&gt;
+          &lt;if test="LOGC != ''"&gt;
+          AND B.MCI_LOGC = #{LOGC}
+          &lt;/if&gt;
+          &lt;if test="BONBU != ''"&gt;
+          AND B.MCI_Bonbu = #{BONBU}
+          &lt;/if&gt;
+          &lt;if test="CENTER != ''"&gt;
+          AND B.MCI_Center = #{CENTER}
+          &lt;/if&gt;
+     UNION ALL
+    select DBO_DOCNO AS DOCNO, '1' AS INTYPE,
+           A.MCI_BonbuNAME + ' ' + A.MCI_CenterName as INBONBU, 
+           B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as OUTBONBU,
+        DBO_MODEL as MODEL,
+        MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, 
+        CONVERT(CHAR(10), DBM_DATE, 23) as OUTDATE,
+        case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+      FROM DT_BONBU_ORDER
+            left outer join MF_CENTER_INFO A on DBO_CENTER = A.MCI_CODE
+           left outer join DT_IN_CFM on DBO_DOCNO = DIC_DOCNO
+           left outer join MF_MODEL_CODE on DBO_MODEL = MMC_CODE
+        left outer join MF_COMM_CODE on MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE,
+            DT_BONBU_MOVE
+            left outer join MF_CENTER_INFO B on DBM_CENTER = B.MCI_CODE
+     WHERE DBM_DOCNO = DBO_DOCNO
+       AND DBM_Sts = 'Y'
+       &lt;if test="StartDay == '' and EndDay != ''"&gt;
+          AND DBM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+          &lt;/if&gt;
+          &lt;if test="StartDay != '' and EndDay == ''"&gt;
+          AND DBM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+          &lt;/if&gt;
+          &lt;if test="StartDay != '' and EndDay != ''"&gt;
+          AND DBM_DATE between #{StartDay} AND #{EndDay}
+          &lt;/if&gt;
+          &lt;if test="LOGC != ''"&gt;
+          AND A.MCI_LOGC = #{LOGC}
+          &lt;/if&gt;
+          &lt;if test="BONBU != ''"&gt;
+          AND A.MCI_Bonbu = #{BONBU}
+          &lt;/if&gt;
+          &lt;if test="CENTER != ''"&gt;
+          AND A.MCI_Center = #{CENTER}
+          &lt;/if&gt;
+   ) SUB
+      WHERE 1=1
+     &lt;if test="CFMSTS != ''"&gt;
+      AND CFMsts = #{CFMSTS}
+     &lt;/if&gt;
+  ORDER BY CFMsts, OUTDATE DESC, DOCNO
+ &lt;/select&gt;
+&lt;select id="getAndroidLOGCInfo" resultType="java.util.LinkedHashMap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getAndroidCENTERList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidFileList" resultType="java.util.LinkedHashMap" parameterType="String"&gt;
+  SELECT MDF_DOCNO, MDF_SEQ, MDF_FILE, MDF_FILE_Org, MDF_FILE_SIZE
+    FROM MF_DATA_FILE
+   WHERE MDF_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getInCFMBonbuInfo" resultType="com.vo.CfmVo" parameterType="String"&gt;
+     select DBO_DOCNO as DOCNO, B.MCI_BonbuNAME + ' ' + B.MCI_CenterName as OUT_BONBU,
+            A.MCI_LOGC as INLOGC, A.MCI_Bonbu as INBONBU, A.MCI_Center as INCENTER, 
+      A.MCI_BonbuNAME as INBONBU_NAME, A.MCI_CenterName as INCENTER_NAME, 
+      DBO_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      CONVERT(CHAR(10), DBO_DATE, 23) as INDATE, ISNULL(DBO_QTY,'0') as INQTY, DBO_CMNT,
+      CONVERT(CHAR(10), DBM_DATE, 23) as OUTDATE, ISNULL(DBM_QTY,'0') as OUTQTY, D.MUT_UserName as DBO_USERNAME,
+      CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, C.MUT_UserName as DIC_USERNAME, DIC_CMNT,
+      case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+    FROM DT_BONBU_MOVE, MF_CENTER_INFO B, MF_CENTER_INFO A, MF_USER_TBL D, MF_MODEL_CODE, MF_COMM_CODE, DT_BONBU_ORDER
+      left outer join DT_IN_CFM on DBO_DOCNO = DIC_DOCNO
+      left outer join MF_USER_TBL C on DIC_USER = C.MUT_UserID
+   WHERE DBM_DOCNO = DBO_DOCNO
+     AND DBO_CENTER = A.MCI_CODE
+     AND DBO_USER = D.MUT_UserID
+     AND DBO_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBM_CENTER = B.MCI_CODE
+     AND DBO_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getInCFMLogcInfo" resultType="com.vo.CfmVo" parameterType="String"&gt;
+     select DBI_DOCNO as DOCNO, A.MCI_LOGCNAME as OUT_BONBU,
+            B.MCI_LOGC as INLOGC, B.MCI_Bonbu as INBONBU, B.MCI_Center as INCENTER, 
+      B.MCI_BonbuNAME as INBONBU_NAME, B.MCI_CenterName as INCENTER_NAME, 
+      DIL_MODEL as MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+      CONVERT(CHAR(10), DIL_OUTDATE, 23) as OUTDATE, ISNULL(DBI_QTY,'0') as OUTQTY, 
+      CONVERT(CHAR(10), DIC_DATE, 23) as DIC_DATE, 
+      MUT_UserName as DIC_USERNAME, DIC_CMNT,
+      case when DIC_DOCNO is null then 'N' else 'Y' end as CFMsts
+    FROM DT_IN_LOGC, MF_CENTER_INFO A, MF_CENTER_INFO B, MF_MODEL_CODE, MF_COMM_CODE, DT_BONBU_IN
+      left outer join DT_IN_CFM on DBI_DOCNO = DIC_DOCNO
+      left outer join MF_USER_TBL on DIC_USER = MUT_UserID
+   WHERE DIL_DOCNO = DBI_TOPDOCNO
+     AND DIL_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+     AND DIL_MODEL = MMC_CODE
+     AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+     AND DBI_CENTER = B.MCI_CODE
+     AND DBI_DOCNO = #{value}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;delete id="deleteEVENTMODEL" parameterType="com.vo.EventModelVo"&gt;
+  delete from DT_EVENT_MODEL
+      where DEM_DOCNO = #{DEM_DOCNO}
+        AND DEM_CENTER =  #{DEM_CENTER}
+        AND DEM_MODEL =  #{DEM_MODEL}
+ &lt;/delete&gt;
+&lt;select id="getAndroidEventDetail" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT a.본부 as BONBUNAME, a.센터 as CENTERNAME, a.행사번호 as DOCNO, c.코드 as EUSERID, c.성함 as EUSERNAME, 
+         a.행사시작일시 as EVENTDATE, b.단체명 as GROUPNAME, d.장례식장 as JNAME, a.행사상태 as ESTATE, a.일반단체구분 as GTYPE
+    from 행사마스터 a (nolock)
+    left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드
+    left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드
+    left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드
+    left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호
+   where a.행사번호 = #{DOCNO}
+   ORDER BY a.행사시작일시, a.본부, a.센터
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidEventList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+    select DEO_DOCNO, DEO_CENTER, DEO_USER, CONVERT(CHAR(10), DEO_DATE, 23) as DEO_DATE, DEO_CMNT, MUT_UserName,
+           MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName
+   FROM DT_EVENT_OUT, MF_USER_TBL, MF_CENTER_INFO
+  WHERE DEO_USER = MUT_UserID
+    AND DEO_CENTER = MCI_CODE
+     &lt;if test="StartDay == '' and EndDay != ''"&gt;
+    AND DEO_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+  &lt;/if&gt;
+  &lt;if test="StartDay != '' and EndDay == ''"&gt;
+    AND DEO_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+  &lt;/if&gt;
+  &lt;if test="StartDay != '' and EndDay != ''"&gt;
+    AND DEO_DATE between #{StartDay} AND #{EndDay}
+  &lt;/if&gt;
+  &lt;if test="LOGC != ''"&gt;
+    AND MCI_LOGC = #{LOGC}
+  &lt;/if&gt;
+  &lt;if test="BONBU != ''"&gt;
+    AND MCI_Bonbu = #{BONBU}
+  &lt;/if&gt;
+  &lt;if test="CENTER != ''"&gt;
+    AND MCI_Center = #{CENTER}
+     &lt;/if&gt;
+     &lt;if test="EVENTNO != ''"&gt;
+    AND DEO_DOCNO like '%${EVENTNO}%'
+     &lt;/if&gt;
+     ORDER BY DEO_USER desc, DEO_CENTER
+ &lt;/select&gt;
+&lt;select id="getAndroidLOGCInfo" resultType="java.util.LinkedHashMap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getAndroidCENTERList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidEventList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+    select DEO_DOCNO, DEO_CENTER, DEO_USER, CONVERT(CHAR(10), DEO_DATE, 23) as DEO_DATE, DEO_CMNT, MUT_UserName,
+           MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName
+   FROM DT_EVENT_OUT, MF_USER_TBL, MF_CENTER_INFO
+  WHERE DEO_USER = MUT_UserID
+    AND DEO_CENTER = MCI_CODE
+     &lt;if test="StartDay == '' and EndDay != ''"&gt;
+    AND DEO_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+  &lt;/if&gt;
+  &lt;if test="StartDay != '' and EndDay == ''"&gt;
+    AND DEO_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+  &lt;/if&gt;
+  &lt;if test="StartDay != '' and EndDay != ''"&gt;
+    AND DEO_DATE between #{StartDay} AND #{EndDay}
+  &lt;/if&gt;
+  &lt;if test="LOGC != ''"&gt;
+    AND MCI_LOGC = #{LOGC}
+  &lt;/if&gt;
+  &lt;if test="BONBU != ''"&gt;
+    AND MCI_Bonbu = #{BONBU}
+  &lt;/if&gt;
+  &lt;if test="CENTER != ''"&gt;
+    AND MCI_Center = #{CENTER}
+     &lt;/if&gt;
+     &lt;if test="EVENTNO != ''"&gt;
+    AND DEO_DOCNO like '%${EVENTNO}%'
+     &lt;/if&gt;
+     ORDER BY DEO_USER desc, DEO_CENTER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;delete id="deleteEVENT" parameterType="String"&gt;
+  delete from DT_EVENT_OUT
+      where DEO_DOCNO = #{value}
+ &lt;/delete&gt;
+&lt;select id="getAndroidEventDetail" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT a.본부 as BONBUNAME, a.센터 as CENTERNAME, a.행사번호 as DOCNO, c.코드 as EUSERID, c.성함 as EUSERNAME, 
+         a.행사시작일시 as EVENTDATE, b.단체명 as GROUPNAME, d.장례식장 as JNAME, a.행사상태 as ESTATE, a.일반단체구분 as GTYPE
+    from 행사마스터 a (nolock)
+    left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드
+    left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드
+    left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드
+    left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호
+   where a.행사번호 = #{DOCNO}
+   ORDER BY a.행사시작일시, a.본부, a.센터
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidEventModel" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT DEM_DOCNO, DEM_CENTER, MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+         DEM_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, MMC_KINDS,
+         CONVERT(CHAR(10), DEM_DATE, 23) as DEM_DATE, DEM_USER, MUT_UserName, 
+         CONVERT(CHAR(10), DEM_RETEMPDATE, 23) as DEM_RETEMPDATE,
+         CONVERT(CHAR(10), DEM_REDATE, 23) as DEM_REDATE, DEM_REUESR,
+         DEM_STS, CONVERT(VARCHAR(9), ISNULL(DEM_QTY, 0)) as DEM_QTY,
+         ISNULL(A.INQTY, 0) - ISNULL(B.OUTQTY, 0) as DMJ_JEGO
+    FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL, DT_EVENT_MODEL
+         left outer join DT_MODEL_JEGO on DEM_MODEL = DMJ_MODEL AND DEM_CENTER = DMJ_CENTER
+         left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS INQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '1' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) A on A.DIB_MODEL = DEM_MODEL and A.DIB_CENTER = DEM_CENTER
+         left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS OUTQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '2' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) B on B.DIB_MODEL = DEM_MODEL and B.DIB_CENTER = DEM_CENTER
+      WHERE DEM_DOCNO = #{DOCNO}
+        AND DEM_CENTER = MCI_CODE
+        AND DEM_MODEL = MMC_CODE
+        AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+        AND DEM_USER = MUT_UserID
+   order by DEM_CENTER, DEM_MODEL
+ &lt;/select&gt;
+&lt;select id="getAndroidEventDetail" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT a.본부 as BONBUNAME, a.센터 as CENTERNAME, a.행사번호 as DOCNO, c.코드 as EUSERID, c.성함 as EUSERNAME, 
+         a.행사시작일시 as EVENTDATE, b.단체명 as GROUPNAME, d.장례식장 as JNAME, a.행사상태 as ESTATE, a.일반단체구분 as GTYPE
+    from 행사마스터 a (nolock)
+    left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드
+    left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드
+    left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드
+    left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호
+   where a.행사번호 = #{DOCNO}
+   ORDER BY a.행사시작일시, a.본부, a.센터
+ &lt;/select&gt;
+&lt;select id="getAndroidEvent" resultType="java.util.LinkedHashMap" parameterType="String"&gt;
+  SELECT DEO_DOCNO, DEO_CENTER, MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+         DEO_USER, MUT_UserName, CONVERT(CHAR(10), DEO_DATE, 23) as DEO_DATE, DEO_CMNT
+    FROM DT_EVENT_OUT, MF_CENTER_INFO, MF_USER_TBL
+      WHERE DEO_DOCNO = #{value}
+        AND DEO_CENTER = MCI_CODE
+        AND DEO_USER = MUT_UserID
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidGTYPELIST" resultType="java.util.LinkedHashMap"&gt;
+  SELECT a.일반단체구분 as GTYPE, count(a.일반단체구분) from 행사마스터 a (nolock) group by a.일반단체구분
+ &lt;/select&gt;
+&lt;select id="getAndroidLOGCInfo" resultType="java.util.LinkedHashMap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getAndroidCENTERList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidJegoModel" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT DMJ_MODEL, DMJ_CENTER, DMJ_JEGO, ISNULL(A.INQTY, 0) - ISNULL(B.OUTQTY, 0) as OUTJEGO,
+         MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP, MMC_KINDS
+    FROM MF_MODEL_CODE, MF_COMM_CODE, DT_MODEL_JEGO
+         left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS INQTY
+                            FROM DT_INOUT_BONBU 
+                           WHERE DIB_IOTYPE = '1' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                           GROUP BY DIB_MODEL, DIB_CENTER
+                         ) A on A.DIB_MODEL = DMJ_MODEL and A.DIB_CENTER = DMJ_CENTER
+         left outer join (SELECT DIB_MODEL, DIB_CENTER, SUM(DIB_QTY) AS OUTQTY
+                           FROM DT_INOUT_BONBU 
+                          WHERE DIB_IOTYPE = '2' AND DIB_IODATE &lt;![CDATA[&lt;]]&gt; dateadd(day,1,#{NOWDATE})
+                          GROUP BY DIB_MODEL, DIB_CENTER
+                         ) B on B.DIB_MODEL = DMJ_MODEL and B.DIB_CENTER = DMJ_CENTER
+      WHERE DMJ_MODEL = #{MODEL} 
+     and DMJ_CENTER = #{CENTER}
+     and DMJ_MODEL = MMC_CODE
+     and MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;insert id="insertEVENT" parameterType="com.vo.EventVo"&gt;
+     insert into DT_EVENT_OUT(DEO_DOCNO, DEO_CENTER, DEO_USER, DEO_DATE, DEO_CMNT, CMN_DEL_STS, CMN_MAK_DATE, CMN_MAK_PROG, CMN_MAK_ID, CMN_UPD_DATE, CMN_UPD_PROG, CMN_UPD_ID)
+      values(#{DEO_DOCNO}, #{DEO_CENTER}, #{DEO_USER}, #{DEO_DATE}, #{DEO_CMNT}, 'N', getdate(),#{CMN_MAK_PROG},#{CMN_MAK_ID},getdate(),#{CMN_UPD_PROG},#{CMN_UPD_ID})
+ &lt;/insert&gt;
+&lt;select id="getAndroidEventDetail" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT a.본부 as BONBUNAME, a.센터 as CENTERNAME, a.행사번호 as DOCNO, c.코드 as EUSERID, c.성함 as EUSERNAME, 
+         a.행사시작일시 as EVENTDATE, b.단체명 as GROUPNAME, d.장례식장 as JNAME, a.행사상태 as ESTATE, a.일반단체구분 as GTYPE
+    from 행사마스터 a (nolock)
+    left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드
+    left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드
+    left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드
+    left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호
+   where a.행사번호 = #{DOCNO}
+   ORDER BY a.행사시작일시, a.본부, a.센터
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidEventInfo" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT a.본부 as BONBUNAME, a.센터 as CENTERNAME, a.행사번호 as DOCNO, c.코드 as EUSERID, c.성함 as EUSERNAME, 
+         a.행사시작일시 as EVENTDATE, b.단체명 as GROUPNAME, d.장례식장 as JNAME, a.행사상태 as ESTATE, a.일반단체구분 as GTYPE
+    from 행사마스터 a (nolock)
+    left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드
+    left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드
+    left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드
+    left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호
+   where 1=1
+   &lt;if test="StartDay == '' and EndDay != ''"&gt;
+     AND SUBSTRING(a.행사시작일시,0,9) &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+   &lt;/if&gt;
+   &lt;if test="StartDay != '' and EndDay == ''"&gt;
+     AND SUBSTRING(a.행사시작일시,0,9) &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+   &lt;/if&gt;
+    &lt;if test="StartDay != '' and EndDay != ''"&gt;
+     AND SUBSTRING(a.행사시작일시,0,9) between #{StartDay} AND #{EndDay}
+   &lt;/if&gt;
+   &lt;if test="BONBU != ''"&gt;
+   &lt;choose&gt;
+   &lt;when test="BONBU == '수도권'"&gt;
+   AND (a.본부 = '수도권' or a.본부 = '외주') 
+   &lt;/when&gt;
+   &lt;otherwise&gt;
+   AND a.본부 = #{BONBU}
+   &lt;/otherwise&gt;
+   &lt;/choose&gt;
+   &lt;/if&gt;
+   &lt;if test="CENTER != ''"&gt;
+   &lt;choose&gt;
+   &lt;when test="CENTER == '본부'"&gt;
+   AND (a.센터 = '본부' or a.센터 = '') 
+   &lt;/when&gt;
+   &lt;otherwise&gt;
+   AND a.센터 = #{CENTER}
+   &lt;/otherwise&gt;
+   &lt;/choose&gt;
+      &lt;/if&gt;
+   &lt;if test="EUSERNAME != null and EUSERNAME != ''"&gt;
+     AND c.성함 like '%${EUSERNAME}%'
+   &lt;/if&gt;
+   &lt;if test="GNAME != null and GNAME != ''"&gt;
+     AND b.단체명 like '%${GNAME}%'
+   &lt;/if&gt;
+   &lt;if test="JNAME != null and JNAME != ''"&gt;
+     AND d.장례식장 like '%${JNAME}%'
+   &lt;/if&gt;
+   &lt;if test="ESTATE != null and ESTATE != ''"&gt;
+     AND a.행사상태 = #{ESTATE}
+   &lt;/if&gt;
+   &lt;if test="GTYPE != null and GTYPE != ''"&gt;
+     AND a.일반단체구분 = #{GTYPE}
+   &lt;/if&gt;
+   ORDER BY a.행사시작일시, a.본부, a.센터
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;update id="updateEVENT" parameterType="com.vo.EventVo"&gt;
+     update DT_EVENT_OUT set DEO_CMNT = #{DEO_CMNT},
+                             CMN_UPD_DATE = getdate(),
+                             CMN_UPD_PROG = #{CMN_UPD_PROG},
+                             CMN_UPD_ID = #{CMN_UPD_ID}
+      where DEO_DOCNO = #{DEO_DOCNO}
+ &lt;/update&gt;
+&lt;select id="getAndroidEventDetail" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT a.본부 as BONBUNAME, a.센터 as CENTERNAME, a.행사번호 as DOCNO, c.코드 as EUSERID, c.성함 as EUSERNAME, 
+         a.행사시작일시 as EVENTDATE, b.단체명 as GROUPNAME, d.장례식장 as JNAME, a.행사상태 as ESTATE, a.일반단체구분 as GTYPE
+    from 행사마스터 a (nolock)
+    left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드
+    left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드
+    left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드
+    left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호
+   where a.행사번호 = #{DOCNO}
+   ORDER BY a.행사시작일시, a.본부, a.센터
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidFileList" resultType="java.util.LinkedHashMap" parameterType="String"&gt;
+  SELECT MDF_DOCNO, MDF_SEQ, MDF_FILE, MDF_FILE_Org, MDF_FILE_SIZE
+    FROM MF_DATA_FILE
+   WHERE MDF_DOCNO = #{value}
+ &lt;/select&gt; 
+&lt;delete id="deleteNoticeFile" parameterType="hashmap"&gt;
+     delete from MF_DATA_FILE
+      WHERE MDF_DOCNO = #{DOCNO}
+     AND MDF_SEQ = #{SEQ}
+ &lt;/delete&gt;
+&lt;select id="getNoticeFileInfo" resultType="com.vo.NoticeVo" parameterType="hashmap"&gt;
+  SELECT MDF_DOCNO, MDF_SEQ, MDF_FILE, MDF_FILE_Org, MDF_FILE_SIZE
+    FROM MF_DATA_FILE
+   WHERE MDF_DOCNO = #{DOCNO}
+     AND MDF_SEQ = #{SEQ}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download.do  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getAndroidSCodeList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getAndroidLOGCInfo" resultType="java.util.LinkedHashMap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidNoticeMainList" resultType="java.util.LinkedHashMap" parameterType="String"&gt;
+  SELECT MNI_DOCNO, MNI_DATE, MNI_TITLE, MNI_UserID, MUT_UserName,
+      MNI_TopNotice, MNI_ReceiveType, MNI_TempSts, USERCNT, INFOCHK
+    FROM (
+         SELECT MNI_DOCNO, CONVERT(CHAR(10), MNI_DATE, 23) as MNI_DATE, MNI_TITLE, MNI_UserID, MUT_UserName,
+              MNI_TopNotice, MNI_ReceiveType, MNI_TempSts, USERCNT, case when MNU_UserID is null then 'N' else 'Y' end as INFOCHK 
+        FROM MF_NOTICE_INFO 
+             left outer join MF_USER_TBL on MNI_UserID = MUT_UserID
+                       left outer join ( SELECT MNU_DOCNO, COUNT(MNU_DOCNO) AS USERCNT FROM MF_NOTICE_USER GROUP BY MNU_DOCNO ) A on MNI_DOCNO = A.MNU_DOCNO
+         left outer join MF_NOTICE_USER B on MNI_DOCNO = B.MNU_DOCNO AND MNU_UserID = #{value}
+      WHERE MNI_UserID = #{value}
+     UNION ALL
+    SELECT MNI_DOCNO, CONVERT(CHAR(10), MNI_DATE, 23) as MNI_DATE, MNI_TITLE, MNI_UserID, MUT_UserName,
+              MNI_TopNotice, MNI_ReceiveType, MNI_TempSts, USERCNT, case when MNU_UserID is null then 'N' else 'Y' end as INFOCHK 
+        FROM MF_NOTICE_INFO 
+             left outer join MF_USER_TBL on MNI_UserID = MUT_UserID
+                       left outer join ( SELECT MNU_DOCNO, COUNT(MNU_DOCNO) AS USERCNT FROM MF_NOTICE_USER GROUP BY MNU_DOCNO ) A on MNI_DOCNO = A.MNU_DOCNO
+         left outer join MF_NOTICE_USER B on MNI_DOCNO = B.MNU_DOCNO AND MNU_UserID = #{value}
+      WHERE NOT MNI_UserID = #{value}
+           AND MNI_ReceiveType = '0'
+     UNION ALL
+    SELECT MNI_DOCNO, CONVERT(CHAR(10), MNI_DATE, 23) as MNI_DATE, MNI_TITLE, MNI_UserID, MUT_UserName,
+              MNI_TopNotice, MNI_ReceiveType, MNI_TempSts, USERCNT, case when MNU_UserID is null then 'N' else 'Y' end as INFOCHK 
+        FROM MF_NOTICE_INFO 
+             left outer join MF_USER_TBL on MNI_UserID = MUT_UserID
+                       left outer join ( SELECT MNU_DOCNO, COUNT(MNU_DOCNO) AS USERCNT FROM MF_NOTICE_USER GROUP BY MNU_DOCNO ) A on MNI_DOCNO = A.MNU_DOCNO
+         left outer join MF_NOTICE_USER B on MNI_DOCNO = B.MNU_DOCNO AND MNU_UserID = #{value}
+      WHERE NOT MNI_UserID = #{value}
+          AND MNI_ReceiveType = '1' 
+             AND EXISTS(
+          SELECT MUT_UserID FROM MF_USER_TBL, MF_CENTER_INFO WHERE MCI_CODE = MUT_Center AND MUT_USERID = #{value}  AND
+        (
+         (MNI_CTYPE = '0' AND MNI_LOGC = MCI_LOGC AND NOT MCI_Center = ' ')
+         or
+         (MNI_CTYPE = '1' AND MNI_LOGC = MCI_LOGC AND MNI_BONBU = MCI_Bonbu AND NOT MCI_Center = ' ')
+         or
+         (MNI_CTYPE = '2' AND MNI_LOGC = MCI_LOGC AND MNI_BONBU = MCI_Bonbu AND MNI_Center = MCI_Center)
+        )
+       )
+     UNION ALL
+    SELECT MNI_DOCNO, CONVERT(CHAR(10), MNI_DATE, 23) as MNI_DATE, MNI_TITLE, MNI_UserID, MUT_UserName,
+              MNI_TopNotice, MNI_ReceiveType, MNI_TempSts, USERCNT, case when MNU_UserID is null then 'N' else 'Y' end as INFOCHK 
+        FROM MF_NOTICE_SUSIN, MF_NOTICE_INFO 
+          left outer join MF_USER_TBL on MNI_UserID = MUT_UserID
+                       left outer join ( SELECT MNU_DOCNO, COUNT(MNU_DOCNO) AS USERCNT FROM MF_NOTICE_USER GROUP BY MNU_DOCNO ) A on MNI_DOCNO = A.MNU_DOCNO
+         left outer join MF_NOTICE_USER B on MNI_DOCNO = B.MNU_DOCNO AND MNU_UserID = #{value}
+      WHERE NOT MNI_UserID = #{value}
+          AND MNI_ReceiveType = '2'
+          AND MNI_DOCNO = MNS_DOCNO
+          AND MNS_UserID = #{value}
+         ) B
+   WHERE MNI_TempSts ='Y'
+   ORDER BY MNI_TopNotice, MNI_DATE DESC
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidFileList" resultType="java.util.LinkedHashMap" parameterType="String"&gt;
+  SELECT MDF_DOCNO, MDF_SEQ, MDF_FILE, MDF_FILE_Org, MDF_FILE_SIZE
+    FROM MF_DATA_FILE
+   WHERE MDF_DOCNO = #{value}
+ &lt;/select&gt;
+&lt;select id="getAndroidNoticeInfo" resultType="com.vo.NoticeVo" parameterType="String"&gt;
+  SELECT MNI_DOCNO, MNI_TITLE, MNI_Cmnt
+    FROM MF_NOTICE_INFO
+   WHERE MNI_DOCNO = #{value}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="MgroupAndroidList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MMC_LGROUP, MMC_MGROUP, COUNT(MMC_MGROUP) as cnt 
+    from MF_MODEL_CODE 
+   WHERE MMC_LOGC = #{LOGC} 
+     AND MMC_LGROUP = #{LCODE} 
+   group by MMC_LGROUP, MMC_MGROUP
+   order by MMC_LGROUP, MMC_MGROUP
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidModelList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MMC_CODE, MMC_LOGC, A.MCI_LOGCNAME as MMC_LOGCNAME, MMC_LGROUP, B.MCC_S_NAME as MMC_LGROUPNAME,
+      MMC_MGROUP, MMC_SGROUP, MMC_KINDS, MMC_UNIT, MMC_ERPMODEL,
+      CONVERT(CHAR(10), MMC_StartDay, 23) as MMC_StartDay, CONVERT(CHAR(10), MMC_EndDay, 23) as MMC_EndDay, MMC_BizSts
+    FROM MF_MODEL_CODE 
+      left outer join MF_CENTER_INFO A on MMC_LOGC = A.MCI_LOGC AND A.MCI_BONBU = ' ' AND A.MCI_CENTER = ' '
+      left outer join MF_COMM_CODE B on B.MCC_L_CODE = '200' AND B.MCC_M_CODE = '201' AND MMC_LGROUP = B.MCC_S_CODE
+   WHERE MMC_BizSts = 'Y'
+  &lt;if test="LOGC != null and LOGC != ''"&gt;
+     AND MMC_LOGC = #{LOGC}
+  &lt;/if&gt;
+  &lt;if test="LCODE != null and LCODE != ''"&gt;
+     AND MMC_LGROUP = #{LCODE}
+  &lt;/if&gt;
+  &lt;if test="MCODE != null and MCODE != ''"&gt;
+     AND MMC_MGROUP = #{MCODE}
+  &lt;/if&gt;
+  &lt;if test="SCODE != null and SCODE != ''"&gt;
+     AND MMC_SGROUP = #{SCODE}
+  &lt;/if&gt;
+  &lt;if test="MNAME != null and MNAME != ''"&gt;
+     AND MMC_CODE like '%${MNAME}%'
+  &lt;/if&gt;
+  order by MMC_LOGC, MMC_CODE
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="getAndroidSCodeList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCC_L_CODE, MCC_L_NAME, MCC_M_CODE, MCC_M_NAME, MCC_S_CODE, MCC_S_NAME FROM MF_COMM_CODE WHERE MCC_L_CODE = #{LCODE} AND MCC_M_CODE = #{MCODE} AND NOT MCC_S_CODE = ' ' order by MCC_L_CODE, MCC_M_CODE, MCC_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getAndroidModelRetuen" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT rownum, DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+         DEM_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+         DEM_QTY, DEM_DATE, DEM_USER, DEM_USERNAME, 
+         DEM_RETEMPDATE, DEM_REDATE, DEM_REUESR, DEM_REUESRNAME,
+         DEM_STS, DEM_CMNT
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER (PARTITION BY MCI_Center, MMC_CODE  ORDER BY DEM_DATE DESC, DT_EVENT_MODEL.CMN_MAK_DATE DESC) AS rownum,
+               DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               DEM_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               ISNULL(DEM_QTY, 0) as DEM_QTY, CONVERT(CHAR(10), DEM_DATE, 23) as DEM_DATE, DEM_USER, A.MUT_UserName as DEM_USERNAME, 
+               CONVERT(CHAR(10), DEM_RETEMPDATE, 23) as DEM_RETEMPDATE, CONVERT(CHAR(10), DEM_REDATE, 23) as DEM_REDATE, DEM_REUESR, B.MUT_UserName as DEM_REUESRNAME,
+               DEM_STS, DEM_CMNT
+          FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL A, DT_EVENT_MODEL
+               left outer join MF_USER_TBL B on DEM_REUESR = B.MUT_UserID
+         WHERE DEM_CENTER = MCI_CODE
+           AND DEM_MODEL = MMC_CODE
+              AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+              AND DEM_USER = A.MUT_UserID
+              AND MMC_KINDS = '3'
+            &lt;if test="StartDay == '' and EndDay != ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+        AND DEM_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+        AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+        AND MCI_Bonbu = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+        AND MCI_Center = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="ENAME != ''"&gt;
+        AND DEM_DOCNO like '%${ENAME}%'
+         &lt;/if&gt;
+         &lt;if test="BISSTS != null and !BISSTS.equals('') "&gt;
+           AND DEM_STS = #{BISSTS}
+      &lt;/if&gt;
+    ) MAIN
+    WHERE rownum = 1
+ &lt;/select&gt;
+&lt;select id="getAndroidLOGCInfo" resultType="java.util.LinkedHashMap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME FROM MF_CENTER_INFO WHERE MCI_Bonbu = ' ' AND MCI_Center = ' ' order by MCI_LOGC
+ &lt;/select&gt;
+&lt;select id="getAndroidCENTERList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName FROM MF_CENTER_INFO WHERE MCI_LOGC = #{LOGC} AND MCI_Bonbu = #{BONBU} AND NOT MCI_Center = ' ' order by MCI_LOGC, MCI_Bonbu, MCI_SORT_ORDER
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidModelRetuen" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT rownum, DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+         DEM_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+         DEM_QTY, DEM_DATE, DEM_USER, DEM_USERNAME, 
+         DEM_RETEMPDATE, DEM_REDATE, DEM_REUESR, DEM_REUESRNAME,
+         DEM_STS, DEM_CMNT
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER (PARTITION BY MCI_Center, MMC_CODE  ORDER BY DEM_DATE DESC, DT_EVENT_MODEL.CMN_MAK_DATE DESC) AS rownum,
+               DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               DEM_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               ISNULL(DEM_QTY, 0) as DEM_QTY, CONVERT(CHAR(10), DEM_DATE, 23) as DEM_DATE, DEM_USER, A.MUT_UserName as DEM_USERNAME, 
+               CONVERT(CHAR(10), DEM_RETEMPDATE, 23) as DEM_RETEMPDATE, CONVERT(CHAR(10), DEM_REDATE, 23) as DEM_REDATE, DEM_REUESR, B.MUT_UserName as DEM_REUESRNAME,
+               DEM_STS, DEM_CMNT
+          FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL A, DT_EVENT_MODEL
+               left outer join MF_USER_TBL B on DEM_REUESR = B.MUT_UserID
+         WHERE DEM_CENTER = MCI_CODE
+           AND DEM_MODEL = MMC_CODE
+              AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+              AND DEM_USER = A.MUT_UserID
+              AND MMC_KINDS = '3'
+            &lt;if test="StartDay == '' and EndDay != ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+        AND DEM_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+        AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+        AND MCI_Bonbu = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+        AND MCI_Center = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="ENAME != ''"&gt;
+        AND DEM_DOCNO like '%${ENAME}%'
+         &lt;/if&gt;
+         &lt;if test="BISSTS != null and !BISSTS.equals('') "&gt;
+           AND DEM_STS = #{BISSTS}
+      &lt;/if&gt;
+    ) MAIN
+    WHERE rownum = 1
+ &lt;/select&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP_RETURN_UPDATE.do  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "id", defaultValue = "") String id,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "CCODE", defaultValue = "") String CCODE,
+   @RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "MODEL", defaultValue = "") String MODEL,
+   @RequestParam(value = "BISSTS", defaultValue = "") String BISSTS,
+   @RequestParam(value = "POS", defaultValue = "1") String POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserInfo(id), inOutService.updateAndroidReturn(DOCNO, CCODE, MODEL, BISSTS, id), inOutService.getAndroidModelRetuen("", "", LOGC, BONBU, CENTER, "", "")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="getAndroidModelRetuen" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT rownum, DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+         DEM_MODEL, MMC_LGROUP, MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+         DEM_QTY, DEM_DATE, DEM_USER, DEM_USERNAME, 
+         DEM_RETEMPDATE, DEM_REDATE, DEM_REUESR, DEM_REUESRNAME,
+         DEM_STS, DEM_CMNT
+    FROM
+    (
+        SELECT ROW_NUMBER() OVER (PARTITION BY MCI_Center, MMC_CODE  ORDER BY DEM_DATE DESC, DT_EVENT_MODEL.CMN_MAK_DATE DESC) AS rownum,
+               DEM_DOCNO, DEM_CENTER, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+               DEM_MODEL, MMC_LGROUP, MCC_S_NAME as MMC_LGROUPNAME, MMC_MGROUP, MMC_SGROUP,
+               ISNULL(DEM_QTY, 0) as DEM_QTY, CONVERT(CHAR(10), DEM_DATE, 23) as DEM_DATE, DEM_USER, A.MUT_UserName as DEM_USERNAME, 
+               CONVERT(CHAR(10), DEM_RETEMPDATE, 23) as DEM_RETEMPDATE, CONVERT(CHAR(10), DEM_REDATE, 23) as DEM_REDATE, DEM_REUESR, B.MUT_UserName as DEM_REUESRNAME,
+               DEM_STS, DEM_CMNT
+          FROM MF_CENTER_INFO, MF_MODEL_CODE, MF_COMM_CODE, MF_USER_TBL A, DT_EVENT_MODEL
+               left outer join MF_USER_TBL B on DEM_REUESR = B.MUT_UserID
+         WHERE DEM_CENTER = MCI_CODE
+           AND DEM_MODEL = MMC_CODE
+              AND MCC_L_CODE = '200' AND MCC_M_CODE = '201' AND MMC_LGROUP = MCC_S_CODE
+              AND DEM_USER = A.MUT_UserID
+              AND MMC_KINDS = '3'
+            &lt;if test="StartDay == '' and EndDay != ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&lt;=]]&gt; #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay == ''"&gt;
+        AND DEM_DATE &lt;![CDATA[&gt;=]]&gt; #{StartDay}
+      &lt;/if&gt;
+      &lt;if test="StartDay != '' and EndDay != ''"&gt;
+        AND DEM_DATE between #{StartDay} AND #{EndDay}
+      &lt;/if&gt;
+      &lt;if test="LOGC != ''"&gt;
+        AND MCI_LOGC = #{LOGC}
+      &lt;/if&gt;
+      &lt;if test="BONBU != ''"&gt;
+        AND MCI_Bonbu = #{BONBU}
+      &lt;/if&gt;
+      &lt;if test="CENTER != ''"&gt;
+        AND MCI_Center = #{CENTER}
+         &lt;/if&gt;
+         &lt;if test="ENAME != ''"&gt;
+        AND DEM_DOCNO like '%${ENAME}%'
+         &lt;/if&gt;
+         &lt;if test="BISSTS != null and !BISSTS.equals('') "&gt;
+           AND DEM_STS = #{BISSTS}
+      &lt;/if&gt;
+    ) MAIN
+    WHERE rownum = 1
+ &lt;/select&gt;
+&lt;update id="updateAndroidReturn" parameterType="com.vo.EventVo"&gt;
+   update DT_EVENT_MODEL 
+        set DEM_STS = #{DEM_STS},
+            DEM_CMNT = #{DEM_CMNT},
+            DEM_REUESR = #{DEM_REUESR},
+            DEM_REDATE = #{DEM_REDATE},
+            CMN_UPD_DATE = getdate(),
+            CMN_UPD_PROG = #{CMN_UPD_PROG},
+            CMN_UPD_ID = #{CMN_UPD_ID}
+      where DEM_DOCNO = #{DEM_DOCNO}
+        AND DEM_CENTER = #{DEM_CENTER}
+        AND DEM_MODEL = #{DEM_MODEL}
+ &lt;/update&gt;
+&lt;select id="getUserInfo" resultType="com.vo.UserVo" parameterType="hashmap"&gt;
+  SELECT MUT_USERID, MUT_USERNAME, MUT_USERPWD, MUT_CENTER, 
+      MCI_LOGC, MCI_LOGCNAME, MCI_Bonbu, MCI_BonbuNAME, MCI_Center, MCI_CenterName,
+      MUT_POSITION, MCC_S_NAME AS POSITIONNAME, MUT_HP_TEL,
+      CONVERT(CHAR(10), MUT_STARTDAY, 23) as MUT_STARTDAY, CONVERT(CHAR(10), MUT_ENDDAY, 23) as MUT_ENDDAY,
+      MUT_BIZSTS, MUT_SIGN, MUT_SIGN_ORG
+    FROM MF_USER_TBL 
+      left outer join MF_CENTER_INFO on MUT_CENTER = MCI_CODE
+      left outer join MF_COMM_CODE on MCC_L_CODE = '100' AND MCC_M_CODE = 'POZSN' AND MUT_POSITION = MCC_S_CODE
+   WHERE MUT_UserID = #{USERID}
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="SgroupAndroidList" resultType="java.util.LinkedHashMap" parameterType="hashmap"&gt;
+  SELECT MMC_LGROUP, MMC_MGROUP, MMC_SGROUP, COUNT(MMC_SGROUP) as cnt 
+    from MF_MODEL_CODE 
+   WHERE MMC_LOGC = #{LOGC} 
+     AND MMC_LGROUP = #{LCODE} 
+     AND MMC_MGROUP = #{MCODE} 
+   group by MMC_LGROUP, MMC_MGROUP, MMC_SGROUP
+   order by MMC_LGROUP, MMC_MGROUP, MMC_SGROUP
+ &lt;/select&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP_VERSION.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6148,7 +9312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6225,6 +9389,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6509,9 +9676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6539,13 +9706,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -6557,19 +9724,19 @@
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>34</v>
@@ -6583,68 +9750,68 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="19"/>
@@ -6665,58 +9832,58 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -6728,43 +9895,43 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -6776,43 +9943,43 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -6821,106 +9988,106 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H25" s="18"/>
     </row>
@@ -6932,13 +10099,13 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H26" s="18"/>
     </row>
@@ -6950,13 +10117,13 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H27" s="18"/>
     </row>
@@ -6968,28 +10135,28 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H29" s="18"/>
     </row>
@@ -6998,13 +10165,13 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H30" s="18"/>
     </row>
@@ -7013,13 +10180,13 @@
         <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H31" s="18"/>
     </row>
@@ -7028,13 +10195,13 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H32" s="18"/>
     </row>
@@ -7043,13 +10210,13 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H33" s="18"/>
     </row>
@@ -7058,13 +10225,13 @@
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H34" s="18"/>
     </row>
@@ -7073,13 +10240,13 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H35" s="18"/>
     </row>
@@ -7088,13 +10255,13 @@
         <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H36" s="18"/>
     </row>
@@ -7103,13 +10270,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H37" s="18"/>
     </row>
@@ -7121,13 +10288,13 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H38" s="18"/>
     </row>
@@ -7136,13 +10303,13 @@
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H39" s="18"/>
     </row>
@@ -7151,13 +10318,13 @@
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H40" s="18"/>
     </row>
@@ -7166,13 +10333,13 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H41" s="18"/>
     </row>
@@ -7181,13 +10348,13 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H42" s="18"/>
     </row>
@@ -7196,13 +10363,13 @@
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H43" s="18"/>
     </row>
@@ -7211,13 +10378,13 @@
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H44" s="18"/>
     </row>
@@ -7226,13 +10393,13 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H45" s="18"/>
     </row>
@@ -7241,13 +10408,13 @@
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H46" s="18"/>
     </row>
@@ -7259,13 +10426,13 @@
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H47" s="18"/>
     </row>
@@ -7274,13 +10441,13 @@
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H48" s="18"/>
     </row>
@@ -7289,13 +10456,13 @@
         <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H49" s="18"/>
     </row>
@@ -7304,13 +10471,13 @@
         <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H50" s="18"/>
     </row>
@@ -7319,13 +10486,13 @@
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H51" s="18"/>
     </row>
@@ -7334,13 +10501,13 @@
         <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H52" s="18"/>
     </row>
@@ -7349,13 +10516,13 @@
         <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H53" s="18"/>
     </row>
@@ -7364,13 +10531,13 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H54" s="18"/>
     </row>
@@ -7379,13 +10546,13 @@
         <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H55" s="18"/>
     </row>
@@ -7394,13 +10561,13 @@
         <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H56" s="18"/>
     </row>
@@ -7409,13 +10576,13 @@
         <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H57" s="18"/>
     </row>
@@ -7424,13 +10591,13 @@
         <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H58" s="18"/>
     </row>
@@ -7442,28 +10609,28 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H60" s="18"/>
     </row>
@@ -7472,13 +10639,13 @@
         <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H61" s="18"/>
     </row>
@@ -7487,13 +10654,13 @@
         <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H62" s="18"/>
     </row>
@@ -7502,13 +10669,13 @@
         <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H63" s="18"/>
     </row>
@@ -7517,13 +10684,13 @@
         <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H64" s="18"/>
     </row>
@@ -7532,13 +10699,13 @@
         <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H65" s="18"/>
     </row>
@@ -7547,13 +10714,13 @@
         <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H66" s="18"/>
     </row>
@@ -7562,28 +10729,28 @@
         <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H68" s="19"/>
     </row>
@@ -7603,28 +10770,28 @@
         <v>83</v>
       </c>
       <c r="E70" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E71" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H71" s="23"/>
     </row>
@@ -7633,13 +10800,13 @@
         <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H72" s="23"/>
     </row>
@@ -7648,58 +10815,58 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E74" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E75" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H76" s="23"/>
     </row>
@@ -7708,7 +10875,7 @@
         <v>61</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="23"/>
@@ -7726,13 +10893,13 @@
         <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H79" s="23"/>
     </row>
@@ -7741,13 +10908,13 @@
         <v>87</v>
       </c>
       <c r="E80" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H80" s="23"/>
     </row>
@@ -7759,28 +10926,28 @@
         <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="2:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E82" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H82" s="23"/>
     </row>
@@ -7789,13 +10956,13 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H83" s="23"/>
     </row>
@@ -7804,73 +10971,73 @@
         <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="2:8" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="2:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E86" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="2:8" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="2:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E88" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H88" s="23"/>
     </row>
@@ -7879,13 +11046,13 @@
         <v>91</v>
       </c>
       <c r="E89" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H89" s="23"/>
     </row>
@@ -7894,13 +11061,13 @@
         <v>92</v>
       </c>
       <c r="E90" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H90" s="23"/>
     </row>
@@ -7909,13 +11076,13 @@
         <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H91" s="23"/>
     </row>
@@ -7927,28 +11094,28 @@
         <v>94</v>
       </c>
       <c r="E92" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="2:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H93" s="23"/>
     </row>
@@ -7957,13 +11124,13 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H94" s="23"/>
     </row>
@@ -7972,13 +11139,13 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H95" s="23"/>
     </row>
@@ -7987,7 +11154,7 @@
         <v>61</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="23"/>
@@ -8005,10 +11172,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="23"/>
@@ -8018,7 +11185,7 @@
         <v>50</v>
       </c>
       <c r="F99" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="23"/>
@@ -8036,73 +11203,73 @@
         <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H101" s="23"/>
     </row>
     <row r="102" spans="2:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E102" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H102" s="23"/>
     </row>
     <row r="103" spans="2:8" ht="232.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E103" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="H103" s="23"/>
     </row>
     <row r="104" spans="2:8" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E104" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H104" s="23"/>
     </row>
     <row r="105" spans="2:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E105" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H105" s="23"/>
     </row>
@@ -8114,28 +11281,28 @@
         <v>99</v>
       </c>
       <c r="E106" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H106" s="23"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E107" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H107" s="23"/>
     </row>
@@ -8144,13 +11311,13 @@
         <v>100</v>
       </c>
       <c r="E108" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H108" s="23"/>
     </row>
@@ -8159,13 +11326,13 @@
         <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H109" s="23"/>
     </row>
@@ -8174,13 +11341,13 @@
         <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H110" s="23"/>
     </row>
@@ -8189,13 +11356,13 @@
         <v>104</v>
       </c>
       <c r="E111" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H111" s="23"/>
     </row>
@@ -8204,13 +11371,13 @@
         <v>101</v>
       </c>
       <c r="E112" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H112" s="23"/>
     </row>
@@ -8219,13 +11386,13 @@
         <v>105</v>
       </c>
       <c r="E113" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H113" s="23"/>
     </row>
@@ -8237,28 +11404,28 @@
         <v>106</v>
       </c>
       <c r="E114" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H114" s="23"/>
     </row>
     <row r="115" spans="2:8" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E115" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H115" s="23"/>
     </row>
@@ -8267,13 +11434,13 @@
         <v>107</v>
       </c>
       <c r="E116" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H116" s="23"/>
     </row>
@@ -8282,13 +11449,13 @@
         <v>108</v>
       </c>
       <c r="E117" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H117" s="23"/>
     </row>
@@ -8300,28 +11467,28 @@
         <v>109</v>
       </c>
       <c r="E118" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H118" s="23"/>
     </row>
     <row r="119" spans="2:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E119" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H119" s="23"/>
     </row>
@@ -8330,13 +11497,13 @@
         <v>110</v>
       </c>
       <c r="E120" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H120" s="23"/>
     </row>
@@ -8345,27 +11512,29 @@
         <v>111</v>
       </c>
       <c r="E121" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H121" s="23"/>
     </row>
-    <row r="122" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E122" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G122" s="6"/>
+        <v>427</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>581</v>
+      </c>
       <c r="H122" s="23"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
@@ -8373,7 +11542,7 @@
         <v>61</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="23"/>
@@ -8391,77 +11560,89 @@
         <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G125" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>582</v>
+      </c>
       <c r="H125" s="23"/>
     </row>
-    <row r="126" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>104</v>
       </c>
       <c r="E126" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G126" s="6"/>
+        <v>228</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>583</v>
+      </c>
       <c r="H126" s="23"/>
     </row>
-    <row r="127" spans="2:8" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>105</v>
       </c>
       <c r="E127" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G127" s="6"/>
+        <v>400</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>584</v>
+      </c>
       <c r="H127" s="23"/>
     </row>
-    <row r="128" spans="2:8" ht="198" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>101</v>
       </c>
       <c r="E128" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F128" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H128" s="23"/>
+    </row>
+    <row r="129" spans="1:8" ht="198" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
         <v>407</v>
       </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="23"/>
-    </row>
-    <row r="129" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>297</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H129" s="23"/>
+    </row>
+    <row r="130" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>409</v>
+      </c>
+      <c r="E130" t="s">
+        <v>298</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E129" t="s">
-        <v>300</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="23"/>
-    </row>
-    <row r="130" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="D130" t="s">
-        <v>412</v>
-      </c>
-      <c r="E130" t="s">
-        <v>301</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>586</v>
+      </c>
       <c r="H130" s="23"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -8475,7 +11656,7 @@
       </c>
       <c r="H132" s="23"/>
     </row>
-    <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>23</v>
       </c>
@@ -8483,28 +11664,32 @@
         <v>112</v>
       </c>
       <c r="E133" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G133" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>587</v>
+      </c>
       <c r="H133" s="23"/>
     </row>
-    <row r="134" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>113</v>
       </c>
       <c r="E134" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="G134" s="6"/>
+        <v>429</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>588</v>
+      </c>
       <c r="H134" s="23"/>
     </row>
-    <row r="135" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>24</v>
       </c>
@@ -8512,28 +11697,32 @@
         <v>114</v>
       </c>
       <c r="E135" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G135" s="6"/>
+        <v>431</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>589</v>
+      </c>
       <c r="H135" s="23"/>
     </row>
-    <row r="136" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>115</v>
       </c>
       <c r="E136" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="G136" s="6"/>
+        <v>433</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="H136" s="23"/>
     </row>
-    <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>25</v>
       </c>
@@ -8541,12 +11730,14 @@
         <v>116</v>
       </c>
       <c r="E137" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G137" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>591</v>
+      </c>
       <c r="H137" s="23"/>
     </row>
     <row r="138" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8554,41 +11745,47 @@
         <v>117</v>
       </c>
       <c r="E138" t="s">
-        <v>440</v>
+        <v>592</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="G138" s="6"/>
+        <v>436</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E139" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="G139" s="6"/>
+        <v>438</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="H139" s="23"/>
     </row>
-    <row r="140" spans="1:8" ht="264" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>129</v>
       </c>
       <c r="E140" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G140" s="6"/>
+        <v>456</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>595</v>
+      </c>
       <c r="H140" s="23"/>
     </row>
-    <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>26</v>
       </c>
@@ -8596,41 +11793,47 @@
         <v>118</v>
       </c>
       <c r="E141" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G141" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>596</v>
+      </c>
       <c r="H141" s="23"/>
     </row>
-    <row r="142" spans="1:8" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>119</v>
       </c>
       <c r="E142" t="s">
-        <v>446</v>
+        <v>597</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="G142" s="6"/>
+        <v>441</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>598</v>
+      </c>
       <c r="H142" s="23"/>
     </row>
-    <row r="143" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>120</v>
       </c>
       <c r="E143" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="G143" s="6"/>
+        <v>447</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="H143" s="23"/>
     </row>
-    <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>27</v>
       </c>
@@ -8638,12 +11841,14 @@
         <v>121</v>
       </c>
       <c r="E144" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G144" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>600</v>
+      </c>
       <c r="H144" s="23"/>
     </row>
     <row r="145" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8651,28 +11856,32 @@
         <v>122</v>
       </c>
       <c r="E145" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="G145" s="6"/>
+        <v>443</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>601</v>
+      </c>
       <c r="H145" s="23"/>
     </row>
-    <row r="146" spans="1:8" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>123</v>
       </c>
       <c r="E146" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G146" s="6"/>
+        <v>445</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>602</v>
+      </c>
       <c r="H146" s="23"/>
     </row>
-    <row r="147" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>28</v>
       </c>
@@ -8680,28 +11889,32 @@
         <v>124</v>
       </c>
       <c r="E147" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G147" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="H147" s="23"/>
     </row>
-    <row r="148" spans="1:8" ht="198" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>125</v>
       </c>
       <c r="E148" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G148" s="6"/>
+        <v>450</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>604</v>
+      </c>
       <c r="H148" s="23"/>
     </row>
-    <row r="149" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>29</v>
       </c>
@@ -8709,38 +11922,44 @@
         <v>126</v>
       </c>
       <c r="E149" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G149" s="6"/>
+        <v>431</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="H149" s="23"/>
     </row>
-    <row r="150" spans="1:8" ht="231" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>127</v>
       </c>
       <c r="E150" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="G150" s="6"/>
+        <v>453</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>606</v>
+      </c>
       <c r="H150" s="23"/>
     </row>
-    <row r="151" spans="1:8" ht="231" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>128</v>
       </c>
       <c r="E151" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="G151" s="6"/>
+        <v>453</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>607</v>
+      </c>
       <c r="H151" s="23"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -8751,7 +11970,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>30</v>
       </c>
@@ -8759,12 +11978,14 @@
         <v>130</v>
       </c>
       <c r="E153" t="s">
-        <v>463</v>
+        <v>608</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G153" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>609</v>
+      </c>
       <c r="H153" s="22"/>
     </row>
     <row r="154" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8772,67 +11993,77 @@
         <v>132</v>
       </c>
       <c r="E154" t="s">
+        <v>459</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H154" s="22"/>
+    </row>
+    <row r="155" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
         <v>465</v>
       </c>
-      <c r="F154" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G154" s="6"/>
-      <c r="H154" s="22"/>
-    </row>
-    <row r="155" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="D155" t="s">
+      <c r="E155" t="s">
+        <v>467</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H155" s="22"/>
+    </row>
+    <row r="156" spans="1:8" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>468</v>
+      </c>
+      <c r="E156" t="s">
+        <v>469</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H156" s="22"/>
+    </row>
+    <row r="157" spans="1:8" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>470</v>
+      </c>
+      <c r="E157" t="s">
+        <v>472</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="E155" t="s">
+      <c r="G157" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H157" s="22"/>
+    </row>
+    <row r="158" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
         <v>473</v>
       </c>
-      <c r="F155" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="G155" s="6"/>
-      <c r="H155" s="22"/>
-    </row>
-    <row r="156" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="D156" t="s">
+      <c r="E158" t="s">
         <v>474</v>
       </c>
-      <c r="E156" t="s">
-        <v>475</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G156" s="6"/>
-      <c r="H156" s="22"/>
-    </row>
-    <row r="157" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="D157" t="s">
-        <v>476</v>
-      </c>
-      <c r="E157" t="s">
-        <v>478</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="G157" s="6"/>
-      <c r="H157" s="22"/>
-    </row>
-    <row r="158" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="D158" t="s">
-        <v>479</v>
-      </c>
-      <c r="E158" t="s">
-        <v>480</v>
-      </c>
       <c r="F158" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G158" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>611</v>
+      </c>
       <c r="H158" s="22"/>
     </row>
-    <row r="159" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>31</v>
       </c>
@@ -8840,116 +12071,134 @@
         <v>131</v>
       </c>
       <c r="E159" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G159" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>614</v>
+      </c>
       <c r="H159" s="22"/>
     </row>
-    <row r="160" spans="1:8" ht="231" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>133</v>
       </c>
       <c r="E160" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="G160" s="6"/>
+        <v>478</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>615</v>
+      </c>
       <c r="H160" s="22"/>
     </row>
-    <row r="161" spans="4:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:8" ht="203.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E161" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="G161" s="6"/>
+        <v>447</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="H161" s="22"/>
     </row>
-    <row r="162" spans="4:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:8" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>134</v>
       </c>
       <c r="E162" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G162" s="6"/>
+        <v>346</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>616</v>
+      </c>
       <c r="H162" s="22"/>
     </row>
-    <row r="163" spans="4:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:8" ht="198" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>135</v>
       </c>
       <c r="E163" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="G163" s="6"/>
+        <v>481</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="H163" s="22"/>
     </row>
-    <row r="164" spans="4:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:8" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>136</v>
       </c>
       <c r="E164" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G164" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>618</v>
+      </c>
       <c r="H164" s="22"/>
     </row>
-    <row r="165" spans="4:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:8" ht="165" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G165" s="6"/>
+        <v>410</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>586</v>
+      </c>
       <c r="H165" s="22"/>
     </row>
-    <row r="166" spans="4:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E166" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G166" s="6"/>
+        <v>408</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>583</v>
+      </c>
       <c r="H166" s="22"/>
     </row>
     <row r="167" spans="4:8" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E167" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G167" s="6"/>
+        <v>463</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>619</v>
+      </c>
       <c r="H167" s="22"/>
     </row>
   </sheetData>
@@ -8971,11 +12220,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8984,14 +12233,15 @@
     <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -9002,358 +12252,448 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="F1" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="178.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="237" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25"/>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25"/>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="214.5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="268.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="207.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25"/>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="379.5" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="165" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="247.5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="99" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="D29" t="s">
+        <v>647</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="280.5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
